--- a/测试数据.xlsx
+++ b/测试数据.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">阻燃!$A$1:$U$538</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">不阻燃!$A$1:$U$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">不阻燃!$A$1:$U$124</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">无卤!$A$1:$U$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'实验-X'!$A$1:$X$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">外厂!$A$1:$Q$52</definedName>
@@ -1431,7 +1431,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1549,12 +1549,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2190,70 +2184,70 @@
     <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2800,9 +2794,9 @@
   <dimension ref="A1:O703"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A503" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C538" sqref="C538"/>
+      <selection pane="bottomLeft" activeCell="I500" sqref="I500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>
@@ -20781,16 +20775,16 @@
         <v>15.8</v>
       </c>
       <c r="D497" s="14">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="E497" s="14">
-        <v>2.48</v>
+        <v>2.29</v>
       </c>
       <c r="F497" s="15">
-        <v>148</v>
+        <v>238</v>
       </c>
       <c r="G497" s="15">
-        <v>2.42</v>
+        <v>9391</v>
       </c>
       <c r="H497" s="16">
         <v>8.6</v>
@@ -20818,16 +20812,16 @@
         <v>15.8</v>
       </c>
       <c r="D498" s="14">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E498" s="14">
-        <v>2.45</v>
+        <v>2.09</v>
       </c>
       <c r="F498" s="15">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="G498" s="15">
-        <v>2.5</v>
+        <v>8760</v>
       </c>
       <c r="H498" s="16">
         <v>8.8</v>
@@ -20853,16 +20847,16 @@
         <v>15.7</v>
       </c>
       <c r="D499" s="14">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E499" s="14">
-        <v>2.53</v>
+        <v>2.2</v>
       </c>
       <c r="F499" s="15">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="G499" s="15">
-        <v>2.29</v>
+        <v>9551</v>
       </c>
       <c r="H499" s="16">
         <v>8.9</v>
@@ -30789,7 +30783,7 @@
       <c r="I294" s="16"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:U118" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:U124" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="196">

--- a/测试数据.xlsx
+++ b/测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28480" windowHeight="17800" activeTab="4"/>
+    <workbookView windowWidth="23750" windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="阻燃" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,11 @@
     <sheet name="外厂" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">阻燃!$A$1:$U$541</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">阻燃!$A$1:$U$562</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">不阻燃!$A$1:$U$124</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">无卤!$A$1:$U$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'实验-X'!$A$1:$X$73</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">外厂!$A$1:$Q$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">外厂!$A$1:$Q$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="410">
   <si>
     <t>型号</t>
   </si>
@@ -781,6 +781,30 @@
     <t>A511271</t>
   </si>
   <si>
+    <t>A511272</t>
+  </si>
+  <si>
+    <t>8..6</t>
+  </si>
+  <si>
+    <t>320G6-L2</t>
+  </si>
+  <si>
+    <t>A511281</t>
+  </si>
+  <si>
+    <t>320G4-N3</t>
+  </si>
+  <si>
+    <t>B511282</t>
+  </si>
+  <si>
+    <t>B511283</t>
+  </si>
+  <si>
+    <t>B512011</t>
+  </si>
+  <si>
     <t>310G6-N6</t>
   </si>
   <si>
@@ -965,6 +989,9 @@
   </si>
   <si>
     <t>A511241</t>
+  </si>
+  <si>
+    <t>B511281</t>
   </si>
   <si>
     <t>灼热丝[1.6mm]</t>
@@ -1153,6 +1180,16 @@
 群青0.06g</t>
   </si>
   <si>
+    <t>310-N-X3</t>
+  </si>
+  <si>
+    <t>B511284</t>
+  </si>
+  <si>
+    <t>310-N-X3(3)
+310-N1(5)</t>
+  </si>
+  <si>
     <t>灰份</t>
   </si>
   <si>
@@ -1226,7 +1263,8 @@
     <t>PBT-2（百斯特普通）</t>
   </si>
   <si>
-    <t>定润（东方塑胶）</t>
+    <t>3080GF30
+定润（东方塑胶）</t>
   </si>
   <si>
     <t>33%%</t>
@@ -2838,10 +2876,10 @@
   <sheetPr codeName="阻燃"/>
   <dimension ref="A1:O706"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A528" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A546" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D564" sqref="D564"/>
+      <selection pane="bottomLeft" activeCell="K580" sqref="K580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>
@@ -23200,171 +23238,551 @@
       <c r="M562" s="79"/>
     </row>
     <row r="563" ht="19.5" customHeight="1" spans="1:13">
-      <c r="A563" s="9"/>
-      <c r="B563" s="9"/>
-      <c r="C563" s="69"/>
-      <c r="D563" s="14"/>
-      <c r="E563" s="14"/>
-      <c r="F563" s="15"/>
-      <c r="G563" s="15"/>
-      <c r="H563" s="16"/>
-      <c r="I563" s="16"/>
+      <c r="A563" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B563" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C563" s="69">
+        <v>13</v>
+      </c>
+      <c r="D563" s="14">
+        <v>146</v>
+      </c>
+      <c r="E563" s="14">
+        <v>2.46</v>
+      </c>
+      <c r="F563" s="15">
+        <v>241</v>
+      </c>
+      <c r="G563" s="15">
+        <v>9740</v>
+      </c>
+      <c r="H563" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="I563" s="16">
+        <v>8.9</v>
+      </c>
+      <c r="J563" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K563" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L563" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M563" s="73" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="564" ht="19.5" customHeight="1" spans="1:13">
       <c r="A564" s="17"/>
       <c r="B564" s="17"/>
-      <c r="C564" s="69"/>
-      <c r="D564" s="14"/>
-      <c r="E564" s="14"/>
-      <c r="F564" s="15"/>
-      <c r="G564" s="15"/>
-      <c r="H564" s="16"/>
-      <c r="I564" s="16"/>
+      <c r="C564" s="69">
+        <v>12.6</v>
+      </c>
+      <c r="D564" s="14">
+        <v>144</v>
+      </c>
+      <c r="E564" s="14">
+        <v>2.41</v>
+      </c>
+      <c r="F564" s="15">
+        <v>235</v>
+      </c>
+      <c r="G564" s="15">
+        <v>9786</v>
+      </c>
+      <c r="H564" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="I564" s="16">
+        <v>8.3</v>
+      </c>
+      <c r="J564" s="79">
+        <v>0</v>
+      </c>
+      <c r="K564" s="79">
+        <v>0</v>
+      </c>
+      <c r="L564" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M564" s="79"/>
     </row>
     <row r="565" ht="19.5" customHeight="1" spans="1:13">
       <c r="A565" s="17"/>
       <c r="B565" s="17"/>
-      <c r="C565" s="69"/>
-      <c r="D565" s="14"/>
-      <c r="E565" s="14"/>
-      <c r="F565" s="15"/>
-      <c r="G565" s="15"/>
-      <c r="H565" s="16"/>
+      <c r="C565" s="69">
+        <v>13.4</v>
+      </c>
+      <c r="D565" s="14">
+        <v>145</v>
+      </c>
+      <c r="E565" s="14">
+        <v>2.52</v>
+      </c>
+      <c r="F565" s="15">
+        <v>239</v>
+      </c>
+      <c r="G565" s="15">
+        <v>9756</v>
+      </c>
+      <c r="H565" s="16">
+        <v>8.4</v>
+      </c>
       <c r="I565" s="16"/>
+      <c r="J565" s="79">
+        <v>0</v>
+      </c>
+      <c r="K565" s="79">
+        <v>0</v>
+      </c>
+      <c r="L565" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M565" s="79"/>
     </row>
     <row r="566" ht="19.5" customHeight="1" spans="1:13">
-      <c r="A566" s="9"/>
-      <c r="B566" s="9"/>
-      <c r="C566" s="69"/>
-      <c r="D566" s="14"/>
-      <c r="E566" s="14"/>
-      <c r="F566" s="15"/>
-      <c r="G566" s="15"/>
-      <c r="H566" s="16"/>
-      <c r="I566" s="16"/>
+      <c r="A566" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B566" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C566" s="69">
+        <v>25.4</v>
+      </c>
+      <c r="D566" s="14">
+        <v>137</v>
+      </c>
+      <c r="E566" s="14">
+        <v>2.21</v>
+      </c>
+      <c r="F566" s="15">
+        <v>225</v>
+      </c>
+      <c r="G566" s="15">
+        <v>9897</v>
+      </c>
+      <c r="H566" s="16">
+        <v>8.7</v>
+      </c>
+      <c r="I566" s="16">
+        <v>8.4</v>
+      </c>
+      <c r="J566" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K566" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L566" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M566" s="73" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="567" ht="19.5" customHeight="1" spans="1:13">
       <c r="A567" s="17"/>
       <c r="B567" s="17"/>
-      <c r="C567" s="69"/>
-      <c r="D567" s="14"/>
-      <c r="E567" s="14"/>
-      <c r="F567" s="15"/>
-      <c r="G567" s="15"/>
-      <c r="H567" s="16"/>
-      <c r="I567" s="16"/>
+      <c r="C567" s="69">
+        <v>25.4</v>
+      </c>
+      <c r="D567" s="14">
+        <v>140</v>
+      </c>
+      <c r="E567" s="14">
+        <v>2.25</v>
+      </c>
+      <c r="F567" s="15">
+        <v>226</v>
+      </c>
+      <c r="G567" s="15">
+        <v>10067</v>
+      </c>
+      <c r="H567" s="16">
+        <v>8.8</v>
+      </c>
+      <c r="I567" s="16">
+        <v>9.2</v>
+      </c>
+      <c r="J567" s="79">
+        <v>0</v>
+      </c>
+      <c r="K567" s="79">
+        <v>1</v>
+      </c>
+      <c r="L567" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M567" s="79"/>
     </row>
     <row r="568" ht="19.5" customHeight="1" spans="1:13">
       <c r="A568" s="17"/>
       <c r="B568" s="17"/>
-      <c r="C568" s="69"/>
-      <c r="D568" s="14"/>
-      <c r="E568" s="14"/>
-      <c r="F568" s="15"/>
-      <c r="G568" s="15"/>
-      <c r="H568" s="16"/>
+      <c r="C568" s="69">
+        <v>24.7</v>
+      </c>
+      <c r="D568" s="14">
+        <v>139</v>
+      </c>
+      <c r="E568" s="14">
+        <v>2.18</v>
+      </c>
+      <c r="F568" s="15">
+        <v>226</v>
+      </c>
+      <c r="G568" s="15">
+        <v>10075</v>
+      </c>
+      <c r="H568" s="16">
+        <v>8.7</v>
+      </c>
       <c r="I568" s="16"/>
+      <c r="J568" s="79">
+        <v>0</v>
+      </c>
+      <c r="K568" s="79">
+        <v>2</v>
+      </c>
+      <c r="L568" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M568" s="79"/>
     </row>
     <row r="569" ht="19.5" customHeight="1" spans="1:13">
-      <c r="A569" s="9"/>
-      <c r="B569" s="9"/>
-      <c r="C569" s="69"/>
-      <c r="D569" s="14"/>
-      <c r="E569" s="14"/>
-      <c r="F569" s="15"/>
-      <c r="G569" s="15"/>
-      <c r="H569" s="16"/>
-      <c r="I569" s="16"/>
+      <c r="A569" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B569" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C569" s="69">
+        <v>5.5</v>
+      </c>
+      <c r="D569" s="14">
+        <v>124</v>
+      </c>
+      <c r="E569" s="14">
+        <v>3.12</v>
+      </c>
+      <c r="F569" s="15">
+        <v>208</v>
+      </c>
+      <c r="G569" s="15">
+        <v>6482</v>
+      </c>
+      <c r="H569" s="16">
+        <v>9</v>
+      </c>
+      <c r="I569" s="16">
+        <v>9.3</v>
+      </c>
+      <c r="J569" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K569" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L569" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M569" s="73" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="570" ht="19.5" customHeight="1" spans="1:13">
       <c r="A570" s="17"/>
       <c r="B570" s="17"/>
-      <c r="C570" s="69"/>
-      <c r="D570" s="14"/>
-      <c r="E570" s="14"/>
-      <c r="F570" s="15"/>
-      <c r="G570" s="15"/>
-      <c r="H570" s="16"/>
-      <c r="I570" s="16"/>
+      <c r="C570" s="69">
+        <v>5.5</v>
+      </c>
+      <c r="D570" s="14">
+        <v>123</v>
+      </c>
+      <c r="E570" s="14">
+        <v>3.21</v>
+      </c>
+      <c r="F570" s="15">
+        <v>209</v>
+      </c>
+      <c r="G570" s="15">
+        <v>6497</v>
+      </c>
+      <c r="H570" s="16">
+        <v>10.2</v>
+      </c>
+      <c r="I570" s="16">
+        <v>9.4</v>
+      </c>
+      <c r="J570" s="79">
+        <v>0</v>
+      </c>
+      <c r="K570" s="79">
+        <v>0</v>
+      </c>
+      <c r="L570" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M570" s="79"/>
     </row>
     <row r="571" ht="19.5" customHeight="1" spans="1:13">
       <c r="A571" s="17"/>
       <c r="B571" s="17"/>
-      <c r="C571" s="69"/>
-      <c r="D571" s="14"/>
-      <c r="E571" s="14"/>
-      <c r="F571" s="15"/>
-      <c r="G571" s="15"/>
-      <c r="H571" s="16"/>
+      <c r="C571" s="69">
+        <v>5.5</v>
+      </c>
+      <c r="D571" s="14">
+        <v>124</v>
+      </c>
+      <c r="E571" s="14">
+        <v>3.06</v>
+      </c>
+      <c r="F571" s="15">
+        <v>204</v>
+      </c>
+      <c r="G571" s="15">
+        <v>6405</v>
+      </c>
+      <c r="H571" s="16">
+        <v>9.6</v>
+      </c>
       <c r="I571" s="16"/>
+      <c r="J571" s="79">
+        <v>0</v>
+      </c>
+      <c r="K571" s="79">
+        <v>0</v>
+      </c>
+      <c r="L571" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M571" s="79"/>
     </row>
     <row r="572" ht="19.5" customHeight="1" spans="1:13">
-      <c r="A572" s="9"/>
-      <c r="B572" s="9"/>
-      <c r="C572" s="69"/>
-      <c r="D572" s="14"/>
-      <c r="E572" s="14"/>
-      <c r="F572" s="15"/>
-      <c r="G572" s="15"/>
-      <c r="H572" s="16"/>
-      <c r="I572" s="16"/>
+      <c r="A572" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B572" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C572" s="69">
+        <v>20</v>
+      </c>
+      <c r="D572" s="14">
+        <v>121</v>
+      </c>
+      <c r="E572" s="14">
+        <v>3.12</v>
+      </c>
+      <c r="F572" s="15">
+        <v>191</v>
+      </c>
+      <c r="G572" s="15">
+        <v>5851</v>
+      </c>
+      <c r="H572" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="I572" s="16">
+        <v>6.4</v>
+      </c>
+      <c r="J572" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K572" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L572" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M572" s="73" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="573" ht="19.5" customHeight="1" spans="1:13">
       <c r="A573" s="17"/>
       <c r="B573" s="17"/>
-      <c r="C573" s="69"/>
-      <c r="D573" s="14"/>
-      <c r="E573" s="14"/>
-      <c r="F573" s="15"/>
-      <c r="G573" s="15"/>
-      <c r="H573" s="16"/>
-      <c r="I573" s="16"/>
+      <c r="C573" s="69">
+        <v>20</v>
+      </c>
+      <c r="D573" s="14">
+        <v>117</v>
+      </c>
+      <c r="E573" s="14">
+        <v>3.05</v>
+      </c>
+      <c r="F573" s="15">
+        <v>190</v>
+      </c>
+      <c r="G573" s="15">
+        <v>5880</v>
+      </c>
+      <c r="H573" s="16">
+        <v>7.1</v>
+      </c>
+      <c r="I573" s="16">
+        <v>7</v>
+      </c>
+      <c r="J573" s="79">
+        <v>0</v>
+      </c>
+      <c r="K573" s="79">
+        <v>0</v>
+      </c>
+      <c r="L573" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M573" s="79"/>
     </row>
     <row r="574" ht="19.5" customHeight="1" spans="1:13">
       <c r="A574" s="17"/>
       <c r="B574" s="17"/>
-      <c r="C574" s="69"/>
-      <c r="D574" s="14"/>
-      <c r="E574" s="14"/>
-      <c r="F574" s="15"/>
-      <c r="G574" s="15"/>
-      <c r="H574" s="16"/>
+      <c r="C574" s="69">
+        <v>20.2</v>
+      </c>
+      <c r="D574" s="14">
+        <v>119</v>
+      </c>
+      <c r="E574" s="14">
+        <v>2.98</v>
+      </c>
+      <c r="F574" s="15">
+        <v>189</v>
+      </c>
+      <c r="G574" s="15">
+        <v>5872</v>
+      </c>
+      <c r="H574" s="16">
+        <v>6.9</v>
+      </c>
       <c r="I574" s="16"/>
+      <c r="J574" s="79">
+        <v>0</v>
+      </c>
+      <c r="K574" s="79">
+        <v>0</v>
+      </c>
+      <c r="L574" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M574" s="79"/>
     </row>
     <row r="575" ht="19.5" customHeight="1" spans="1:13">
-      <c r="A575" s="9"/>
-      <c r="B575" s="9"/>
-      <c r="C575" s="69"/>
-      <c r="D575" s="14"/>
-      <c r="E575" s="14"/>
-      <c r="F575" s="15"/>
-      <c r="G575" s="15"/>
-      <c r="H575" s="16"/>
-      <c r="I575" s="16"/>
+      <c r="A575" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B575" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C575" s="69">
+        <v>20.1</v>
+      </c>
+      <c r="D575" s="14">
+        <v>142</v>
+      </c>
+      <c r="E575" s="14">
+        <v>1.88</v>
+      </c>
+      <c r="F575" s="15">
+        <v>239</v>
+      </c>
+      <c r="G575" s="15">
+        <v>10116</v>
+      </c>
+      <c r="H575" s="16">
+        <v>8.2</v>
+      </c>
+      <c r="I575" s="16">
+        <v>8.4</v>
+      </c>
+      <c r="J575" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K575" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L575" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M575" s="73" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="576" ht="19.5" customHeight="1" spans="1:13">
       <c r="A576" s="17"/>
       <c r="B576" s="17"/>
-      <c r="C576" s="69"/>
-      <c r="D576" s="14"/>
-      <c r="E576" s="14"/>
-      <c r="F576" s="15"/>
-      <c r="G576" s="15"/>
-      <c r="H576" s="16"/>
-      <c r="I576" s="16"/>
-    </row>
-    <row r="577" ht="19.5" customHeight="1" spans="1:9">
+      <c r="C576" s="69">
+        <v>20.3</v>
+      </c>
+      <c r="D576" s="14">
+        <v>142</v>
+      </c>
+      <c r="E576" s="14">
+        <v>1.91</v>
+      </c>
+      <c r="F576" s="15">
+        <v>237</v>
+      </c>
+      <c r="G576" s="15">
+        <v>10083</v>
+      </c>
+      <c r="H576" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="I576" s="16">
+        <v>8.6</v>
+      </c>
+      <c r="J576" s="79">
+        <v>0</v>
+      </c>
+      <c r="K576" s="79">
+        <v>1</v>
+      </c>
+      <c r="L576" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M576" s="79"/>
+    </row>
+    <row r="577" ht="19.5" customHeight="1" spans="1:13">
       <c r="A577" s="17"/>
       <c r="B577" s="17"/>
-      <c r="C577" s="69"/>
-      <c r="D577" s="14"/>
-      <c r="E577" s="14"/>
-      <c r="F577" s="15"/>
-      <c r="G577" s="15"/>
-      <c r="H577" s="16"/>
+      <c r="C577" s="69">
+        <v>20.3</v>
+      </c>
+      <c r="D577" s="14">
+        <v>143</v>
+      </c>
+      <c r="E577" s="14">
+        <v>1.95</v>
+      </c>
+      <c r="F577" s="15">
+        <v>239</v>
+      </c>
+      <c r="G577" s="15">
+        <v>10058</v>
+      </c>
+      <c r="H577" s="16">
+        <v>8.7</v>
+      </c>
       <c r="I577" s="16"/>
-    </row>
-    <row r="578" ht="19.5" customHeight="1" spans="1:9">
+      <c r="J577" s="79">
+        <v>0</v>
+      </c>
+      <c r="K577" s="79">
+        <v>1</v>
+      </c>
+      <c r="L577" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M577" s="79"/>
+    </row>
+    <row r="578" ht="19.5" customHeight="1" spans="1:13">
       <c r="A578" s="9"/>
       <c r="B578" s="9"/>
       <c r="C578" s="69"/>
@@ -23375,7 +23793,7 @@
       <c r="H578" s="16"/>
       <c r="I578" s="16"/>
     </row>
-    <row r="579" ht="19.5" customHeight="1" spans="1:9">
+    <row r="579" ht="19.5" customHeight="1" spans="1:13">
       <c r="A579" s="17"/>
       <c r="B579" s="17"/>
       <c r="C579" s="69"/>
@@ -23386,7 +23804,7 @@
       <c r="H579" s="16"/>
       <c r="I579" s="16"/>
     </row>
-    <row r="580" ht="19.5" customHeight="1" spans="1:9">
+    <row r="580" ht="19.5" customHeight="1" spans="1:13">
       <c r="A580" s="17"/>
       <c r="B580" s="17"/>
       <c r="C580" s="69"/>
@@ -23397,7 +23815,7 @@
       <c r="H580" s="16"/>
       <c r="I580" s="16"/>
     </row>
-    <row r="581" ht="19.5" customHeight="1" spans="1:9">
+    <row r="581" ht="19.5" customHeight="1" spans="1:13">
       <c r="A581" s="9"/>
       <c r="B581" s="9"/>
       <c r="C581" s="69"/>
@@ -23408,7 +23826,7 @@
       <c r="H581" s="16"/>
       <c r="I581" s="16"/>
     </row>
-    <row r="582" ht="19.5" customHeight="1" spans="1:9">
+    <row r="582" ht="19.5" customHeight="1" spans="1:13">
       <c r="A582" s="17"/>
       <c r="B582" s="17"/>
       <c r="C582" s="69"/>
@@ -23419,7 +23837,7 @@
       <c r="H582" s="16"/>
       <c r="I582" s="16"/>
     </row>
-    <row r="583" ht="19.5" customHeight="1" spans="1:9">
+    <row r="583" ht="19.5" customHeight="1" spans="1:13">
       <c r="A583" s="17"/>
       <c r="B583" s="17"/>
       <c r="C583" s="69"/>
@@ -23430,7 +23848,7 @@
       <c r="H583" s="16"/>
       <c r="I583" s="16"/>
     </row>
-    <row r="584" ht="19.5" customHeight="1" spans="1:9">
+    <row r="584" ht="19.5" customHeight="1" spans="1:13">
       <c r="A584" s="9"/>
       <c r="B584" s="9"/>
       <c r="C584" s="69"/>
@@ -23441,7 +23859,7 @@
       <c r="H584" s="16"/>
       <c r="I584" s="16"/>
     </row>
-    <row r="585" ht="19.5" customHeight="1" spans="1:9">
+    <row r="585" ht="19.5" customHeight="1" spans="1:13">
       <c r="A585" s="17"/>
       <c r="B585" s="17"/>
       <c r="C585" s="69"/>
@@ -23452,7 +23870,7 @@
       <c r="H585" s="16"/>
       <c r="I585" s="16"/>
     </row>
-    <row r="586" ht="19.5" customHeight="1" spans="1:9">
+    <row r="586" ht="19.5" customHeight="1" spans="1:13">
       <c r="A586" s="17"/>
       <c r="B586" s="17"/>
       <c r="C586" s="69"/>
@@ -23463,7 +23881,7 @@
       <c r="H586" s="16"/>
       <c r="I586" s="16"/>
     </row>
-    <row r="587" ht="19.5" customHeight="1" spans="1:9">
+    <row r="587" ht="19.5" customHeight="1" spans="1:13">
       <c r="A587" s="9"/>
       <c r="B587" s="9"/>
       <c r="C587" s="69"/>
@@ -23474,7 +23892,7 @@
       <c r="H587" s="16"/>
       <c r="I587" s="16"/>
     </row>
-    <row r="588" ht="19.5" customHeight="1" spans="1:9">
+    <row r="588" ht="19.5" customHeight="1" spans="1:13">
       <c r="A588" s="17"/>
       <c r="B588" s="17"/>
       <c r="C588" s="69"/>
@@ -23485,7 +23903,7 @@
       <c r="H588" s="16"/>
       <c r="I588" s="16"/>
     </row>
-    <row r="589" ht="19.5" customHeight="1" spans="1:9">
+    <row r="589" ht="19.5" customHeight="1" spans="1:13">
       <c r="A589" s="17"/>
       <c r="B589" s="17"/>
       <c r="C589" s="69"/>
@@ -23496,7 +23914,7 @@
       <c r="H589" s="16"/>
       <c r="I589" s="16"/>
     </row>
-    <row r="590" ht="19.5" customHeight="1" spans="1:9">
+    <row r="590" ht="19.5" customHeight="1" spans="1:13">
       <c r="A590" s="9"/>
       <c r="B590" s="9"/>
       <c r="C590" s="69"/>
@@ -23507,7 +23925,7 @@
       <c r="H590" s="16"/>
       <c r="I590" s="16"/>
     </row>
-    <row r="591" ht="19.5" customHeight="1" spans="1:9">
+    <row r="591" ht="19.5" customHeight="1" spans="1:13">
       <c r="A591" s="17"/>
       <c r="B591" s="17"/>
       <c r="C591" s="69"/>
@@ -23518,7 +23936,7 @@
       <c r="H591" s="16"/>
       <c r="I591" s="16"/>
     </row>
-    <row r="592" ht="19.5" customHeight="1" spans="1:9">
+    <row r="592" ht="19.5" customHeight="1" spans="1:13">
       <c r="A592" s="17"/>
       <c r="B592" s="17"/>
       <c r="C592" s="69"/>
@@ -24784,7 +25202,7 @@
       <c r="I706" s="16"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:U541" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:U562" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="470">
@@ -25271,9 +25689,9 @@
   <dimension ref="A1:U294"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A125" sqref="A125:A127"/>
+      <selection pane="bottomLeft" activeCell="A128" sqref="A128:A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -25325,10 +25743,10 @@
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:21">
       <c r="A2" s="64" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C2" s="65">
         <v>19.3</v>
@@ -25438,10 +25856,10 @@
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:21">
       <c r="A5" s="9" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C5" s="69">
         <v>2.4</v>
@@ -25545,10 +25963,10 @@
     </row>
     <row r="8" ht="19.5" customHeight="1" spans="1:21">
       <c r="A8" s="64" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C8" s="65">
         <v>18.1</v>
@@ -25658,10 +26076,10 @@
     </row>
     <row r="11" ht="19.5" customHeight="1" spans="1:21">
       <c r="A11" s="64" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="66">
@@ -25767,10 +26185,10 @@
     </row>
     <row r="14" ht="19.5" customHeight="1" spans="1:21">
       <c r="A14" s="64" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C14" s="65">
         <v>18.7</v>
@@ -25880,10 +26298,10 @@
     </row>
     <row r="17" ht="19.5" customHeight="1" spans="1:21">
       <c r="A17" s="64" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C17" s="65">
         <v>27.5</v>
@@ -25993,10 +26411,10 @@
     </row>
     <row r="20" ht="19.5" customHeight="1" spans="1:21">
       <c r="A20" s="64" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C20" s="65">
         <v>18</v>
@@ -26106,10 +26524,10 @@
     </row>
     <row r="23" ht="19.5" customHeight="1" spans="1:21">
       <c r="A23" s="64" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C23" s="65">
         <v>27.4</v>
@@ -26219,10 +26637,10 @@
     </row>
     <row r="26" ht="19.5" customHeight="1" spans="1:21">
       <c r="A26" s="64" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C26" s="65">
         <v>24.3</v>
@@ -26332,10 +26750,10 @@
     </row>
     <row r="29" ht="19.5" customHeight="1" spans="1:21">
       <c r="A29" s="64" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C29" s="65">
         <v>23.8</v>
@@ -26445,10 +26863,10 @@
     </row>
     <row r="32" ht="19.5" customHeight="1" spans="1:21">
       <c r="A32" s="64" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="66">
@@ -26548,10 +26966,10 @@
     </row>
     <row r="35" ht="19.5" customHeight="1" spans="1:21">
       <c r="A35" s="64" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B35" s="64" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C35" s="65"/>
       <c r="D35" s="66">
@@ -26649,10 +27067,10 @@
     </row>
     <row r="38" ht="19.5" customHeight="1" spans="1:21">
       <c r="A38" s="64" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B38" s="64" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C38" s="72">
         <v>24.5</v>
@@ -26764,10 +27182,10 @@
     </row>
     <row r="41" ht="19.5" customHeight="1" spans="1:21">
       <c r="A41" s="64" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B41" s="64" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C41" s="65">
         <v>23.9</v>
@@ -26879,10 +27297,10 @@
     </row>
     <row r="44" ht="19.5" customHeight="1" spans="1:21">
       <c r="A44" s="64" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C44" s="72">
         <v>16.3</v>
@@ -26994,10 +27412,10 @@
     </row>
     <row r="47" ht="19.5" customHeight="1" spans="1:21">
       <c r="A47" s="64" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C47" s="72">
         <v>27.4</v>
@@ -27107,10 +27525,10 @@
     </row>
     <row r="50" ht="19.5" customHeight="1" spans="1:21">
       <c r="A50" s="64" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C50" s="72">
         <v>21.2</v>
@@ -27220,10 +27638,10 @@
     </row>
     <row r="53" ht="19.5" customHeight="1" spans="1:21">
       <c r="A53" s="64" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B53" s="64" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C53" s="72">
         <v>21.1</v>
@@ -27333,10 +27751,10 @@
     </row>
     <row r="56" ht="19.5" customHeight="1" spans="1:21">
       <c r="A56" s="64" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B56" s="64" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C56" s="72">
         <v>18.1</v>
@@ -27446,10 +27864,10 @@
     </row>
     <row r="59" ht="19.5" customHeight="1" spans="1:21">
       <c r="A59" s="64" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B59" s="64" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C59" s="72">
         <v>20.9</v>
@@ -27559,10 +27977,10 @@
     </row>
     <row r="62" ht="19.5" customHeight="1" spans="1:21">
       <c r="A62" s="64" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B62" s="64" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C62" s="72">
         <v>23.1</v>
@@ -27672,10 +28090,10 @@
     </row>
     <row r="65" ht="19.5" customHeight="1" spans="1:21">
       <c r="A65" s="64" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B65" s="64" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C65" s="72">
         <v>23.6</v>
@@ -27787,10 +28205,10 @@
     </row>
     <row r="68" ht="19.5" customHeight="1" spans="1:21">
       <c r="A68" s="64" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B68" s="64" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C68" s="72">
         <v>20.9</v>
@@ -27900,10 +28318,10 @@
     </row>
     <row r="71" ht="19.5" customHeight="1" spans="1:21">
       <c r="A71" s="64" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B71" s="64" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C71" s="72">
         <v>20.1</v>
@@ -28013,10 +28431,10 @@
     </row>
     <row r="74" ht="19.5" customHeight="1" spans="1:21">
       <c r="A74" s="64" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B74" s="64" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C74" s="72">
         <v>16.4</v>
@@ -28126,10 +28544,10 @@
     </row>
     <row r="77" ht="19.5" customHeight="1" spans="1:21">
       <c r="A77" s="9" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C77" s="69">
         <v>19.6</v>
@@ -28239,10 +28657,10 @@
     </row>
     <row r="80" ht="19.5" customHeight="1" spans="1:21">
       <c r="A80" s="64" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B80" s="64" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C80" s="72">
         <v>18.3</v>
@@ -28352,10 +28770,10 @@
     </row>
     <row r="83" ht="19.5" customHeight="1" spans="1:21">
       <c r="A83" s="9" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C83" s="69">
         <v>18.2</v>
@@ -28465,10 +28883,10 @@
     </row>
     <row r="86" ht="19.5" customHeight="1" spans="1:21">
       <c r="A86" s="64" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B86" s="64" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C86" s="72">
         <v>18.1</v>
@@ -28578,10 +28996,10 @@
     </row>
     <row r="89" ht="19.5" customHeight="1" spans="1:21">
       <c r="A89" s="9" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C89" s="69">
         <v>21.3</v>
@@ -28691,10 +29109,10 @@
     </row>
     <row r="92" ht="19.5" customHeight="1" spans="1:21">
       <c r="A92" s="9" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C92" s="69">
         <v>30.2</v>
@@ -28804,10 +29222,10 @@
     </row>
     <row r="95" ht="19.5" customHeight="1" spans="1:21">
       <c r="A95" s="9" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C95" s="69">
         <v>12.9</v>
@@ -28919,10 +29337,10 @@
     </row>
     <row r="98" customHeight="1" spans="1:21">
       <c r="A98" s="9" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C98" s="69">
         <v>19.6</v>
@@ -28996,10 +29414,10 @@
     </row>
     <row r="101" customHeight="1" spans="1:21">
       <c r="A101" s="9" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C101" s="69">
         <v>29.4</v>
@@ -29065,10 +29483,10 @@
     </row>
     <row r="104" customHeight="1" spans="1:21">
       <c r="A104" s="9" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C104" s="69">
         <v>21.6</v>
@@ -29142,10 +29560,10 @@
     </row>
     <row r="107" customHeight="1" spans="1:21">
       <c r="A107" s="9" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C107" s="69">
         <v>14.9</v>
@@ -29219,10 +29637,10 @@
     </row>
     <row r="110" customHeight="1" spans="1:21">
       <c r="A110" s="9" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C110" s="69">
         <v>16.9</v>
@@ -29296,10 +29714,10 @@
     </row>
     <row r="113" customHeight="1" spans="1:9">
       <c r="A113" s="9" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C113" s="69">
         <v>19.7</v>
@@ -29373,10 +29791,10 @@
     </row>
     <row r="116" customHeight="1" spans="1:9">
       <c r="A116" s="9" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C116" s="69">
         <v>23.4</v>
@@ -29450,10 +29868,10 @@
     </row>
     <row r="119" customHeight="1" spans="1:9">
       <c r="A119" s="9" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C119" s="69">
         <v>23.9</v>
@@ -29527,10 +29945,10 @@
     </row>
     <row r="122" customHeight="1" spans="1:9">
       <c r="A122" s="9" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C122" s="69">
         <v>22.7</v>
@@ -29603,36 +30021,80 @@
       <c r="I124" s="16"/>
     </row>
     <row r="125" customHeight="1" spans="1:9">
-      <c r="A125" s="9"/>
-      <c r="B125" s="9"/>
-      <c r="C125" s="69"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="16"/>
-      <c r="I125" s="16"/>
+      <c r="A125" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C125" s="69">
+        <v>21.6</v>
+      </c>
+      <c r="D125" s="14">
+        <v>150</v>
+      </c>
+      <c r="E125" s="14">
+        <v>1.85</v>
+      </c>
+      <c r="F125" s="15">
+        <v>252</v>
+      </c>
+      <c r="G125" s="15">
+        <v>9156</v>
+      </c>
+      <c r="H125" s="16">
+        <v>8.9</v>
+      </c>
+      <c r="I125" s="16">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="126" customHeight="1" spans="1:9">
       <c r="A126" s="17"/>
       <c r="B126" s="17"/>
-      <c r="C126" s="69"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="16"/>
+      <c r="C126" s="69">
+        <v>21.3</v>
+      </c>
+      <c r="D126" s="14">
+        <v>150</v>
+      </c>
+      <c r="E126" s="14">
+        <v>1.91</v>
+      </c>
+      <c r="F126" s="15">
+        <v>256</v>
+      </c>
+      <c r="G126" s="15">
+        <v>9132</v>
+      </c>
+      <c r="H126" s="16">
+        <v>9</v>
+      </c>
+      <c r="I126" s="16">
+        <v>8.8</v>
+      </c>
     </row>
     <row r="127" customHeight="1" spans="1:9">
       <c r="A127" s="17"/>
       <c r="B127" s="17"/>
-      <c r="C127" s="69"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="16"/>
+      <c r="C127" s="69">
+        <v>21.9</v>
+      </c>
+      <c r="D127" s="14">
+        <v>153</v>
+      </c>
+      <c r="E127" s="14">
+        <v>1.84</v>
+      </c>
+      <c r="F127" s="15">
+        <v>253</v>
+      </c>
+      <c r="G127" s="15">
+        <v>9457</v>
+      </c>
+      <c r="H127" s="16">
+        <v>8.4</v>
+      </c>
       <c r="I127" s="16"/>
     </row>
     <row r="128" customHeight="1" spans="1:9">
@@ -31725,21 +32187,21 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:21">
       <c r="A2" s="9" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C2" s="14">
         <v>89</v>
@@ -31760,13 +32222,13 @@
         <v>5.5</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="K2" s="48" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="U2" s="8"/>
     </row>
@@ -34232,13 +34694,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="实验-X"/>
+  <sheetPr filterMode="1" codeName="实验-X"/>
   <dimension ref="A1:P173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="W40" sqref="W40"/>
+      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -34298,21 +34760,21 @@
         <v>11</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:16">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A2" s="9" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C2" s="12">
         <v>20.5</v>
@@ -34337,7 +34799,7 @@
       </c>
       <c r="L2" s="36"/>
     </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:16">
+    <row r="3" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="12">
@@ -34362,7 +34824,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="4" ht="19.5" customHeight="1" spans="1:16">
+    <row r="4" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A4" s="39"/>
       <c r="B4" s="40"/>
       <c r="C4" s="12">
@@ -34388,9 +34850,9 @@
       </c>
       <c r="L4" s="36"/>
     </row>
-    <row r="5" ht="19.5" customHeight="1" spans="1:16">
+    <row r="5" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A5" s="9" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>36</v>
@@ -34417,7 +34879,7 @@
         <v>8.8</v>
       </c>
     </row>
-    <row r="6" ht="19.5" customHeight="1" spans="1:16">
+    <row r="6" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="12">
@@ -34442,7 +34904,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1" spans="1:16">
+    <row r="7" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A7" s="17"/>
       <c r="B7" s="18"/>
       <c r="C7" s="12">
@@ -34465,9 +34927,9 @@
       </c>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" ht="19.5" customHeight="1" spans="1:16">
+    <row r="8" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A8" s="9" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="12">
@@ -34504,7 +34966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="19.5" customHeight="1" spans="1:16">
+    <row r="9" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="12">
@@ -34541,7 +35003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="19.5" customHeight="1" spans="1:16">
+    <row r="10" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="12">
@@ -34576,9 +35038,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" ht="19.5" customHeight="1" spans="1:16">
+    <row r="11" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A11" s="9" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="12">
@@ -34615,7 +35077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="19.5" customHeight="1" spans="1:16">
+    <row r="12" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="12">
@@ -34652,7 +35114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" ht="19.5" customHeight="1" spans="1:16">
+    <row r="13" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="12">
@@ -34687,12 +35149,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" ht="19.5" customHeight="1" spans="1:16">
+    <row r="14" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A14" s="9" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C14" s="12">
         <v>12</v>
@@ -34716,7 +35178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="19.5" customHeight="1" spans="1:16">
+    <row r="15" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="12">
@@ -34737,7 +35199,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="16" ht="19.5" customHeight="1" spans="1:16">
+    <row r="16" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="12">
@@ -34756,12 +35218,12 @@
       </c>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" ht="19.5" customHeight="1" spans="1:16">
+    <row r="17" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A17" s="9" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C17" s="12">
         <v>24</v>
@@ -34785,7 +35247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" ht="19.5" customHeight="1" spans="1:16">
+    <row r="18" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="12">
@@ -34806,7 +35268,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="19" ht="19.5" customHeight="1" spans="1:16">
+    <row r="19" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="12">
@@ -34827,10 +35289,10 @@
     </row>
     <row r="20" ht="19.5" customHeight="1" spans="1:16">
       <c r="A20" s="9" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C20" s="12">
         <v>14.9</v>
@@ -34866,13 +35328,13 @@
         <v>11</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="O20" s="34" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="P20" s="35" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" ht="19.5" customHeight="1" spans="1:16">
@@ -34912,13 +35374,13 @@
         <v>5</v>
       </c>
       <c r="N21" s="41" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="O21" s="42" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="P21" s="35" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" ht="19.5" customHeight="1" spans="1:16">
@@ -34956,19 +35418,19 @@
         <v>6</v>
       </c>
       <c r="N22" s="41" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="O22" s="42" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="P22" s="43"/>
     </row>
     <row r="23" ht="19.5" customHeight="1" spans="1:16">
       <c r="A23" s="9" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C23" s="12">
         <v>11.7</v>
@@ -35004,13 +35466,13 @@
         <v>11</v>
       </c>
       <c r="N23" s="33" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="O23" s="34" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="P23" s="35" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" ht="19.5" customHeight="1" spans="1:16">
@@ -35050,13 +35512,13 @@
         <v>2</v>
       </c>
       <c r="N24" s="41" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="O24" s="42" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="P24" s="35" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" ht="19.5" customHeight="1" spans="1:16">
@@ -35094,19 +35556,19 @@
         <v>3</v>
       </c>
       <c r="N25" s="41" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="O25" s="42" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="P25" s="43"/>
     </row>
     <row r="26" ht="19.5" customHeight="1" spans="1:16">
       <c r="A26" s="9" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C26" s="12">
         <v>18.7</v>
@@ -35142,13 +35604,13 @@
         <v>11</v>
       </c>
       <c r="N26" s="33" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="O26" s="34" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="P26" s="35" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" ht="19.5" customHeight="1" spans="1:16">
@@ -35188,13 +35650,13 @@
         <v>2</v>
       </c>
       <c r="N27" s="41" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="O27" s="42" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="P27" s="35" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" ht="19.5" customHeight="1" spans="1:16">
@@ -35232,19 +35694,19 @@
         <v>2</v>
       </c>
       <c r="N28" s="41" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="O28" s="42" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="P28" s="43"/>
     </row>
-    <row r="29" ht="19.5" customHeight="1" spans="1:16">
+    <row r="29" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A29" s="9" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="C29" s="12">
         <v>4.3</v>
@@ -35268,7 +35730,7 @@
         <v>9.2</v>
       </c>
     </row>
-    <row r="30" ht="19.5" customHeight="1" spans="1:16">
+    <row r="30" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A30" s="17"/>
       <c r="B30" s="18"/>
       <c r="C30" s="12">
@@ -35293,7 +35755,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="31" ht="19.5" customHeight="1" spans="1:16">
+    <row r="31" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
       <c r="C31" s="12">
@@ -35318,10 +35780,10 @@
     </row>
     <row r="32" ht="19.5" customHeight="1" spans="1:16">
       <c r="A32" s="9" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C32" s="12">
         <v>5.5</v>
@@ -35357,13 +35819,13 @@
         <v>11</v>
       </c>
       <c r="N32" s="33" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="P32" s="35" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" ht="19.5" customHeight="1" spans="1:16">
@@ -35403,13 +35865,13 @@
         <v>5</v>
       </c>
       <c r="N33" s="41" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="O33" s="42" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="P33" s="35" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" ht="19.5" customHeight="1" spans="1:16">
@@ -35447,21 +35909,21 @@
         <v>3</v>
       </c>
       <c r="N34" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="O34" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="P34" s="43" t="s">
         <v>344</v>
       </c>
-      <c r="O34" s="42" t="s">
-        <v>344</v>
-      </c>
-      <c r="P34" s="43" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="35" ht="19.5" customHeight="1" spans="1:16">
+    </row>
+    <row r="35" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A35" s="9" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="C35" s="12">
         <v>26.9</v>
@@ -35497,7 +35959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" ht="19.5" customHeight="1" spans="1:16">
+    <row r="36" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="12">
@@ -35532,7 +35994,7 @@
       </c>
       <c r="M36" s="23"/>
     </row>
-    <row r="37" ht="19.5" customHeight="1" spans="1:16">
+    <row r="37" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="12">
@@ -35565,12 +36027,12 @@
       </c>
       <c r="M37" s="23"/>
     </row>
-    <row r="38" ht="19.5" customHeight="1" spans="1:16">
+    <row r="38" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A38" s="9" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="C38" s="12">
         <v>27.5</v>
@@ -35606,7 +36068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" ht="19.5" customHeight="1" spans="1:16">
+    <row r="39" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="12">
@@ -35643,7 +36105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" ht="19.5" customHeight="1" spans="1:16">
+    <row r="40" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A40" s="17"/>
       <c r="B40" s="18"/>
       <c r="C40" s="12">
@@ -35680,10 +36142,10 @@
     </row>
     <row r="41" ht="19.5" customHeight="1" spans="1:16">
       <c r="A41" s="9" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C41" s="12">
         <v>2.6</v>
@@ -35719,13 +36181,13 @@
         <v>11</v>
       </c>
       <c r="N41" s="33" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="O41" s="34" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="P41" s="35" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" ht="19.5" customHeight="1" spans="1:16">
@@ -35763,13 +36225,13 @@
       </c>
       <c r="M42" s="23"/>
       <c r="N42" s="41" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="O42" s="42" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="P42" s="35" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43" ht="19.5" customHeight="1" spans="1:16">
@@ -35803,21 +36265,21 @@
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
       <c r="N43" s="41" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="O43" s="42" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="P43" s="35" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="44" ht="19.5" customHeight="1" spans="1:16">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="44" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A44" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C44" s="12">
         <v>0.32</v>
@@ -35853,7 +36315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" ht="19.5" customHeight="1" spans="1:16">
+    <row r="45" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="12">
@@ -35890,7 +36352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="19.5" customHeight="1" spans="1:16">
+    <row r="46" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="12">
@@ -35925,9 +36387,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="19.5" customHeight="1" spans="1:16">
+    <row r="47" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A47" s="24" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="12"/>
@@ -35950,7 +36412,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="48" ht="19.5" customHeight="1" spans="1:16">
+    <row r="48" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A48" s="17"/>
       <c r="B48" s="18"/>
       <c r="C48" s="12"/>
@@ -35973,7 +36435,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="49" ht="19.5" customHeight="1" spans="1:13">
+    <row r="49" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A49" s="17"/>
       <c r="B49" s="18"/>
       <c r="C49" s="12"/>
@@ -35994,12 +36456,12 @@
       </c>
       <c r="I49" s="16"/>
     </row>
-    <row r="50" ht="19.5" customHeight="1" spans="1:13">
+    <row r="50" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A50" s="9" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C50" s="12">
         <v>18.3</v>
@@ -36035,7 +36497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" ht="19.5" customHeight="1" spans="1:13">
+    <row r="51" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A51" s="17"/>
       <c r="B51" s="18"/>
       <c r="C51" s="12">
@@ -36072,7 +36534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" ht="19.5" customHeight="1" spans="1:13">
+    <row r="52" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A52" s="17"/>
       <c r="B52" s="18"/>
       <c r="C52" s="12">
@@ -36107,12 +36569,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" ht="19.5" customHeight="1" spans="1:13">
+    <row r="53" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A53" s="9" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C53" s="12">
         <v>25.8</v>
@@ -36148,7 +36610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" ht="19.5" customHeight="1" spans="1:13">
+    <row r="54" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A54" s="17"/>
       <c r="B54" s="18"/>
       <c r="C54" s="12">
@@ -36185,7 +36647,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" ht="19.5" customHeight="1" spans="1:13">
+    <row r="55" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A55" s="17"/>
       <c r="B55" s="18"/>
       <c r="C55" s="12">
@@ -36220,12 +36682,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" ht="19.5" customHeight="1" spans="1:13">
+    <row r="56" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A56" s="9" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C56" s="12">
         <v>19.3</v>
@@ -36261,7 +36723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" ht="19.5" customHeight="1" spans="1:13">
+    <row r="57" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A57" s="17"/>
       <c r="B57" s="18"/>
       <c r="C57" s="12">
@@ -36296,7 +36758,7 @@
       </c>
       <c r="M57" s="23"/>
     </row>
-    <row r="58" ht="19.5" customHeight="1" spans="1:13">
+    <row r="58" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A58" s="17"/>
       <c r="B58" s="18"/>
       <c r="C58" s="12">
@@ -36329,12 +36791,12 @@
       </c>
       <c r="M58" s="23"/>
     </row>
-    <row r="59" ht="19.5" customHeight="1" spans="1:13">
+    <row r="59" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A59" s="9" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C59" s="12">
         <v>24.6</v>
@@ -36370,7 +36832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" ht="19.5" customHeight="1" spans="1:13">
+    <row r="60" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A60" s="17"/>
       <c r="B60" s="18"/>
       <c r="C60" s="12">
@@ -36405,7 +36867,7 @@
       </c>
       <c r="M60" s="23"/>
     </row>
-    <row r="61" ht="19.5" customHeight="1" spans="1:13">
+    <row r="61" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A61" s="17"/>
       <c r="B61" s="18"/>
       <c r="C61" s="12">
@@ -36438,12 +36900,12 @@
       </c>
       <c r="M61" s="23"/>
     </row>
-    <row r="62" ht="19.5" customHeight="1" spans="1:13">
+    <row r="62" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A62" s="9" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C62" s="12">
         <v>25</v>
@@ -36479,7 +36941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" ht="19.5" customHeight="1" spans="1:13">
+    <row r="63" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A63" s="17"/>
       <c r="B63" s="18"/>
       <c r="C63" s="12">
@@ -36514,7 +36976,7 @@
       </c>
       <c r="M63" s="23"/>
     </row>
-    <row r="64" ht="19.5" customHeight="1" spans="1:13">
+    <row r="64" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A64" s="17"/>
       <c r="B64" s="18"/>
       <c r="C64" s="12">
@@ -36547,12 +37009,12 @@
       </c>
       <c r="M64" s="23"/>
     </row>
-    <row r="65" ht="19.5" customHeight="1" spans="1:13">
+    <row r="65" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A65" s="9" t="s">
         <v>119</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="C65" s="12">
         <v>21.1</v>
@@ -36588,7 +37050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" ht="19.5" customHeight="1" spans="1:13">
+    <row r="66" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A66" s="17"/>
       <c r="B66" s="18"/>
       <c r="C66" s="12">
@@ -36623,7 +37085,7 @@
       </c>
       <c r="M66" s="23"/>
     </row>
-    <row r="67" ht="19.5" customHeight="1" spans="1:13">
+    <row r="67" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A67" s="17"/>
       <c r="B67" s="18"/>
       <c r="C67" s="12">
@@ -36656,9 +37118,9 @@
       </c>
       <c r="M67" s="23"/>
     </row>
-    <row r="68" ht="19.5" customHeight="1" spans="1:13">
+    <row r="68" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A68" s="24" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="12"/>
@@ -36685,7 +37147,7 @@
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
     </row>
-    <row r="69" ht="19.5" customHeight="1" spans="1:13">
+    <row r="69" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A69" s="17"/>
       <c r="B69" s="18"/>
       <c r="C69" s="12"/>
@@ -36712,7 +37174,7 @@
       <c r="L69" s="23"/>
       <c r="M69" s="23"/>
     </row>
-    <row r="70" ht="19.5" customHeight="1" spans="1:13">
+    <row r="70" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A70" s="17"/>
       <c r="B70" s="18"/>
       <c r="C70" s="12"/>
@@ -36737,9 +37199,9 @@
       <c r="L70" s="23"/>
       <c r="M70" s="23"/>
     </row>
-    <row r="71" ht="19.5" customHeight="1" spans="1:13">
+    <row r="71" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A71" s="24" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="12"/>
@@ -36766,7 +37228,7 @@
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
     </row>
-    <row r="72" ht="19.5" customHeight="1" spans="1:13">
+    <row r="72" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A72" s="17"/>
       <c r="B72" s="18"/>
       <c r="C72" s="12"/>
@@ -36793,7 +37255,7 @@
       <c r="L72" s="23"/>
       <c r="M72" s="23"/>
     </row>
-    <row r="73" ht="19.5" customHeight="1" spans="1:13">
+    <row r="73" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A73" s="17"/>
       <c r="B73" s="18"/>
       <c r="C73" s="12"/>
@@ -36819,15 +37281,33 @@
       <c r="M73" s="23"/>
     </row>
     <row r="74" ht="19.5" customHeight="1" spans="1:13">
-      <c r="A74" s="9"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
+      <c r="A74" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C74" s="12">
+        <v>12.7</v>
+      </c>
+      <c r="D74" s="13">
+        <v>45</v>
+      </c>
+      <c r="E74" s="14">
+        <v>27.1</v>
+      </c>
+      <c r="F74" s="15">
+        <v>84</v>
+      </c>
+      <c r="G74" s="15">
+        <v>2096</v>
+      </c>
+      <c r="H74" s="16">
+        <v>9.2</v>
+      </c>
+      <c r="I74" s="16">
+        <v>10.5</v>
+      </c>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
@@ -36836,13 +37316,27 @@
     <row r="75" ht="19.5" customHeight="1" spans="1:13">
       <c r="A75" s="17"/>
       <c r="B75" s="18"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
+      <c r="C75" s="12">
+        <v>12.5</v>
+      </c>
+      <c r="D75" s="13">
+        <v>45</v>
+      </c>
+      <c r="E75" s="14">
+        <v>54.8</v>
+      </c>
+      <c r="F75" s="15">
+        <v>85</v>
+      </c>
+      <c r="G75" s="15">
+        <v>2108</v>
+      </c>
+      <c r="H75" s="16">
+        <v>8.6</v>
+      </c>
+      <c r="I75" s="16">
+        <v>10.3</v>
+      </c>
       <c r="J75" s="23"/>
       <c r="K75" s="23"/>
       <c r="L75" s="23"/>
@@ -36851,12 +37345,20 @@
     <row r="76" ht="19.5" customHeight="1" spans="1:13">
       <c r="A76" s="17"/>
       <c r="B76" s="18"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="14"/>
+      <c r="C76" s="12">
+        <v>12.4</v>
+      </c>
+      <c r="D76" s="13">
+        <v>46</v>
+      </c>
+      <c r="E76" s="14">
+        <v>25.2</v>
+      </c>
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
-      <c r="H76" s="16"/>
+      <c r="H76" s="16">
+        <v>9.1</v>
+      </c>
       <c r="I76" s="16"/>
       <c r="J76" s="23"/>
       <c r="K76" s="23"/>
@@ -36864,15 +37366,29 @@
       <c r="M76" s="23"/>
     </row>
     <row r="77" ht="19.5" customHeight="1" spans="1:13">
-      <c r="A77" s="9"/>
+      <c r="A77" s="24" t="s">
+        <v>380</v>
+      </c>
       <c r="B77" s="10"/>
       <c r="C77" s="12"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
+      <c r="D77" s="13">
+        <v>52</v>
+      </c>
+      <c r="E77" s="14">
+        <v>16.6</v>
+      </c>
+      <c r="F77" s="15">
+        <v>99</v>
+      </c>
+      <c r="G77" s="15">
+        <v>2449</v>
+      </c>
+      <c r="H77" s="16">
+        <v>4.7</v>
+      </c>
+      <c r="I77" s="16">
+        <v>2.6</v>
+      </c>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
@@ -36882,12 +37398,24 @@
       <c r="A78" s="17"/>
       <c r="B78" s="18"/>
       <c r="C78" s="12"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
+      <c r="D78" s="13">
+        <v>52</v>
+      </c>
+      <c r="E78" s="14">
+        <v>25.8</v>
+      </c>
+      <c r="F78" s="15">
+        <v>99</v>
+      </c>
+      <c r="G78" s="15">
+        <v>2396</v>
+      </c>
+      <c r="H78" s="16">
+        <v>4.9</v>
+      </c>
+      <c r="I78" s="16">
+        <v>4.5</v>
+      </c>
       <c r="J78" s="23"/>
       <c r="K78" s="23"/>
       <c r="L78" s="23"/>
@@ -36897,11 +37425,17 @@
       <c r="A79" s="17"/>
       <c r="B79" s="18"/>
       <c r="C79" s="12"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="14"/>
+      <c r="D79" s="13">
+        <v>52</v>
+      </c>
+      <c r="E79" s="14">
+        <v>28.4</v>
+      </c>
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="16"/>
+      <c r="H79" s="16">
+        <v>5.6</v>
+      </c>
       <c r="I79" s="16"/>
       <c r="J79" s="23"/>
       <c r="K79" s="23"/>
@@ -38320,6 +38854,16 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:X73" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="13">
+      <filters>
+        <filter val="850°"/>
+        <filter val="855°"/>
+        <filter val="900°"/>
+        <filter val="灼热丝"/>
+        <filter val="[1.6mm]"/>
+        <filter val="[3.2mm]"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <mergeCells count="114">
@@ -38448,10 +38992,10 @@
   <sheetPr codeName="外厂"/>
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M59" sqref="M59"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -38468,7 +39012,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -38513,7 +39057,7 @@
     </row>
     <row r="2" ht="16.5" spans="1:17">
       <c r="A2" s="9" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="B2" s="10">
         <v>656250601</v>
@@ -38612,7 +39156,7 @@
     </row>
     <row r="5" ht="16.5" spans="1:17">
       <c r="A5" s="9" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B5" s="21">
         <v>45856</v>
@@ -38711,7 +39255,7 @@
     </row>
     <row r="8" ht="16.5" spans="1:17">
       <c r="A8" s="9" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="B8" s="21">
         <v>45856</v>
@@ -38810,10 +39354,10 @@
     </row>
     <row r="11" ht="16.5" spans="1:17">
       <c r="A11" s="9" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="12">
@@ -38927,10 +39471,10 @@
     </row>
     <row r="14" ht="16.5" spans="1:17">
       <c r="A14" s="9" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="12">
@@ -39052,10 +39596,10 @@
     </row>
     <row r="17" ht="16.5" spans="1:17">
       <c r="A17" s="9" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="12">
@@ -39177,10 +39721,10 @@
     </row>
     <row r="20" ht="16.5" spans="1:17">
       <c r="A20" s="9" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="12">
@@ -39302,10 +39846,10 @@
     </row>
     <row r="23" ht="16.5" spans="1:17">
       <c r="A23" s="9" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
@@ -39409,10 +39953,10 @@
     </row>
     <row r="26" ht="16.5" spans="1:17">
       <c r="A26" s="9" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C26" s="11">
         <v>0.3</v>
@@ -39548,7 +40092,7 @@
     </row>
     <row r="29" ht="16.5" spans="1:17">
       <c r="A29" s="9" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="B29" s="21">
         <v>45905</v>
@@ -39683,7 +40227,7 @@
     </row>
     <row r="32" ht="16.5" spans="1:17">
       <c r="A32" s="9" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="B32" s="10">
         <v>2252950706</v>
@@ -39768,10 +40312,10 @@
     </row>
     <row r="35" ht="16.5" spans="1:17">
       <c r="A35" s="9" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="12">
@@ -39851,7 +40395,7 @@
     </row>
     <row r="38" ht="16.5" spans="1:17">
       <c r="A38" s="9" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B38" s="21">
         <v>45958</v>
@@ -39966,7 +40510,7 @@
     </row>
     <row r="41" ht="16.5" spans="1:17">
       <c r="A41" s="24" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B41" s="21">
         <v>45958</v>
@@ -40081,7 +40625,7 @@
     </row>
     <row r="44" ht="16.5" spans="1:17">
       <c r="A44" s="24" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B44" s="21">
         <v>45955</v>
@@ -40200,7 +40744,7 @@
     </row>
     <row r="47" customHeight="1" spans="1:17">
       <c r="A47" s="24" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="B47" s="21">
         <v>45969</v>
@@ -40306,7 +40850,7 @@
     </row>
     <row r="50" customHeight="1" spans="1:14">
       <c r="A50" s="24" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="B50" s="21">
         <v>45969</v>
@@ -40412,13 +40956,13 @@
     </row>
     <row r="53" customHeight="1" spans="1:14">
       <c r="A53" s="24" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B53" s="21">
         <v>45987</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="D53" s="12">
         <v>25.7</v>
@@ -40506,14 +41050,14 @@
     </row>
     <row r="56" customHeight="1" spans="1:14">
       <c r="A56" s="24" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B56" s="21">
         <v>45988</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="25" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="E56" s="13">
         <v>125</v>
@@ -40606,7 +41150,7 @@
     </row>
     <row r="59" customHeight="1" spans="1:14">
       <c r="A59" s="24" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="B59" s="21">
         <v>45988</v>
@@ -40745,7 +41289,7 @@
       <c r="N64" s="23"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:Q52" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:Q61" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="64">

--- a/测试数据.xlsx
+++ b/测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23750" windowHeight="17800"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="阻燃" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,10 @@
     <sheet name="外厂" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">阻燃!$A$1:$U$562</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">不阻燃!$A$1:$U$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">阻燃!$A$1:$U$625</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">不阻燃!$A$1:$U$133</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">无卤!$A$1:$U$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'实验-X'!$A$1:$X$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'实验-X'!$A$1:$X$79</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">外厂!$A$1:$Q$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="441">
   <si>
     <t>型号</t>
   </si>
@@ -805,6 +805,106 @@
     <t>B512011</t>
   </si>
   <si>
+    <t>B512012</t>
+  </si>
+  <si>
+    <t>B512022</t>
+  </si>
+  <si>
+    <t>320G6-W16</t>
+  </si>
+  <si>
+    <t>B512023</t>
+  </si>
+  <si>
+    <t>A512031</t>
+  </si>
+  <si>
+    <t>B512041</t>
+  </si>
+  <si>
+    <t>B512042</t>
+  </si>
+  <si>
+    <t>A512051</t>
+  </si>
+  <si>
+    <t>320G6-B11
+(高流动性)</t>
+  </si>
+  <si>
+    <t>A512062</t>
+  </si>
+  <si>
+    <t>A512063</t>
+  </si>
+  <si>
+    <t>320G6-B7</t>
+  </si>
+  <si>
+    <t>A512064</t>
+  </si>
+  <si>
+    <t>灼热丝</t>
+  </si>
+  <si>
+    <t>CTI</t>
+  </si>
+  <si>
+    <t>[3.2mm]</t>
+  </si>
+  <si>
+    <t>[1.6mm]</t>
+  </si>
+  <si>
+    <t>[0.8mm]</t>
+  </si>
+  <si>
+    <t>&gt;250V</t>
+  </si>
+  <si>
+    <t>850°</t>
+  </si>
+  <si>
+    <t>775°</t>
+  </si>
+  <si>
+    <t>320G6-R15</t>
+  </si>
+  <si>
+    <t>A512065</t>
+  </si>
+  <si>
+    <t>B512083</t>
+  </si>
+  <si>
+    <t>B512083-2</t>
+  </si>
+  <si>
+    <t>A512091</t>
+  </si>
+  <si>
+    <t>A512092</t>
+  </si>
+  <si>
+    <t>A512095</t>
+  </si>
+  <si>
+    <t>B512103</t>
+  </si>
+  <si>
+    <t>320G5-B1</t>
+  </si>
+  <si>
+    <t>A512111</t>
+  </si>
+  <si>
+    <t>A512112</t>
+  </si>
+  <si>
+    <t>A512113</t>
+  </si>
+  <si>
     <t>310G6-N6</t>
   </si>
   <si>
@@ -994,6 +1094,21 @@
     <t>B511281</t>
   </si>
   <si>
+    <t>B512021</t>
+  </si>
+  <si>
+    <t>B512043</t>
+  </si>
+  <si>
+    <t>B512101</t>
+  </si>
+  <si>
+    <t>3106-N6</t>
+  </si>
+  <si>
+    <t>B512102</t>
+  </si>
+  <si>
     <t>灼热丝[1.6mm]</t>
   </si>
   <si>
@@ -1015,9 +1130,6 @@
     <t>600v</t>
   </si>
   <si>
-    <t>CTI</t>
-  </si>
-  <si>
     <t>320G6-N16-X</t>
   </si>
   <si>
@@ -1048,21 +1160,9 @@
     <t>A508222</t>
   </si>
   <si>
-    <t>灼热丝</t>
-  </si>
-  <si>
-    <t>[1.6mm]</t>
-  </si>
-  <si>
-    <t>[0.8mm]</t>
-  </si>
-  <si>
     <t>240V~250V</t>
   </si>
   <si>
-    <t>850°</t>
-  </si>
-  <si>
     <t>875°</t>
   </si>
   <si>
@@ -1118,9 +1218,6 @@
   </si>
   <si>
     <t>A510304</t>
-  </si>
-  <si>
-    <t>[3.2mm]</t>
   </si>
   <si>
     <t>[1.6mm][0.8mm]</t>
@@ -1257,17 +1354,14 @@
     <t>三山 东方G25</t>
   </si>
   <si>
-    <t>PBT-1（百斯特遮光）</t>
-  </si>
-  <si>
-    <t>PBT-2（百斯特普通）</t>
+    <t>PBT-1（悦华遮光）</t>
+  </si>
+  <si>
+    <t>PBT-2（悦华普通）</t>
   </si>
   <si>
     <t>3080GF30
 定润（东方塑胶）</t>
-  </si>
-  <si>
-    <t>33%%</t>
   </si>
   <si>
     <t>PBT-FG30WT001</t>
@@ -1526,25 +1620,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499282815027314"/>
+        <fgColor theme="0" tint="-0.0498977629932554"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor theme="7" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1568,7 +1662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799951170384838"/>
+        <fgColor theme="3" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2874,12 +2968,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="阻燃"/>
-  <dimension ref="A1:O706"/>
+  <dimension ref="A1:Q706"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A546" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A605" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K580" sqref="K580"/>
+      <selection pane="bottomLeft" activeCell="I643" sqref="I643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>
@@ -23042,7 +23136,7 @@
         <v>9791</v>
       </c>
       <c r="H557" s="16">
-        <v>9.6</v>
+        <v>24</v>
       </c>
       <c r="I557" s="16">
         <v>9</v>
@@ -23783,666 +23877,2060 @@
       <c r="M577" s="79"/>
     </row>
     <row r="578" ht="19.5" customHeight="1" spans="1:13">
-      <c r="A578" s="9"/>
-      <c r="B578" s="9"/>
-      <c r="C578" s="69"/>
-      <c r="D578" s="14"/>
+      <c r="A578" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B578" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C578" s="69">
+        <v>27.4</v>
+      </c>
+      <c r="D578" s="14">
+        <v>134</v>
+      </c>
       <c r="E578" s="14"/>
-      <c r="F578" s="15"/>
-      <c r="G578" s="15"/>
-      <c r="H578" s="16"/>
-      <c r="I578" s="16"/>
+      <c r="F578" s="15">
+        <v>220</v>
+      </c>
+      <c r="G578" s="15">
+        <v>9844</v>
+      </c>
+      <c r="H578" s="16">
+        <v>6.3</v>
+      </c>
+      <c r="I578" s="16">
+        <v>6.6</v>
+      </c>
+      <c r="J578" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K578" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L578" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M578" s="73" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="579" ht="19.5" customHeight="1" spans="1:13">
       <c r="A579" s="17"/>
       <c r="B579" s="17"/>
-      <c r="C579" s="69"/>
-      <c r="D579" s="14"/>
+      <c r="C579" s="69">
+        <v>26.8</v>
+      </c>
+      <c r="D579" s="14">
+        <v>133</v>
+      </c>
       <c r="E579" s="14"/>
-      <c r="F579" s="15"/>
-      <c r="G579" s="15"/>
-      <c r="H579" s="16"/>
-      <c r="I579" s="16"/>
+      <c r="F579" s="15">
+        <v>219</v>
+      </c>
+      <c r="G579" s="15">
+        <v>9952</v>
+      </c>
+      <c r="H579" s="16">
+        <v>6.4</v>
+      </c>
+      <c r="I579" s="16">
+        <v>6.2</v>
+      </c>
+      <c r="J579" s="79">
+        <v>0</v>
+      </c>
+      <c r="K579" s="79">
+        <v>5</v>
+      </c>
+      <c r="L579" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M579" s="79"/>
     </row>
     <row r="580" ht="19.5" customHeight="1" spans="1:13">
       <c r="A580" s="17"/>
       <c r="B580" s="17"/>
-      <c r="C580" s="69"/>
-      <c r="D580" s="14"/>
+      <c r="C580" s="69">
+        <v>26.8</v>
+      </c>
+      <c r="D580" s="14">
+        <v>134</v>
+      </c>
       <c r="E580" s="14"/>
-      <c r="F580" s="15"/>
-      <c r="G580" s="15"/>
-      <c r="H580" s="16"/>
+      <c r="F580" s="15">
+        <v>219</v>
+      </c>
+      <c r="G580" s="15">
+        <v>10047</v>
+      </c>
+      <c r="H580" s="16">
+        <v>7</v>
+      </c>
       <c r="I580" s="16"/>
+      <c r="J580" s="79">
+        <v>0</v>
+      </c>
+      <c r="K580" s="79">
+        <v>6</v>
+      </c>
+      <c r="L580" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M580" s="79"/>
     </row>
     <row r="581" ht="19.5" customHeight="1" spans="1:13">
-      <c r="A581" s="9"/>
-      <c r="B581" s="9"/>
-      <c r="C581" s="69"/>
-      <c r="D581" s="14"/>
+      <c r="A581" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B581" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C581" s="69">
+        <v>11.6</v>
+      </c>
+      <c r="D581" s="14">
+        <v>152</v>
+      </c>
       <c r="E581" s="14"/>
-      <c r="F581" s="15"/>
-      <c r="G581" s="15"/>
-      <c r="H581" s="16"/>
-      <c r="I581" s="16"/>
+      <c r="F581" s="15">
+        <v>256</v>
+      </c>
+      <c r="G581" s="15">
+        <v>9945</v>
+      </c>
+      <c r="H581" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="I581" s="16">
+        <v>9.3</v>
+      </c>
+      <c r="J581" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K581" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L581" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M581" s="73" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="582" ht="19.5" customHeight="1" spans="1:13">
       <c r="A582" s="17"/>
       <c r="B582" s="17"/>
-      <c r="C582" s="69"/>
-      <c r="D582" s="14"/>
+      <c r="C582" s="69">
+        <v>11.9</v>
+      </c>
+      <c r="D582" s="14">
+        <v>152</v>
+      </c>
       <c r="E582" s="14"/>
-      <c r="F582" s="15"/>
-      <c r="G582" s="15"/>
-      <c r="H582" s="16"/>
-      <c r="I582" s="16"/>
+      <c r="F582" s="15">
+        <v>252</v>
+      </c>
+      <c r="G582" s="15">
+        <v>9641</v>
+      </c>
+      <c r="H582" s="16">
+        <v>9.2</v>
+      </c>
+      <c r="I582" s="16">
+        <v>8.7</v>
+      </c>
+      <c r="J582" s="79">
+        <v>0</v>
+      </c>
+      <c r="K582" s="79">
+        <v>0</v>
+      </c>
+      <c r="L582" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M582" s="79"/>
     </row>
     <row r="583" ht="19.5" customHeight="1" spans="1:13">
       <c r="A583" s="17"/>
       <c r="B583" s="17"/>
-      <c r="C583" s="69"/>
-      <c r="D583" s="14"/>
+      <c r="C583" s="69">
+        <v>11.9</v>
+      </c>
+      <c r="D583" s="14">
+        <v>148</v>
+      </c>
       <c r="E583" s="14"/>
-      <c r="F583" s="15"/>
-      <c r="G583" s="15"/>
-      <c r="H583" s="16"/>
+      <c r="F583" s="15">
+        <v>255</v>
+      </c>
+      <c r="G583" s="15">
+        <v>9879</v>
+      </c>
+      <c r="H583" s="16">
+        <v>8.7</v>
+      </c>
       <c r="I583" s="16"/>
+      <c r="J583" s="79">
+        <v>0</v>
+      </c>
+      <c r="K583" s="79">
+        <v>0</v>
+      </c>
+      <c r="L583" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M583" s="79"/>
     </row>
     <row r="584" ht="19.5" customHeight="1" spans="1:13">
-      <c r="A584" s="9"/>
-      <c r="B584" s="9"/>
-      <c r="C584" s="69"/>
-      <c r="D584" s="14"/>
+      <c r="A584" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B584" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C584" s="69">
+        <v>23.1</v>
+      </c>
+      <c r="D584" s="14">
+        <v>118</v>
+      </c>
       <c r="E584" s="14"/>
-      <c r="F584" s="15"/>
-      <c r="G584" s="15"/>
-      <c r="H584" s="16"/>
-      <c r="I584" s="16"/>
+      <c r="F584" s="15">
+        <v>187</v>
+      </c>
+      <c r="G584" s="15">
+        <v>9687</v>
+      </c>
+      <c r="H584" s="16">
+        <v>4.6</v>
+      </c>
+      <c r="I584" s="16">
+        <v>4.8</v>
+      </c>
+      <c r="J584" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K584" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L584" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M584" s="73" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="585" ht="19.5" customHeight="1" spans="1:13">
       <c r="A585" s="17"/>
       <c r="B585" s="17"/>
-      <c r="C585" s="69"/>
-      <c r="D585" s="14"/>
+      <c r="C585" s="69">
+        <v>23.3</v>
+      </c>
+      <c r="D585" s="14">
+        <v>121</v>
+      </c>
       <c r="E585" s="14"/>
-      <c r="F585" s="15"/>
-      <c r="G585" s="15"/>
-      <c r="H585" s="16"/>
-      <c r="I585" s="16"/>
+      <c r="F585" s="15">
+        <v>193</v>
+      </c>
+      <c r="G585" s="15">
+        <v>9749</v>
+      </c>
+      <c r="H585" s="16">
+        <v>4.7</v>
+      </c>
+      <c r="I585" s="16">
+        <v>4.7</v>
+      </c>
+      <c r="J585" s="79">
+        <v>0</v>
+      </c>
+      <c r="K585" s="79">
+        <v>0</v>
+      </c>
+      <c r="L585" s="79">
+        <v>7</v>
+      </c>
+      <c r="M585" s="79" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="586" ht="19.5" customHeight="1" spans="1:13">
       <c r="A586" s="17"/>
       <c r="B586" s="17"/>
-      <c r="C586" s="69"/>
-      <c r="D586" s="14"/>
+      <c r="C586" s="69">
+        <v>24</v>
+      </c>
+      <c r="D586" s="14">
+        <v>121</v>
+      </c>
       <c r="E586" s="14"/>
-      <c r="F586" s="15"/>
-      <c r="G586" s="15"/>
-      <c r="H586" s="16"/>
+      <c r="F586" s="15">
+        <v>191</v>
+      </c>
+      <c r="G586" s="15">
+        <v>9594</v>
+      </c>
+      <c r="H586" s="16">
+        <v>4.6</v>
+      </c>
       <c r="I586" s="16"/>
+      <c r="J586" s="79">
+        <v>0</v>
+      </c>
+      <c r="K586" s="79">
+        <v>0</v>
+      </c>
+      <c r="L586" s="79">
+        <v>8</v>
+      </c>
+      <c r="M586" s="79" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="587" ht="19.5" customHeight="1" spans="1:13">
-      <c r="A587" s="9"/>
-      <c r="B587" s="9"/>
-      <c r="C587" s="69"/>
-      <c r="D587" s="14"/>
+      <c r="A587" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B587" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C587" s="69">
+        <v>17.1</v>
+      </c>
+      <c r="D587" s="14">
+        <v>142</v>
+      </c>
       <c r="E587" s="14"/>
-      <c r="F587" s="15"/>
-      <c r="G587" s="15"/>
-      <c r="H587" s="16"/>
-      <c r="I587" s="16"/>
+      <c r="F587" s="15">
+        <v>226</v>
+      </c>
+      <c r="G587" s="15">
+        <v>9760</v>
+      </c>
+      <c r="H587" s="16">
+        <v>7.3</v>
+      </c>
+      <c r="I587" s="16">
+        <v>7</v>
+      </c>
+      <c r="J587" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K587" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L587" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M587" s="73" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="588" ht="19.5" customHeight="1" spans="1:13">
       <c r="A588" s="17"/>
       <c r="B588" s="17"/>
-      <c r="C588" s="69"/>
-      <c r="D588" s="14"/>
+      <c r="C588" s="69">
+        <v>17.2</v>
+      </c>
+      <c r="D588" s="14">
+        <v>137</v>
+      </c>
       <c r="E588" s="14"/>
-      <c r="F588" s="15"/>
-      <c r="G588" s="15"/>
-      <c r="H588" s="16"/>
-      <c r="I588" s="16"/>
+      <c r="F588" s="15">
+        <v>222</v>
+      </c>
+      <c r="G588" s="15">
+        <v>9527</v>
+      </c>
+      <c r="H588" s="16">
+        <v>7.2</v>
+      </c>
+      <c r="I588" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="J588" s="79">
+        <v>0</v>
+      </c>
+      <c r="K588" s="79">
+        <v>5</v>
+      </c>
+      <c r="L588" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M588" s="79"/>
     </row>
     <row r="589" ht="19.5" customHeight="1" spans="1:13">
       <c r="A589" s="17"/>
       <c r="B589" s="17"/>
-      <c r="C589" s="69"/>
-      <c r="D589" s="14"/>
+      <c r="C589" s="69">
+        <v>16.4</v>
+      </c>
+      <c r="D589" s="14">
+        <v>138</v>
+      </c>
       <c r="E589" s="14"/>
-      <c r="F589" s="15"/>
-      <c r="G589" s="15"/>
-      <c r="H589" s="16"/>
+      <c r="F589" s="15">
+        <v>225</v>
+      </c>
+      <c r="G589" s="15">
+        <v>9663</v>
+      </c>
+      <c r="H589" s="16">
+        <v>7.1</v>
+      </c>
       <c r="I589" s="16"/>
+      <c r="J589" s="79">
+        <v>0</v>
+      </c>
+      <c r="K589" s="79">
+        <v>6</v>
+      </c>
+      <c r="L589" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M589" s="79"/>
     </row>
     <row r="590" ht="19.5" customHeight="1" spans="1:13">
-      <c r="A590" s="9"/>
-      <c r="B590" s="9"/>
-      <c r="C590" s="69"/>
-      <c r="D590" s="14"/>
+      <c r="A590" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B590" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C590" s="69">
+        <v>15.3</v>
+      </c>
+      <c r="D590" s="14">
+        <v>151</v>
+      </c>
       <c r="E590" s="14"/>
-      <c r="F590" s="15"/>
-      <c r="G590" s="15"/>
-      <c r="H590" s="16"/>
-      <c r="I590" s="16"/>
+      <c r="F590" s="15">
+        <v>252</v>
+      </c>
+      <c r="G590" s="15">
+        <v>9795</v>
+      </c>
+      <c r="H590" s="16">
+        <v>8.9</v>
+      </c>
+      <c r="I590" s="16">
+        <v>8.9</v>
+      </c>
+      <c r="J590" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K590" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L590" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M590" s="73" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="591" ht="19.5" customHeight="1" spans="1:13">
       <c r="A591" s="17"/>
       <c r="B591" s="17"/>
-      <c r="C591" s="69"/>
-      <c r="D591" s="14"/>
+      <c r="C591" s="69">
+        <v>15.6</v>
+      </c>
+      <c r="D591" s="14">
+        <v>150</v>
+      </c>
       <c r="E591" s="14"/>
-      <c r="F591" s="15"/>
-      <c r="G591" s="15"/>
-      <c r="H591" s="16"/>
-      <c r="I591" s="16"/>
+      <c r="F591" s="15">
+        <v>249</v>
+      </c>
+      <c r="G591" s="15">
+        <v>9731</v>
+      </c>
+      <c r="H591" s="16">
+        <v>9</v>
+      </c>
+      <c r="I591" s="16">
+        <v>9</v>
+      </c>
+      <c r="J591" s="79">
+        <v>0</v>
+      </c>
+      <c r="K591" s="79">
+        <v>5</v>
+      </c>
+      <c r="L591" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M591" s="79"/>
     </row>
     <row r="592" ht="19.5" customHeight="1" spans="1:13">
       <c r="A592" s="17"/>
       <c r="B592" s="17"/>
-      <c r="C592" s="69"/>
-      <c r="D592" s="14"/>
+      <c r="C592" s="69">
+        <v>15.5</v>
+      </c>
+      <c r="D592" s="14">
+        <v>152</v>
+      </c>
       <c r="E592" s="14"/>
-      <c r="F592" s="15"/>
-      <c r="G592" s="15"/>
-      <c r="H592" s="16"/>
+      <c r="F592" s="15">
+        <v>250</v>
+      </c>
+      <c r="G592" s="15">
+        <v>9853</v>
+      </c>
+      <c r="H592" s="16">
+        <v>8.9</v>
+      </c>
       <c r="I592" s="16"/>
-    </row>
-    <row r="593" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A593" s="9"/>
-      <c r="B593" s="9"/>
-      <c r="C593" s="69"/>
-      <c r="D593" s="14"/>
+      <c r="J592" s="79">
+        <v>0</v>
+      </c>
+      <c r="K592" s="79">
+        <v>3</v>
+      </c>
+      <c r="L592" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M592" s="79"/>
+    </row>
+    <row r="593" ht="19.5" customHeight="1" spans="1:17">
+      <c r="A593" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B593" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C593" s="69">
+        <v>19.1</v>
+      </c>
+      <c r="D593" s="14">
+        <v>138</v>
+      </c>
       <c r="E593" s="14"/>
-      <c r="F593" s="15"/>
-      <c r="G593" s="15"/>
-      <c r="H593" s="16"/>
-      <c r="I593" s="16"/>
-    </row>
-    <row r="594" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F593" s="15">
+        <v>225</v>
+      </c>
+      <c r="G593" s="15">
+        <v>8797</v>
+      </c>
+      <c r="H593" s="16">
+        <v>8.1</v>
+      </c>
+      <c r="I593" s="16">
+        <v>7.7</v>
+      </c>
+      <c r="J593" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K593" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L593" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M593" s="73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="594" ht="19.5" customHeight="1" spans="1:17">
       <c r="A594" s="17"/>
       <c r="B594" s="17"/>
-      <c r="C594" s="69"/>
-      <c r="D594" s="14"/>
+      <c r="C594" s="69">
+        <v>19.3</v>
+      </c>
+      <c r="D594" s="14">
+        <v>138</v>
+      </c>
       <c r="E594" s="14"/>
-      <c r="F594" s="15"/>
-      <c r="G594" s="15"/>
-      <c r="H594" s="16"/>
-      <c r="I594" s="16"/>
-    </row>
-    <row r="595" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F594" s="15">
+        <v>228</v>
+      </c>
+      <c r="G594" s="15">
+        <v>8841</v>
+      </c>
+      <c r="H594" s="16">
+        <v>8.2</v>
+      </c>
+      <c r="I594" s="16">
+        <v>8.1</v>
+      </c>
+      <c r="J594" s="79">
+        <v>0</v>
+      </c>
+      <c r="K594" s="79">
+        <v>5</v>
+      </c>
+      <c r="L594" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M594" s="79"/>
+    </row>
+    <row r="595" ht="19.5" customHeight="1" spans="1:17">
       <c r="A595" s="17"/>
       <c r="B595" s="17"/>
-      <c r="C595" s="69"/>
-      <c r="D595" s="14"/>
+      <c r="C595" s="69">
+        <v>19.1</v>
+      </c>
+      <c r="D595" s="14">
+        <v>139</v>
+      </c>
       <c r="E595" s="14"/>
-      <c r="F595" s="15"/>
-      <c r="G595" s="15"/>
-      <c r="H595" s="16"/>
+      <c r="F595" s="15">
+        <v>226</v>
+      </c>
+      <c r="G595" s="15">
+        <v>8847</v>
+      </c>
+      <c r="H595" s="16">
+        <v>8.2</v>
+      </c>
       <c r="I595" s="16"/>
-    </row>
-    <row r="596" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A596" s="9"/>
-      <c r="B596" s="9"/>
-      <c r="C596" s="69"/>
-      <c r="D596" s="14"/>
+      <c r="J595" s="79">
+        <v>0</v>
+      </c>
+      <c r="K595" s="79">
+        <v>4</v>
+      </c>
+      <c r="L595" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M595" s="79"/>
+    </row>
+    <row r="596" ht="19.5" customHeight="1" spans="1:17">
+      <c r="A596" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B596" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C596" s="69">
+        <v>20.1</v>
+      </c>
+      <c r="D596" s="14">
+        <v>139</v>
+      </c>
       <c r="E596" s="14"/>
-      <c r="F596" s="15"/>
-      <c r="G596" s="15"/>
-      <c r="H596" s="16"/>
-      <c r="I596" s="16"/>
-    </row>
-    <row r="597" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F596" s="15">
+        <v>225</v>
+      </c>
+      <c r="G596" s="15">
+        <v>9708</v>
+      </c>
+      <c r="H596" s="16">
+        <v>8.4</v>
+      </c>
+      <c r="I596" s="16">
+        <v>7.9</v>
+      </c>
+      <c r="J596" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K596" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L596" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M596" s="73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="597" ht="19.5" customHeight="1" spans="1:17">
       <c r="A597" s="17"/>
       <c r="B597" s="17"/>
-      <c r="C597" s="69"/>
-      <c r="D597" s="14"/>
+      <c r="C597" s="69">
+        <v>20.1</v>
+      </c>
+      <c r="D597" s="14">
+        <v>139</v>
+      </c>
       <c r="E597" s="14"/>
-      <c r="F597" s="15"/>
-      <c r="G597" s="15"/>
-      <c r="H597" s="16"/>
-      <c r="I597" s="16"/>
-    </row>
-    <row r="598" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F597" s="15">
+        <v>224</v>
+      </c>
+      <c r="G597" s="15">
+        <v>9699</v>
+      </c>
+      <c r="H597" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="I597" s="16">
+        <v>8</v>
+      </c>
+      <c r="J597" s="79">
+        <v>0</v>
+      </c>
+      <c r="K597" s="79">
+        <v>5</v>
+      </c>
+      <c r="L597" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M597" s="79"/>
+    </row>
+    <row r="598" ht="19.5" customHeight="1" spans="1:17">
       <c r="A598" s="17"/>
       <c r="B598" s="17"/>
-      <c r="C598" s="69"/>
-      <c r="D598" s="14"/>
+      <c r="C598" s="69">
+        <v>20.1</v>
+      </c>
+      <c r="D598" s="14">
+        <v>132</v>
+      </c>
       <c r="E598" s="14"/>
-      <c r="F598" s="15"/>
-      <c r="G598" s="15"/>
-      <c r="H598" s="16"/>
+      <c r="F598" s="15">
+        <v>221</v>
+      </c>
+      <c r="G598" s="15">
+        <v>9815</v>
+      </c>
+      <c r="H598" s="16">
+        <v>8.2</v>
+      </c>
       <c r="I598" s="16"/>
-    </row>
-    <row r="599" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A599" s="9"/>
-      <c r="B599" s="9"/>
-      <c r="C599" s="69"/>
-      <c r="D599" s="14"/>
+      <c r="J598" s="79">
+        <v>0</v>
+      </c>
+      <c r="K598" s="79">
+        <v>5</v>
+      </c>
+      <c r="L598" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M598" s="79"/>
+    </row>
+    <row r="599" ht="19.5" customHeight="1" spans="1:17">
+      <c r="A599" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B599" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C599" s="69">
+        <v>26.3</v>
+      </c>
+      <c r="D599" s="14">
+        <v>134</v>
+      </c>
       <c r="E599" s="14"/>
-      <c r="F599" s="15"/>
-      <c r="G599" s="15"/>
-      <c r="H599" s="16"/>
-      <c r="I599" s="16"/>
-    </row>
-    <row r="600" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F599" s="15">
+        <v>221</v>
+      </c>
+      <c r="G599" s="15">
+        <v>9916</v>
+      </c>
+      <c r="H599" s="16">
+        <v>8.7</v>
+      </c>
+      <c r="I599" s="16">
+        <v>8.6</v>
+      </c>
+      <c r="J599" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K599" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L599" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M599" s="73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="600" ht="19.5" customHeight="1" spans="1:17">
       <c r="A600" s="17"/>
       <c r="B600" s="17"/>
-      <c r="C600" s="69"/>
-      <c r="D600" s="14"/>
+      <c r="C600" s="69">
+        <v>26.4</v>
+      </c>
+      <c r="D600" s="14">
+        <v>133</v>
+      </c>
       <c r="E600" s="14"/>
-      <c r="F600" s="15"/>
-      <c r="G600" s="15"/>
-      <c r="H600" s="16"/>
-      <c r="I600" s="16"/>
-    </row>
-    <row r="601" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F600" s="15">
+        <v>222</v>
+      </c>
+      <c r="G600" s="15">
+        <v>9861</v>
+      </c>
+      <c r="H600" s="16">
+        <v>8.3</v>
+      </c>
+      <c r="I600" s="16">
+        <v>8.2</v>
+      </c>
+      <c r="J600" s="79">
+        <v>0</v>
+      </c>
+      <c r="K600" s="79">
+        <v>0</v>
+      </c>
+      <c r="L600" s="79">
+        <v>0</v>
+      </c>
+      <c r="M600" s="79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="601" ht="19.5" customHeight="1" spans="1:17">
       <c r="A601" s="17"/>
       <c r="B601" s="17"/>
-      <c r="C601" s="69"/>
-      <c r="D601" s="14"/>
+      <c r="C601" s="69">
+        <v>26.5</v>
+      </c>
+      <c r="D601" s="14">
+        <v>131</v>
+      </c>
       <c r="E601" s="14"/>
-      <c r="F601" s="15"/>
-      <c r="G601" s="15"/>
-      <c r="H601" s="16"/>
+      <c r="F601" s="15">
+        <v>228</v>
+      </c>
+      <c r="G601" s="15">
+        <v>9906</v>
+      </c>
+      <c r="H601" s="16">
+        <v>8.4</v>
+      </c>
       <c r="I601" s="16"/>
-    </row>
-    <row r="602" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A602" s="9"/>
-      <c r="B602" s="9"/>
-      <c r="C602" s="69"/>
-      <c r="D602" s="14"/>
+      <c r="J601" s="79">
+        <v>0</v>
+      </c>
+      <c r="K601" s="79">
+        <v>0</v>
+      </c>
+      <c r="L601" s="79">
+        <v>0</v>
+      </c>
+      <c r="M601" s="79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="602" ht="19.5" customHeight="1" spans="1:17">
+      <c r="A602" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B602" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C602" s="69">
+        <v>31.7</v>
+      </c>
+      <c r="D602" s="14">
+        <v>128</v>
+      </c>
       <c r="E602" s="14"/>
-      <c r="F602" s="15"/>
-      <c r="G602" s="15"/>
-      <c r="H602" s="16"/>
-      <c r="I602" s="16"/>
-    </row>
-    <row r="603" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F602" s="15">
+        <v>212</v>
+      </c>
+      <c r="G602" s="15">
+        <v>8570</v>
+      </c>
+      <c r="H602" s="16">
+        <v>8.1</v>
+      </c>
+      <c r="I602" s="16">
+        <v>8</v>
+      </c>
+      <c r="J602" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K602" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L602" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M602" s="73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="603" ht="19.5" customHeight="1" spans="1:17">
       <c r="A603" s="17"/>
       <c r="B603" s="17"/>
-      <c r="C603" s="69"/>
-      <c r="D603" s="14"/>
+      <c r="C603" s="69">
+        <v>31.2</v>
+      </c>
+      <c r="D603" s="14">
+        <v>128</v>
+      </c>
       <c r="E603" s="14"/>
-      <c r="F603" s="15"/>
-      <c r="G603" s="15"/>
-      <c r="H603" s="16"/>
-      <c r="I603" s="16"/>
-    </row>
-    <row r="604" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F603" s="15">
+        <v>208</v>
+      </c>
+      <c r="G603" s="15">
+        <v>8636</v>
+      </c>
+      <c r="H603" s="16">
+        <v>8.2</v>
+      </c>
+      <c r="I603" s="16">
+        <v>8.2</v>
+      </c>
+      <c r="J603" s="79">
+        <v>0</v>
+      </c>
+      <c r="K603" s="79">
+        <v>1</v>
+      </c>
+      <c r="L603" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M603" s="79"/>
+    </row>
+    <row r="604" ht="19.5" customHeight="1" spans="1:17">
       <c r="A604" s="17"/>
       <c r="B604" s="17"/>
-      <c r="C604" s="69"/>
-      <c r="D604" s="14"/>
+      <c r="C604" s="69">
+        <v>32.2</v>
+      </c>
+      <c r="D604" s="14">
+        <v>129</v>
+      </c>
       <c r="E604" s="14"/>
-      <c r="F604" s="15"/>
-      <c r="G604" s="15"/>
-      <c r="H604" s="16"/>
+      <c r="F604" s="15">
+        <v>209</v>
+      </c>
+      <c r="G604" s="15">
+        <v>8561</v>
+      </c>
+      <c r="H604" s="16">
+        <v>8.4</v>
+      </c>
       <c r="I604" s="16"/>
-    </row>
-    <row r="605" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A605" s="9"/>
-      <c r="B605" s="9"/>
-      <c r="C605" s="69"/>
-      <c r="D605" s="14"/>
+      <c r="J604" s="79">
+        <v>0</v>
+      </c>
+      <c r="K604" s="79">
+        <v>1</v>
+      </c>
+      <c r="L604" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M604" s="79"/>
+    </row>
+    <row r="605" ht="19.5" customHeight="1" spans="1:17">
+      <c r="A605" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B605" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C605" s="69">
+        <v>12</v>
+      </c>
+      <c r="D605" s="14">
+        <v>134</v>
+      </c>
       <c r="E605" s="14"/>
-      <c r="F605" s="15"/>
-      <c r="G605" s="15"/>
-      <c r="H605" s="16"/>
-      <c r="I605" s="16"/>
-    </row>
-    <row r="606" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F605" s="15">
+        <v>227</v>
+      </c>
+      <c r="G605" s="15">
+        <v>10943</v>
+      </c>
+      <c r="H605" s="16">
+        <v>7.1</v>
+      </c>
+      <c r="I605" s="16">
+        <v>7.3</v>
+      </c>
+      <c r="J605" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K605" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L605" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M605" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="N605" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="O605" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="P605" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q605" s="35" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="606" ht="19.5" customHeight="1" spans="1:17">
       <c r="A606" s="17"/>
       <c r="B606" s="17"/>
-      <c r="C606" s="69"/>
-      <c r="D606" s="14"/>
+      <c r="C606" s="69">
+        <v>12.4</v>
+      </c>
+      <c r="D606" s="14">
+        <v>135</v>
+      </c>
       <c r="E606" s="14"/>
-      <c r="F606" s="15"/>
-      <c r="G606" s="15"/>
-      <c r="H606" s="16"/>
-      <c r="I606" s="16"/>
-    </row>
-    <row r="607" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F606" s="15">
+        <v>219</v>
+      </c>
+      <c r="G606" s="15">
+        <v>10898</v>
+      </c>
+      <c r="H606" s="16">
+        <v>7.2</v>
+      </c>
+      <c r="I606" s="16">
+        <v>7.6</v>
+      </c>
+      <c r="J606" s="79">
+        <v>0</v>
+      </c>
+      <c r="K606" s="79">
+        <v>1</v>
+      </c>
+      <c r="L606" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M606" s="79"/>
+      <c r="N606" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="O606" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="P606" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q606" s="35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="607" ht="19.5" customHeight="1" spans="1:17">
       <c r="A607" s="17"/>
       <c r="B607" s="17"/>
-      <c r="C607" s="69"/>
-      <c r="D607" s="14"/>
+      <c r="C607" s="69">
+        <v>12.2</v>
+      </c>
+      <c r="D607" s="14">
+        <v>134</v>
+      </c>
       <c r="E607" s="14"/>
-      <c r="F607" s="15"/>
-      <c r="G607" s="15"/>
-      <c r="H607" s="16"/>
+      <c r="F607" s="15">
+        <v>222</v>
+      </c>
+      <c r="G607" s="15">
+        <v>10608</v>
+      </c>
+      <c r="H607" s="16">
+        <v>7.2</v>
+      </c>
       <c r="I607" s="16"/>
-    </row>
-    <row r="608" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A608" s="9"/>
-      <c r="B608" s="9"/>
-      <c r="C608" s="69"/>
-      <c r="D608" s="14"/>
+      <c r="J607" s="79">
+        <v>0</v>
+      </c>
+      <c r="K607" s="79">
+        <v>0</v>
+      </c>
+      <c r="L607" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M607" s="79"/>
+      <c r="N607" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="O607" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="P607" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q607" s="43"/>
+    </row>
+    <row r="608" ht="19.5" customHeight="1" spans="1:17">
+      <c r="A608" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B608" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C608" s="69">
+        <v>25.2</v>
+      </c>
+      <c r="D608" s="14">
+        <v>140</v>
+      </c>
       <c r="E608" s="14"/>
-      <c r="F608" s="15"/>
-      <c r="G608" s="15"/>
-      <c r="H608" s="16"/>
-      <c r="I608" s="16"/>
-    </row>
-    <row r="609" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F608" s="15">
+        <v>227</v>
+      </c>
+      <c r="G608" s="15">
+        <v>10073</v>
+      </c>
+      <c r="H608" s="16">
+        <v>7.9</v>
+      </c>
+      <c r="I608" s="16">
+        <v>8.4</v>
+      </c>
+      <c r="J608" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K608" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L608" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M608" s="73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="609" ht="19.5" customHeight="1" spans="1:13">
       <c r="A609" s="17"/>
       <c r="B609" s="17"/>
-      <c r="C609" s="69"/>
-      <c r="D609" s="14"/>
+      <c r="C609" s="69">
+        <v>24.6</v>
+      </c>
+      <c r="D609" s="14">
+        <v>139</v>
+      </c>
       <c r="E609" s="14"/>
-      <c r="F609" s="15"/>
-      <c r="G609" s="15"/>
-      <c r="H609" s="16"/>
-      <c r="I609" s="16"/>
-    </row>
-    <row r="610" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F609" s="15">
+        <v>230</v>
+      </c>
+      <c r="G609" s="15">
+        <v>10041</v>
+      </c>
+      <c r="H609" s="16">
+        <v>8.1</v>
+      </c>
+      <c r="I609" s="16">
+        <v>8.1</v>
+      </c>
+      <c r="J609" s="79">
+        <v>0</v>
+      </c>
+      <c r="K609" s="79">
+        <v>5</v>
+      </c>
+      <c r="L609" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M609" s="79"/>
+    </row>
+    <row r="610" ht="19.5" customHeight="1" spans="1:13">
       <c r="A610" s="17"/>
       <c r="B610" s="17"/>
-      <c r="C610" s="69"/>
-      <c r="D610" s="14"/>
+      <c r="C610" s="69">
+        <v>24.7</v>
+      </c>
+      <c r="D610" s="14">
+        <v>139</v>
+      </c>
       <c r="E610" s="14"/>
-      <c r="F610" s="15"/>
-      <c r="G610" s="15"/>
-      <c r="H610" s="16"/>
+      <c r="F610" s="15">
+        <v>228</v>
+      </c>
+      <c r="G610" s="15">
+        <v>10050</v>
+      </c>
+      <c r="H610" s="16">
+        <v>8.3</v>
+      </c>
       <c r="I610" s="16"/>
-    </row>
-    <row r="611" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A611" s="9"/>
-      <c r="B611" s="9"/>
-      <c r="C611" s="69"/>
-      <c r="D611" s="14"/>
+      <c r="J610" s="79">
+        <v>0</v>
+      </c>
+      <c r="K610" s="79">
+        <v>5</v>
+      </c>
+      <c r="L610" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M610" s="79"/>
+    </row>
+    <row r="611" ht="19.5" customHeight="1" spans="1:13">
+      <c r="A611" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B611" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C611" s="69">
+        <v>22.1</v>
+      </c>
+      <c r="D611" s="14">
+        <v>139</v>
+      </c>
       <c r="E611" s="14"/>
-      <c r="F611" s="15"/>
-      <c r="G611" s="15"/>
-      <c r="H611" s="16"/>
-      <c r="I611" s="16"/>
-    </row>
-    <row r="612" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F611" s="15">
+        <v>232</v>
+      </c>
+      <c r="G611" s="15">
+        <v>9920</v>
+      </c>
+      <c r="H611" s="16">
+        <v>8.1</v>
+      </c>
+      <c r="I611" s="16">
+        <v>8.1</v>
+      </c>
+      <c r="J611" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K611" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L611" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M611" s="73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="612" ht="19.5" customHeight="1" spans="1:13">
       <c r="A612" s="17"/>
       <c r="B612" s="17"/>
-      <c r="C612" s="69"/>
-      <c r="D612" s="14"/>
+      <c r="C612" s="69">
+        <v>21.4</v>
+      </c>
+      <c r="D612" s="14">
+        <v>137</v>
+      </c>
       <c r="E612" s="14"/>
-      <c r="F612" s="15"/>
-      <c r="G612" s="15"/>
-      <c r="H612" s="16"/>
-      <c r="I612" s="16"/>
-    </row>
-    <row r="613" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F612" s="15">
+        <v>236</v>
+      </c>
+      <c r="G612" s="15">
+        <v>9865</v>
+      </c>
+      <c r="H612" s="16">
+        <v>8.2</v>
+      </c>
+      <c r="I612" s="16">
+        <v>8.1</v>
+      </c>
+      <c r="J612" s="79">
+        <v>0</v>
+      </c>
+      <c r="K612" s="79">
+        <v>5</v>
+      </c>
+      <c r="L612" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M612" s="79"/>
+    </row>
+    <row r="613" ht="19.5" customHeight="1" spans="1:13">
       <c r="A613" s="17"/>
       <c r="B613" s="17"/>
-      <c r="C613" s="69"/>
-      <c r="D613" s="14"/>
+      <c r="C613" s="69">
+        <v>21.7</v>
+      </c>
+      <c r="D613" s="14">
+        <v>143</v>
+      </c>
       <c r="E613" s="14"/>
-      <c r="F613" s="15"/>
-      <c r="G613" s="15"/>
-      <c r="H613" s="16"/>
+      <c r="F613" s="15">
+        <v>237</v>
+      </c>
+      <c r="G613" s="15">
+        <v>9881</v>
+      </c>
+      <c r="H613" s="16">
+        <v>8.3</v>
+      </c>
       <c r="I613" s="16"/>
-    </row>
-    <row r="614" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A614" s="9"/>
-      <c r="B614" s="9"/>
-      <c r="C614" s="69"/>
-      <c r="D614" s="14"/>
+      <c r="J613" s="79">
+        <v>0</v>
+      </c>
+      <c r="K613" s="79">
+        <v>6</v>
+      </c>
+      <c r="L613" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M613" s="79"/>
+    </row>
+    <row r="614" ht="19.5" customHeight="1" spans="1:13">
+      <c r="A614" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B614" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C614" s="69">
+        <v>19.9</v>
+      </c>
+      <c r="D614" s="14">
+        <v>139</v>
+      </c>
       <c r="E614" s="14"/>
-      <c r="F614" s="15"/>
-      <c r="G614" s="15"/>
-      <c r="H614" s="16"/>
-      <c r="I614" s="16"/>
-    </row>
-    <row r="615" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F614" s="15">
+        <v>233</v>
+      </c>
+      <c r="G614" s="15">
+        <v>9588</v>
+      </c>
+      <c r="H614" s="16">
+        <v>8.4</v>
+      </c>
+      <c r="I614" s="16">
+        <v>8.2</v>
+      </c>
+      <c r="J614" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K614" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L614" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M614" s="73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="615" ht="19.5" customHeight="1" spans="1:13">
       <c r="A615" s="17"/>
       <c r="B615" s="17"/>
-      <c r="C615" s="69"/>
-      <c r="D615" s="14"/>
+      <c r="C615" s="69">
+        <v>19.6</v>
+      </c>
+      <c r="D615" s="14">
+        <v>141</v>
+      </c>
       <c r="E615" s="14"/>
-      <c r="F615" s="15"/>
-      <c r="G615" s="15"/>
-      <c r="H615" s="16"/>
-      <c r="I615" s="16"/>
-    </row>
-    <row r="616" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F615" s="15">
+        <v>230</v>
+      </c>
+      <c r="G615" s="15">
+        <v>9680</v>
+      </c>
+      <c r="H615" s="16">
+        <v>8.4</v>
+      </c>
+      <c r="I615" s="16">
+        <v>8.3</v>
+      </c>
+      <c r="J615" s="79">
+        <v>0</v>
+      </c>
+      <c r="K615" s="79">
+        <v>5</v>
+      </c>
+      <c r="L615" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M615" s="79"/>
+    </row>
+    <row r="616" ht="19.5" customHeight="1" spans="1:13">
       <c r="A616" s="17"/>
       <c r="B616" s="17"/>
-      <c r="C616" s="69"/>
-      <c r="D616" s="14"/>
+      <c r="C616" s="69">
+        <v>19.7</v>
+      </c>
+      <c r="D616" s="14">
+        <v>140</v>
+      </c>
       <c r="E616" s="14"/>
-      <c r="F616" s="15"/>
-      <c r="G616" s="15"/>
-      <c r="H616" s="16"/>
+      <c r="F616" s="15">
+        <v>235</v>
+      </c>
+      <c r="G616" s="15">
+        <v>9712</v>
+      </c>
+      <c r="H616" s="16">
+        <v>9</v>
+      </c>
       <c r="I616" s="16"/>
-    </row>
-    <row r="617" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A617" s="9"/>
-      <c r="B617" s="9"/>
-      <c r="C617" s="69"/>
-      <c r="D617" s="14"/>
+      <c r="J616" s="79">
+        <v>0</v>
+      </c>
+      <c r="K616" s="79">
+        <v>6</v>
+      </c>
+      <c r="L616" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M616" s="79"/>
+    </row>
+    <row r="617" ht="19.5" customHeight="1" spans="1:13">
+      <c r="A617" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B617" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C617" s="69">
+        <v>19.1</v>
+      </c>
+      <c r="D617" s="14">
+        <v>144</v>
+      </c>
       <c r="E617" s="14"/>
-      <c r="F617" s="15"/>
-      <c r="G617" s="15"/>
-      <c r="H617" s="16"/>
-      <c r="I617" s="16"/>
-    </row>
-    <row r="618" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F617" s="15">
+        <v>243</v>
+      </c>
+      <c r="G617" s="15">
+        <v>9638</v>
+      </c>
+      <c r="H617" s="16">
+        <v>8</v>
+      </c>
+      <c r="I617" s="16">
+        <v>8.2</v>
+      </c>
+      <c r="J617" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K617" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L617" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M617" s="73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="618" ht="19.5" customHeight="1" spans="1:13">
       <c r="A618" s="17"/>
       <c r="B618" s="17"/>
-      <c r="C618" s="69"/>
-      <c r="D618" s="14"/>
+      <c r="C618" s="69">
+        <v>19</v>
+      </c>
+      <c r="D618" s="14">
+        <v>140</v>
+      </c>
       <c r="E618" s="14"/>
-      <c r="F618" s="15"/>
-      <c r="G618" s="15"/>
-      <c r="H618" s="16"/>
-      <c r="I618" s="16"/>
-    </row>
-    <row r="619" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F618" s="15">
+        <v>230</v>
+      </c>
+      <c r="G618" s="15">
+        <v>9573</v>
+      </c>
+      <c r="H618" s="16">
+        <v>8.1</v>
+      </c>
+      <c r="I618" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="J618" s="79">
+        <v>0</v>
+      </c>
+      <c r="K618" s="79">
+        <v>0</v>
+      </c>
+      <c r="L618" s="79">
+        <v>6</v>
+      </c>
+      <c r="M618" s="79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="619" ht="19.5" customHeight="1" spans="1:13">
       <c r="A619" s="17"/>
       <c r="B619" s="17"/>
-      <c r="C619" s="69"/>
-      <c r="D619" s="14"/>
+      <c r="C619" s="69">
+        <v>19.1</v>
+      </c>
+      <c r="D619" s="14">
+        <v>143</v>
+      </c>
       <c r="E619" s="14"/>
-      <c r="F619" s="15"/>
-      <c r="G619" s="15"/>
-      <c r="H619" s="16"/>
+      <c r="F619" s="15">
+        <v>236</v>
+      </c>
+      <c r="G619" s="15">
+        <v>9510</v>
+      </c>
+      <c r="H619" s="16">
+        <v>8.5</v>
+      </c>
       <c r="I619" s="16"/>
-    </row>
-    <row r="620" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A620" s="9"/>
-      <c r="B620" s="9"/>
-      <c r="C620" s="69"/>
-      <c r="D620" s="14"/>
+      <c r="J619" s="79">
+        <v>0</v>
+      </c>
+      <c r="K619" s="79">
+        <v>1</v>
+      </c>
+      <c r="L619" s="79">
+        <v>8</v>
+      </c>
+      <c r="M619" s="79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="620" ht="19.5" customHeight="1" spans="1:13">
+      <c r="A620" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B620" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C620" s="69">
+        <v>12.9</v>
+      </c>
+      <c r="D620" s="14">
+        <v>138</v>
+      </c>
       <c r="E620" s="14"/>
-      <c r="F620" s="15"/>
-      <c r="G620" s="15"/>
-      <c r="H620" s="16"/>
-      <c r="I620" s="16"/>
-    </row>
-    <row r="621" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F620" s="15">
+        <v>226</v>
+      </c>
+      <c r="G620" s="15">
+        <v>9432</v>
+      </c>
+      <c r="H620" s="16">
+        <v>8.3</v>
+      </c>
+      <c r="I620" s="16">
+        <v>8.1</v>
+      </c>
+      <c r="J620" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K620" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L620" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M620" s="73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="621" ht="19.5" customHeight="1" spans="1:13">
       <c r="A621" s="17"/>
       <c r="B621" s="17"/>
-      <c r="C621" s="69"/>
-      <c r="D621" s="14"/>
+      <c r="C621" s="69">
+        <v>13.1</v>
+      </c>
+      <c r="D621" s="14">
+        <v>137</v>
+      </c>
       <c r="E621" s="14"/>
-      <c r="F621" s="15"/>
-      <c r="G621" s="15"/>
-      <c r="H621" s="16"/>
-      <c r="I621" s="16"/>
-    </row>
-    <row r="622" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F621" s="15">
+        <v>228</v>
+      </c>
+      <c r="G621" s="15">
+        <v>9400</v>
+      </c>
+      <c r="H621" s="16">
+        <v>8.3</v>
+      </c>
+      <c r="I621" s="16">
+        <v>8.1</v>
+      </c>
+      <c r="J621" s="79">
+        <v>0</v>
+      </c>
+      <c r="K621" s="79">
+        <v>0</v>
+      </c>
+      <c r="L621" s="79">
+        <v>3</v>
+      </c>
+      <c r="M621" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" ht="19.5" customHeight="1" spans="1:13">
       <c r="A622" s="17"/>
       <c r="B622" s="17"/>
-      <c r="C622" s="69"/>
-      <c r="D622" s="14"/>
+      <c r="C622" s="69">
+        <v>13</v>
+      </c>
+      <c r="D622" s="14">
+        <v>138</v>
+      </c>
       <c r="E622" s="14"/>
-      <c r="F622" s="15"/>
-      <c r="G622" s="15"/>
-      <c r="H622" s="16"/>
+      <c r="F622" s="15">
+        <v>223</v>
+      </c>
+      <c r="G622" s="15">
+        <v>9322</v>
+      </c>
+      <c r="H622" s="16">
+        <v>8.5</v>
+      </c>
       <c r="I622" s="16"/>
-    </row>
-    <row r="623" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A623" s="9"/>
-      <c r="B623" s="9"/>
-      <c r="C623" s="69"/>
-      <c r="D623" s="14"/>
+      <c r="J622" s="79">
+        <v>0</v>
+      </c>
+      <c r="K622" s="79">
+        <v>0</v>
+      </c>
+      <c r="L622" s="79">
+        <v>6</v>
+      </c>
+      <c r="M622" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" ht="19.5" customHeight="1" spans="1:13">
+      <c r="A623" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B623" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C623" s="69">
+        <v>26.1</v>
+      </c>
+      <c r="D623" s="14">
+        <v>134</v>
+      </c>
       <c r="E623" s="14"/>
-      <c r="F623" s="15"/>
-      <c r="G623" s="15"/>
-      <c r="H623" s="16"/>
-      <c r="I623" s="16"/>
-    </row>
-    <row r="624" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F623" s="15">
+        <v>223</v>
+      </c>
+      <c r="G623" s="15">
+        <v>10000</v>
+      </c>
+      <c r="H623" s="16">
+        <v>8.7</v>
+      </c>
+      <c r="I623" s="16">
+        <v>8.2</v>
+      </c>
+      <c r="J623" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K623" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="624" ht="19.5" customHeight="1" spans="1:13">
       <c r="A624" s="17"/>
       <c r="B624" s="17"/>
-      <c r="C624" s="69"/>
-      <c r="D624" s="14"/>
+      <c r="C624" s="69">
+        <v>25.6</v>
+      </c>
+      <c r="D624" s="14">
+        <v>130</v>
+      </c>
       <c r="E624" s="14"/>
-      <c r="F624" s="15"/>
-      <c r="G624" s="15"/>
-      <c r="H624" s="16"/>
-      <c r="I624" s="16"/>
-    </row>
-    <row r="625" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F624" s="15">
+        <v>217</v>
+      </c>
+      <c r="G624" s="15">
+        <v>9953</v>
+      </c>
+      <c r="H624" s="16">
+        <v>8.4</v>
+      </c>
+      <c r="I624" s="16">
+        <v>8.6</v>
+      </c>
+      <c r="J624" s="79">
+        <v>0</v>
+      </c>
+      <c r="K624" s="79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="625" ht="19.5" customHeight="1" spans="1:13">
       <c r="A625" s="17"/>
       <c r="B625" s="17"/>
-      <c r="C625" s="69"/>
-      <c r="D625" s="14"/>
+      <c r="C625" s="69">
+        <v>26.4</v>
+      </c>
+      <c r="D625" s="14">
+        <v>131</v>
+      </c>
       <c r="E625" s="14"/>
-      <c r="F625" s="15"/>
-      <c r="G625" s="15"/>
-      <c r="H625" s="16"/>
+      <c r="F625" s="15">
+        <v>221</v>
+      </c>
+      <c r="G625" s="15">
+        <v>9966</v>
+      </c>
+      <c r="H625" s="16">
+        <v>8.5</v>
+      </c>
       <c r="I625" s="16"/>
-    </row>
-    <row r="626" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A626" s="9"/>
-      <c r="B626" s="9"/>
-      <c r="C626" s="69"/>
-      <c r="D626" s="14"/>
+      <c r="J625" s="79">
+        <v>0</v>
+      </c>
+      <c r="K625" s="79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="626" ht="19.5" customHeight="1" spans="1:13">
+      <c r="A626" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B626" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C626" s="69">
+        <v>16.7</v>
+      </c>
+      <c r="D626" s="14">
+        <v>141</v>
+      </c>
       <c r="E626" s="14"/>
-      <c r="F626" s="15"/>
-      <c r="G626" s="15"/>
-      <c r="H626" s="16"/>
-      <c r="I626" s="16"/>
-    </row>
-    <row r="627" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F626" s="15">
+        <v>237</v>
+      </c>
+      <c r="G626" s="15">
+        <v>9736</v>
+      </c>
+      <c r="H626" s="16">
+        <v>8.6</v>
+      </c>
+      <c r="I626" s="16">
+        <v>8.9</v>
+      </c>
+      <c r="J626" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K626" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="627" ht="19.5" customHeight="1" spans="1:13">
       <c r="A627" s="17"/>
       <c r="B627" s="17"/>
-      <c r="C627" s="69"/>
-      <c r="D627" s="14"/>
+      <c r="C627" s="69">
+        <v>16</v>
+      </c>
+      <c r="D627" s="14">
+        <v>139</v>
+      </c>
       <c r="E627" s="14"/>
-      <c r="F627" s="15"/>
-      <c r="G627" s="15"/>
-      <c r="H627" s="16"/>
-      <c r="I627" s="16"/>
-    </row>
-    <row r="628" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F627" s="15">
+        <v>235</v>
+      </c>
+      <c r="G627" s="15">
+        <v>9567</v>
+      </c>
+      <c r="H627" s="16">
+        <v>9.2</v>
+      </c>
+      <c r="I627" s="16">
+        <v>8.3</v>
+      </c>
+      <c r="J627" s="79">
+        <v>0</v>
+      </c>
+      <c r="K627" s="79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="628" ht="19.5" customHeight="1" spans="1:13">
       <c r="A628" s="17"/>
       <c r="B628" s="17"/>
-      <c r="C628" s="69"/>
-      <c r="D628" s="14"/>
+      <c r="C628" s="69">
+        <v>16.8</v>
+      </c>
+      <c r="D628" s="14">
+        <v>141</v>
+      </c>
       <c r="E628" s="14"/>
-      <c r="F628" s="15"/>
-      <c r="G628" s="15"/>
-      <c r="H628" s="16"/>
+      <c r="F628" s="15">
+        <v>232</v>
+      </c>
+      <c r="G628" s="15">
+        <v>9715</v>
+      </c>
+      <c r="H628" s="16">
+        <v>8.4</v>
+      </c>
       <c r="I628" s="16"/>
-    </row>
-    <row r="629" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A629" s="9"/>
-      <c r="B629" s="9"/>
-      <c r="C629" s="69"/>
-      <c r="D629" s="14"/>
+      <c r="J628" s="79">
+        <v>0</v>
+      </c>
+      <c r="K628" s="79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="629" ht="19.5" customHeight="1" spans="1:13">
+      <c r="A629" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B629" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C629" s="69">
+        <v>29.2</v>
+      </c>
+      <c r="D629" s="14">
+        <v>120</v>
+      </c>
       <c r="E629" s="14"/>
-      <c r="F629" s="15"/>
-      <c r="G629" s="15"/>
-      <c r="H629" s="16"/>
-      <c r="I629" s="16"/>
-    </row>
-    <row r="630" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F629" s="15">
+        <v>207</v>
+      </c>
+      <c r="G629" s="15">
+        <v>8348</v>
+      </c>
+      <c r="H629" s="16">
+        <v>8</v>
+      </c>
+      <c r="I629" s="16">
+        <v>7.7</v>
+      </c>
+      <c r="J629" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K629" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="630" ht="19.5" customHeight="1" spans="1:13">
       <c r="A630" s="17"/>
       <c r="B630" s="17"/>
-      <c r="C630" s="69"/>
-      <c r="D630" s="14"/>
+      <c r="C630" s="69">
+        <v>28.4</v>
+      </c>
+      <c r="D630" s="14">
+        <v>121</v>
+      </c>
       <c r="E630" s="14"/>
-      <c r="F630" s="15"/>
-      <c r="G630" s="15"/>
-      <c r="H630" s="16"/>
-      <c r="I630" s="16"/>
-    </row>
-    <row r="631" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F630" s="15">
+        <v>202</v>
+      </c>
+      <c r="G630" s="15">
+        <v>8301</v>
+      </c>
+      <c r="H630" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="I630" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="J630" s="79">
+        <v>0</v>
+      </c>
+      <c r="K630" s="79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="631" ht="19.5" customHeight="1" spans="1:13">
       <c r="A631" s="17"/>
       <c r="B631" s="17"/>
-      <c r="C631" s="69"/>
-      <c r="D631" s="14"/>
+      <c r="C631" s="69">
+        <v>29</v>
+      </c>
+      <c r="D631" s="14">
+        <v>123</v>
+      </c>
       <c r="E631" s="14"/>
-      <c r="F631" s="15"/>
-      <c r="G631" s="15"/>
-      <c r="H631" s="16"/>
+      <c r="F631" s="15">
+        <v>203</v>
+      </c>
+      <c r="G631" s="15">
+        <v>8451</v>
+      </c>
+      <c r="H631" s="16">
+        <v>7.4</v>
+      </c>
       <c r="I631" s="16"/>
-    </row>
-    <row r="632" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A632" s="9"/>
-      <c r="B632" s="9"/>
-      <c r="C632" s="69"/>
-      <c r="D632" s="14"/>
+      <c r="J631" s="79">
+        <v>0</v>
+      </c>
+      <c r="K631" s="79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="632" ht="19.5" customHeight="1" spans="1:13">
+      <c r="A632" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B632" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C632" s="69">
+        <v>29.6</v>
+      </c>
+      <c r="D632" s="14">
+        <v>119</v>
+      </c>
       <c r="E632" s="14"/>
-      <c r="F632" s="15"/>
-      <c r="G632" s="15"/>
-      <c r="H632" s="16"/>
-      <c r="I632" s="16"/>
-    </row>
-    <row r="633" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F632" s="15">
+        <v>206</v>
+      </c>
+      <c r="G632" s="15">
+        <v>8305</v>
+      </c>
+      <c r="H632" s="16">
+        <v>7.7</v>
+      </c>
+      <c r="I632" s="16">
+        <v>7.7</v>
+      </c>
+      <c r="J632" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K632" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="633" ht="19.5" customHeight="1" spans="1:13">
       <c r="A633" s="17"/>
       <c r="B633" s="17"/>
-      <c r="C633" s="69"/>
-      <c r="D633" s="14"/>
+      <c r="C633" s="69">
+        <v>28.6</v>
+      </c>
+      <c r="D633" s="14">
+        <v>118</v>
+      </c>
       <c r="E633" s="14"/>
-      <c r="F633" s="15"/>
-      <c r="G633" s="15"/>
-      <c r="H633" s="16"/>
-      <c r="I633" s="16"/>
-    </row>
-    <row r="634" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F633" s="15">
+        <v>198</v>
+      </c>
+      <c r="G633" s="15">
+        <v>8494</v>
+      </c>
+      <c r="H633" s="16">
+        <v>7.3</v>
+      </c>
+      <c r="I633" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="J633" s="79">
+        <v>0</v>
+      </c>
+      <c r="K633" s="79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="634" ht="19.5" customHeight="1" spans="1:13">
       <c r="A634" s="17"/>
       <c r="B634" s="17"/>
-      <c r="C634" s="69"/>
-      <c r="D634" s="14"/>
+      <c r="C634" s="69">
+        <v>29.1</v>
+      </c>
+      <c r="D634" s="14">
+        <v>124</v>
+      </c>
       <c r="E634" s="14"/>
-      <c r="F634" s="15"/>
-      <c r="G634" s="15"/>
-      <c r="H634" s="16"/>
+      <c r="F634" s="15">
+        <v>203</v>
+      </c>
+      <c r="G634" s="15">
+        <v>8480</v>
+      </c>
+      <c r="H634" s="16">
+        <v>7.7</v>
+      </c>
       <c r="I634" s="16"/>
-    </row>
-    <row r="635" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A635" s="9"/>
-      <c r="B635" s="9"/>
-      <c r="C635" s="69"/>
-      <c r="D635" s="14"/>
+      <c r="J634" s="79">
+        <v>0</v>
+      </c>
+      <c r="K634" s="79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="635" ht="19.5" customHeight="1" spans="1:13">
+      <c r="A635" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B635" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C635" s="69">
+        <v>37.7</v>
+      </c>
+      <c r="D635" s="14">
+        <v>123</v>
+      </c>
       <c r="E635" s="14"/>
-      <c r="F635" s="15"/>
-      <c r="G635" s="15"/>
-      <c r="H635" s="16"/>
-      <c r="I635" s="16"/>
-    </row>
-    <row r="636" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F635" s="15">
+        <v>206</v>
+      </c>
+      <c r="G635" s="15">
+        <v>8535</v>
+      </c>
+      <c r="H635" s="16">
+        <v>8.2</v>
+      </c>
+      <c r="I635" s="16">
+        <v>8.1</v>
+      </c>
+      <c r="J635" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K635" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L635" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M635" s="73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="636" ht="19.5" customHeight="1" spans="1:13">
       <c r="A636" s="17"/>
       <c r="B636" s="17"/>
-      <c r="C636" s="69"/>
-      <c r="D636" s="14"/>
+      <c r="C636" s="69">
+        <v>36.6</v>
+      </c>
+      <c r="D636" s="14">
+        <v>124</v>
+      </c>
       <c r="E636" s="14"/>
-      <c r="F636" s="15"/>
-      <c r="G636" s="15"/>
-      <c r="H636" s="16"/>
-      <c r="I636" s="16"/>
-    </row>
-    <row r="637" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F636" s="15">
+        <v>209</v>
+      </c>
+      <c r="G636" s="15">
+        <v>8562</v>
+      </c>
+      <c r="H636" s="16">
+        <v>8</v>
+      </c>
+      <c r="I636" s="16">
+        <v>8.2</v>
+      </c>
+      <c r="J636" s="79">
+        <v>0</v>
+      </c>
+      <c r="K636" s="79">
+        <v>0</v>
+      </c>
+      <c r="L636" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M636" s="79"/>
+    </row>
+    <row r="637" ht="19.5" customHeight="1" spans="1:13">
       <c r="A637" s="17"/>
       <c r="B637" s="17"/>
-      <c r="C637" s="69"/>
-      <c r="D637" s="14"/>
+      <c r="C637" s="69">
+        <v>36.8</v>
+      </c>
+      <c r="D637" s="14">
+        <v>121</v>
+      </c>
       <c r="E637" s="14"/>
-      <c r="F637" s="15"/>
-      <c r="G637" s="15"/>
-      <c r="H637" s="16"/>
+      <c r="F637" s="15">
+        <v>206</v>
+      </c>
+      <c r="G637" s="15">
+        <v>8572</v>
+      </c>
+      <c r="H637" s="16">
+        <v>8</v>
+      </c>
       <c r="I637" s="16"/>
-    </row>
-    <row r="638" ht="19.5" customHeight="1" spans="1:9">
+      <c r="J637" s="79">
+        <v>0</v>
+      </c>
+      <c r="K637" s="79">
+        <v>1</v>
+      </c>
+      <c r="L637" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M637" s="79"/>
+    </row>
+    <row r="638" ht="19.5" customHeight="1" spans="1:13">
       <c r="A638" s="9"/>
       <c r="B638" s="9"/>
       <c r="C638" s="69"/>
@@ -24453,7 +25941,7 @@
       <c r="H638" s="16"/>
       <c r="I638" s="16"/>
     </row>
-    <row r="639" ht="19.5" customHeight="1" spans="1:9">
+    <row r="639" ht="19.5" customHeight="1" spans="1:13">
       <c r="A639" s="17"/>
       <c r="B639" s="17"/>
       <c r="C639" s="69"/>
@@ -24464,7 +25952,7 @@
       <c r="H639" s="16"/>
       <c r="I639" s="16"/>
     </row>
-    <row r="640" ht="19.5" customHeight="1" spans="1:9">
+    <row r="640" ht="19.5" customHeight="1" spans="1:13">
       <c r="A640" s="17"/>
       <c r="B640" s="17"/>
       <c r="C640" s="69"/>
@@ -25202,7 +26690,7 @@
       <c r="I706" s="16"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:U562" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:U625" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="470">
@@ -25689,9 +27177,9 @@
   <dimension ref="A1:U294"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A128" sqref="A128:A130"/>
+      <selection pane="bottomLeft" activeCell="A149" sqref="A149:A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -25743,10 +27231,10 @@
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:21">
       <c r="A2" s="64" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="C2" s="65">
         <v>19.3</v>
@@ -25856,10 +27344,10 @@
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:21">
       <c r="A5" s="9" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="C5" s="69">
         <v>2.4</v>
@@ -25963,10 +27451,10 @@
     </row>
     <row r="8" ht="19.5" customHeight="1" spans="1:21">
       <c r="A8" s="64" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="C8" s="65">
         <v>18.1</v>
@@ -26076,10 +27564,10 @@
     </row>
     <row r="11" ht="19.5" customHeight="1" spans="1:21">
       <c r="A11" s="64" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="66">
@@ -26185,10 +27673,10 @@
     </row>
     <row r="14" ht="19.5" customHeight="1" spans="1:21">
       <c r="A14" s="64" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="C14" s="65">
         <v>18.7</v>
@@ -26298,10 +27786,10 @@
     </row>
     <row r="17" ht="19.5" customHeight="1" spans="1:21">
       <c r="A17" s="64" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="C17" s="65">
         <v>27.5</v>
@@ -26411,10 +27899,10 @@
     </row>
     <row r="20" ht="19.5" customHeight="1" spans="1:21">
       <c r="A20" s="64" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="C20" s="65">
         <v>18</v>
@@ -26524,10 +28012,10 @@
     </row>
     <row r="23" ht="19.5" customHeight="1" spans="1:21">
       <c r="A23" s="64" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="C23" s="65">
         <v>27.4</v>
@@ -26637,10 +28125,10 @@
     </row>
     <row r="26" ht="19.5" customHeight="1" spans="1:21">
       <c r="A26" s="64" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="C26" s="65">
         <v>24.3</v>
@@ -26750,10 +28238,10 @@
     </row>
     <row r="29" ht="19.5" customHeight="1" spans="1:21">
       <c r="A29" s="64" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="C29" s="65">
         <v>23.8</v>
@@ -26863,10 +28351,10 @@
     </row>
     <row r="32" ht="19.5" customHeight="1" spans="1:21">
       <c r="A32" s="64" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="66">
@@ -26966,10 +28454,10 @@
     </row>
     <row r="35" ht="19.5" customHeight="1" spans="1:21">
       <c r="A35" s="64" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="B35" s="64" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="C35" s="65"/>
       <c r="D35" s="66">
@@ -27067,10 +28555,10 @@
     </row>
     <row r="38" ht="19.5" customHeight="1" spans="1:21">
       <c r="A38" s="64" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="B38" s="64" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="C38" s="72">
         <v>24.5</v>
@@ -27182,10 +28670,10 @@
     </row>
     <row r="41" ht="19.5" customHeight="1" spans="1:21">
       <c r="A41" s="64" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="B41" s="64" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="C41" s="65">
         <v>23.9</v>
@@ -27297,10 +28785,10 @@
     </row>
     <row r="44" ht="19.5" customHeight="1" spans="1:21">
       <c r="A44" s="64" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="C44" s="72">
         <v>16.3</v>
@@ -27412,10 +28900,10 @@
     </row>
     <row r="47" ht="19.5" customHeight="1" spans="1:21">
       <c r="A47" s="64" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="C47" s="72">
         <v>27.4</v>
@@ -27525,10 +29013,10 @@
     </row>
     <row r="50" ht="19.5" customHeight="1" spans="1:21">
       <c r="A50" s="64" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="C50" s="72">
         <v>21.2</v>
@@ -27638,10 +29126,10 @@
     </row>
     <row r="53" ht="19.5" customHeight="1" spans="1:21">
       <c r="A53" s="64" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="B53" s="64" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="C53" s="72">
         <v>21.1</v>
@@ -27751,10 +29239,10 @@
     </row>
     <row r="56" ht="19.5" customHeight="1" spans="1:21">
       <c r="A56" s="64" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="B56" s="64" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="C56" s="72">
         <v>18.1</v>
@@ -27864,10 +29352,10 @@
     </row>
     <row r="59" ht="19.5" customHeight="1" spans="1:21">
       <c r="A59" s="64" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="B59" s="64" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="C59" s="72">
         <v>20.9</v>
@@ -27977,10 +29465,10 @@
     </row>
     <row r="62" ht="19.5" customHeight="1" spans="1:21">
       <c r="A62" s="64" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="B62" s="64" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="C62" s="72">
         <v>23.1</v>
@@ -28090,10 +29578,10 @@
     </row>
     <row r="65" ht="19.5" customHeight="1" spans="1:21">
       <c r="A65" s="64" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="B65" s="64" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="C65" s="72">
         <v>23.6</v>
@@ -28205,10 +29693,10 @@
     </row>
     <row r="68" ht="19.5" customHeight="1" spans="1:21">
       <c r="A68" s="64" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="B68" s="64" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="C68" s="72">
         <v>20.9</v>
@@ -28318,10 +29806,10 @@
     </row>
     <row r="71" ht="19.5" customHeight="1" spans="1:21">
       <c r="A71" s="64" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="B71" s="64" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="C71" s="72">
         <v>20.1</v>
@@ -28431,10 +29919,10 @@
     </row>
     <row r="74" ht="19.5" customHeight="1" spans="1:21">
       <c r="A74" s="64" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="B74" s="64" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="C74" s="72">
         <v>16.4</v>
@@ -28544,10 +30032,10 @@
     </row>
     <row r="77" ht="19.5" customHeight="1" spans="1:21">
       <c r="A77" s="9" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="C77" s="69">
         <v>19.6</v>
@@ -28657,10 +30145,10 @@
     </row>
     <row r="80" ht="19.5" customHeight="1" spans="1:21">
       <c r="A80" s="64" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="B80" s="64" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="C80" s="72">
         <v>18.3</v>
@@ -28770,10 +30258,10 @@
     </row>
     <row r="83" ht="19.5" customHeight="1" spans="1:21">
       <c r="A83" s="9" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="C83" s="69">
         <v>18.2</v>
@@ -28883,10 +30371,10 @@
     </row>
     <row r="86" ht="19.5" customHeight="1" spans="1:21">
       <c r="A86" s="64" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="B86" s="64" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="C86" s="72">
         <v>18.1</v>
@@ -28996,10 +30484,10 @@
     </row>
     <row r="89" ht="19.5" customHeight="1" spans="1:21">
       <c r="A89" s="9" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="C89" s="69">
         <v>21.3</v>
@@ -29109,10 +30597,10 @@
     </row>
     <row r="92" ht="19.5" customHeight="1" spans="1:21">
       <c r="A92" s="9" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="C92" s="69">
         <v>30.2</v>
@@ -29222,10 +30710,10 @@
     </row>
     <row r="95" ht="19.5" customHeight="1" spans="1:21">
       <c r="A95" s="9" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="C95" s="69">
         <v>12.9</v>
@@ -29337,10 +30825,10 @@
     </row>
     <row r="98" customHeight="1" spans="1:21">
       <c r="A98" s="9" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="C98" s="69">
         <v>19.6</v>
@@ -29414,10 +30902,10 @@
     </row>
     <row r="101" customHeight="1" spans="1:21">
       <c r="A101" s="9" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="C101" s="69">
         <v>29.4</v>
@@ -29483,10 +30971,10 @@
     </row>
     <row r="104" customHeight="1" spans="1:21">
       <c r="A104" s="9" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="C104" s="69">
         <v>21.6</v>
@@ -29560,10 +31048,10 @@
     </row>
     <row r="107" customHeight="1" spans="1:21">
       <c r="A107" s="9" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="C107" s="69">
         <v>14.9</v>
@@ -29637,10 +31125,10 @@
     </row>
     <row r="110" customHeight="1" spans="1:21">
       <c r="A110" s="9" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="C110" s="69">
         <v>16.9</v>
@@ -29714,10 +31202,10 @@
     </row>
     <row r="113" customHeight="1" spans="1:9">
       <c r="A113" s="9" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="C113" s="69">
         <v>19.7</v>
@@ -29791,10 +31279,10 @@
     </row>
     <row r="116" customHeight="1" spans="1:9">
       <c r="A116" s="9" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="C116" s="69">
         <v>23.4</v>
@@ -29868,10 +31356,10 @@
     </row>
     <row r="119" customHeight="1" spans="1:9">
       <c r="A119" s="9" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="C119" s="69">
         <v>23.9</v>
@@ -29945,10 +31433,10 @@
     </row>
     <row r="122" customHeight="1" spans="1:9">
       <c r="A122" s="9" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="C122" s="69">
         <v>22.7</v>
@@ -30022,10 +31510,10 @@
     </row>
     <row r="125" customHeight="1" spans="1:9">
       <c r="A125" s="9" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="C125" s="69">
         <v>21.6</v>
@@ -30098,135 +31586,287 @@
       <c r="I127" s="16"/>
     </row>
     <row r="128" customHeight="1" spans="1:9">
-      <c r="A128" s="9"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="69"/>
-      <c r="D128" s="14"/>
+      <c r="A128" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C128" s="69">
+        <v>20.4</v>
+      </c>
+      <c r="D128" s="14">
+        <v>136</v>
+      </c>
       <c r="E128" s="14"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="16"/>
-      <c r="I128" s="16"/>
+      <c r="F128" s="15">
+        <v>235</v>
+      </c>
+      <c r="G128" s="15">
+        <v>8959</v>
+      </c>
+      <c r="H128" s="16">
+        <v>8.7</v>
+      </c>
+      <c r="I128" s="16">
+        <v>8.7</v>
+      </c>
     </row>
     <row r="129" customHeight="1" spans="1:9">
       <c r="A129" s="17"/>
       <c r="B129" s="17"/>
-      <c r="C129" s="69"/>
-      <c r="D129" s="14"/>
+      <c r="C129" s="69">
+        <v>20.4</v>
+      </c>
+      <c r="D129" s="14">
+        <v>137</v>
+      </c>
       <c r="E129" s="14"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="16"/>
-      <c r="I129" s="16"/>
+      <c r="F129" s="15">
+        <v>234</v>
+      </c>
+      <c r="G129" s="15">
+        <v>9025</v>
+      </c>
+      <c r="H129" s="16">
+        <v>8.4</v>
+      </c>
+      <c r="I129" s="16">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="130" customHeight="1" spans="1:9">
       <c r="A130" s="17"/>
       <c r="B130" s="17"/>
-      <c r="C130" s="69"/>
-      <c r="D130" s="14"/>
+      <c r="C130" s="69">
+        <v>20.3</v>
+      </c>
+      <c r="D130" s="14">
+        <v>137</v>
+      </c>
       <c r="E130" s="14"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="16"/>
+      <c r="F130" s="15">
+        <v>237</v>
+      </c>
+      <c r="G130" s="15">
+        <v>8968</v>
+      </c>
+      <c r="H130" s="16">
+        <v>8.5</v>
+      </c>
       <c r="I130" s="16"/>
     </row>
     <row r="131" customHeight="1" spans="1:9">
-      <c r="A131" s="9"/>
-      <c r="B131" s="9"/>
-      <c r="C131" s="69"/>
-      <c r="D131" s="14"/>
+      <c r="A131" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C131" s="69">
+        <v>15.1</v>
+      </c>
+      <c r="D131" s="14">
+        <v>144</v>
+      </c>
       <c r="E131" s="14"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="16"/>
-      <c r="I131" s="16"/>
+      <c r="F131" s="15">
+        <v>248</v>
+      </c>
+      <c r="G131" s="15">
+        <v>8810</v>
+      </c>
+      <c r="H131" s="16">
+        <v>12</v>
+      </c>
+      <c r="I131" s="16">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="132" customHeight="1" spans="1:9">
       <c r="A132" s="17"/>
       <c r="B132" s="17"/>
-      <c r="C132" s="69"/>
-      <c r="D132" s="14"/>
+      <c r="C132" s="69">
+        <v>15.1</v>
+      </c>
+      <c r="D132" s="14">
+        <v>144</v>
+      </c>
       <c r="E132" s="14"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="16"/>
-      <c r="I132" s="16"/>
+      <c r="F132" s="15">
+        <v>244</v>
+      </c>
+      <c r="G132" s="15">
+        <v>8752</v>
+      </c>
+      <c r="H132" s="16">
+        <v>11.2</v>
+      </c>
+      <c r="I132" s="16">
+        <v>12.1</v>
+      </c>
     </row>
     <row r="133" customHeight="1" spans="1:9">
       <c r="A133" s="17"/>
       <c r="B133" s="17"/>
-      <c r="C133" s="69"/>
-      <c r="D133" s="14"/>
+      <c r="C133" s="69">
+        <v>14.8</v>
+      </c>
+      <c r="D133" s="14">
+        <v>145</v>
+      </c>
       <c r="E133" s="14"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="16"/>
+      <c r="F133" s="15">
+        <v>243</v>
+      </c>
+      <c r="G133" s="15">
+        <v>8810</v>
+      </c>
+      <c r="H133" s="16">
+        <v>11.2</v>
+      </c>
       <c r="I133" s="16"/>
     </row>
     <row r="134" customHeight="1" spans="1:9">
-      <c r="A134" s="9"/>
-      <c r="B134" s="9"/>
-      <c r="C134" s="69"/>
-      <c r="D134" s="14"/>
+      <c r="A134" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C134" s="69">
+        <v>21.2</v>
+      </c>
+      <c r="D134" s="14">
+        <v>115</v>
+      </c>
       <c r="E134" s="14"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="16"/>
+      <c r="F134" s="15">
+        <v>197</v>
+      </c>
+      <c r="G134" s="15">
+        <v>5707</v>
+      </c>
+      <c r="H134" s="16">
+        <v>10.6</v>
+      </c>
+      <c r="I134" s="16">
+        <v>10</v>
+      </c>
     </row>
     <row r="135" customHeight="1" spans="1:9">
       <c r="A135" s="17"/>
       <c r="B135" s="17"/>
-      <c r="C135" s="69"/>
-      <c r="D135" s="14"/>
+      <c r="C135" s="69">
+        <v>20.9</v>
+      </c>
+      <c r="D135" s="14">
+        <v>113</v>
+      </c>
       <c r="E135" s="14"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
-      <c r="H135" s="16"/>
-      <c r="I135" s="16"/>
+      <c r="F135" s="15">
+        <v>197</v>
+      </c>
+      <c r="G135" s="15">
+        <v>5774</v>
+      </c>
+      <c r="H135" s="16">
+        <v>10.3</v>
+      </c>
+      <c r="I135" s="16">
+        <v>8.8</v>
+      </c>
     </row>
     <row r="136" customHeight="1" spans="1:9">
       <c r="A136" s="17"/>
       <c r="B136" s="17"/>
-      <c r="C136" s="69"/>
-      <c r="D136" s="14"/>
+      <c r="C136" s="69">
+        <v>20.9</v>
+      </c>
+      <c r="D136" s="14">
+        <v>113</v>
+      </c>
       <c r="E136" s="14"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
-      <c r="H136" s="16"/>
+      <c r="F136" s="15">
+        <v>199</v>
+      </c>
+      <c r="G136" s="15">
+        <v>5714</v>
+      </c>
+      <c r="H136" s="16">
+        <v>11.5</v>
+      </c>
       <c r="I136" s="16"/>
     </row>
     <row r="137" customHeight="1" spans="1:9">
-      <c r="A137" s="9"/>
-      <c r="B137" s="9"/>
-      <c r="C137" s="69"/>
-      <c r="D137" s="14"/>
+      <c r="A137" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C137" s="69">
+        <v>16.2</v>
+      </c>
+      <c r="D137" s="14">
+        <v>138</v>
+      </c>
       <c r="E137" s="14"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
-      <c r="H137" s="16"/>
-      <c r="I137" s="16"/>
+      <c r="F137" s="15">
+        <v>240</v>
+      </c>
+      <c r="G137" s="15">
+        <v>8358</v>
+      </c>
+      <c r="H137" s="16">
+        <v>10.3</v>
+      </c>
+      <c r="I137" s="16">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="138" customHeight="1" spans="1:9">
       <c r="A138" s="17"/>
       <c r="B138" s="17"/>
-      <c r="C138" s="69"/>
-      <c r="D138" s="14"/>
+      <c r="C138" s="69">
+        <v>15.9</v>
+      </c>
+      <c r="D138" s="14">
+        <v>138</v>
+      </c>
       <c r="E138" s="14"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="15"/>
-      <c r="H138" s="16"/>
-      <c r="I138" s="16"/>
+      <c r="F138" s="15">
+        <v>240</v>
+      </c>
+      <c r="G138" s="15">
+        <v>8449</v>
+      </c>
+      <c r="H138" s="16">
+        <v>12</v>
+      </c>
+      <c r="I138" s="16">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="139" customHeight="1" spans="1:9">
       <c r="A139" s="17"/>
       <c r="B139" s="17"/>
-      <c r="C139" s="69"/>
-      <c r="D139" s="14"/>
+      <c r="C139" s="69">
+        <v>16</v>
+      </c>
+      <c r="D139" s="14">
+        <v>139</v>
+      </c>
       <c r="E139" s="14"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="16"/>
+      <c r="F139" s="15">
+        <v>240</v>
+      </c>
+      <c r="G139" s="15">
+        <v>8466</v>
+      </c>
+      <c r="H139" s="16">
+        <v>11.7</v>
+      </c>
       <c r="I139" s="16"/>
     </row>
     <row r="140" customHeight="1" spans="1:9">
@@ -31933,7 +33573,7 @@
       <c r="I294" s="16"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:U124" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:U133" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="196">
@@ -32187,21 +33827,21 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:21">
       <c r="A2" s="9" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="C2" s="14">
         <v>89</v>
@@ -32222,13 +33862,13 @@
         <v>5.5</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="K2" s="48" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="U2" s="8"/>
     </row>
@@ -34700,7 +36340,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
+      <selection pane="bottomLeft" activeCell="P32" sqref="P32:P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -34760,21 +36400,21 @@
         <v>11</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A2" s="9" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="C2" s="12">
         <v>20.5</v>
@@ -34852,7 +36492,7 @@
     </row>
     <row r="5" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A5" s="9" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>36</v>
@@ -34929,7 +36569,7 @@
     </row>
     <row r="8" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A8" s="9" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="12">
@@ -35040,7 +36680,7 @@
     </row>
     <row r="11" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A11" s="9" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="12">
@@ -35151,10 +36791,10 @@
     </row>
     <row r="14" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A14" s="9" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="C14" s="12">
         <v>12</v>
@@ -35220,10 +36860,10 @@
     </row>
     <row r="17" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A17" s="9" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="C17" s="12">
         <v>24</v>
@@ -35289,10 +36929,10 @@
     </row>
     <row r="20" ht="19.5" customHeight="1" spans="1:16">
       <c r="A20" s="9" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="C20" s="12">
         <v>14.9</v>
@@ -35328,13 +36968,13 @@
         <v>11</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="O20" s="34" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="P20" s="35" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" ht="19.5" customHeight="1" spans="1:16">
@@ -35374,13 +37014,13 @@
         <v>5</v>
       </c>
       <c r="N21" s="41" t="s">
-        <v>337</v>
+        <v>271</v>
       </c>
       <c r="O21" s="42" t="s">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="P21" s="35" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" ht="19.5" customHeight="1" spans="1:16">
@@ -35418,19 +37058,19 @@
         <v>6</v>
       </c>
       <c r="N22" s="41" t="s">
-        <v>340</v>
+        <v>274</v>
       </c>
       <c r="O22" s="42" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="P22" s="43"/>
     </row>
     <row r="23" ht="19.5" customHeight="1" spans="1:16">
       <c r="A23" s="9" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="C23" s="12">
         <v>11.7</v>
@@ -35466,13 +37106,13 @@
         <v>11</v>
       </c>
       <c r="N23" s="33" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="O23" s="34" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="P23" s="35" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" ht="19.5" customHeight="1" spans="1:16">
@@ -35512,13 +37152,13 @@
         <v>2</v>
       </c>
       <c r="N24" s="41" t="s">
-        <v>337</v>
+        <v>271</v>
       </c>
       <c r="O24" s="42" t="s">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="P24" s="35" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" ht="19.5" customHeight="1" spans="1:16">
@@ -35556,19 +37196,19 @@
         <v>3</v>
       </c>
       <c r="N25" s="41" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="O25" s="42" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="P25" s="43"/>
     </row>
     <row r="26" ht="19.5" customHeight="1" spans="1:16">
       <c r="A26" s="9" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="C26" s="12">
         <v>18.7</v>
@@ -35604,13 +37244,13 @@
         <v>11</v>
       </c>
       <c r="N26" s="33" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="O26" s="34" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="P26" s="35" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" ht="19.5" customHeight="1" spans="1:16">
@@ -35650,13 +37290,13 @@
         <v>2</v>
       </c>
       <c r="N27" s="41" t="s">
-        <v>337</v>
+        <v>271</v>
       </c>
       <c r="O27" s="42" t="s">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="P27" s="35" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" ht="19.5" customHeight="1" spans="1:16">
@@ -35694,19 +37334,19 @@
         <v>2</v>
       </c>
       <c r="N28" s="41" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="O28" s="42" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="P28" s="43"/>
     </row>
     <row r="29" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A29" s="9" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="C29" s="12">
         <v>4.3</v>
@@ -35780,10 +37420,10 @@
     </row>
     <row r="32" ht="19.5" customHeight="1" spans="1:16">
       <c r="A32" s="9" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="C32" s="12">
         <v>5.5</v>
@@ -35819,13 +37459,13 @@
         <v>11</v>
       </c>
       <c r="N32" s="33" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="P32" s="35" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" ht="19.5" customHeight="1" spans="1:16">
@@ -35865,13 +37505,13 @@
         <v>5</v>
       </c>
       <c r="N33" s="41" t="s">
-        <v>337</v>
+        <v>271</v>
       </c>
       <c r="O33" s="42" t="s">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="P33" s="35" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" ht="19.5" customHeight="1" spans="1:16">
@@ -35909,21 +37549,21 @@
         <v>3</v>
       </c>
       <c r="N34" s="41" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="O34" s="42" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="P34" s="43" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A35" s="9" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="C35" s="12">
         <v>26.9</v>
@@ -36029,10 +37669,10 @@
     </row>
     <row r="38" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A38" s="9" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="C38" s="12">
         <v>27.5</v>
@@ -36142,10 +37782,10 @@
     </row>
     <row r="41" ht="19.5" customHeight="1" spans="1:16">
       <c r="A41" s="9" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="C41" s="12">
         <v>2.6</v>
@@ -36181,13 +37821,13 @@
         <v>11</v>
       </c>
       <c r="N41" s="33" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="O41" s="34" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="P41" s="35" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" ht="19.5" customHeight="1" spans="1:16">
@@ -36225,13 +37865,13 @@
       </c>
       <c r="M42" s="23"/>
       <c r="N42" s="41" t="s">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="O42" s="42" t="s">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="P42" s="35" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" ht="19.5" customHeight="1" spans="1:16">
@@ -36265,13 +37905,13 @@
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
       <c r="N43" s="41" t="s">
-        <v>340</v>
+        <v>274</v>
       </c>
       <c r="O43" s="42" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="P43" s="35" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" ht="19.5" hidden="1" customHeight="1" spans="1:16">
@@ -36279,7 +37919,7 @@
         <v>62</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="C44" s="12">
         <v>0.32</v>
@@ -36389,7 +38029,7 @@
     </row>
     <row r="47" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A47" s="24" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="12"/>
@@ -36458,10 +38098,10 @@
     </row>
     <row r="50" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A50" s="9" t="s">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>366</v>
+        <v>398</v>
       </c>
       <c r="C50" s="12">
         <v>18.3</v>
@@ -36571,10 +38211,10 @@
     </row>
     <row r="53" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A53" s="9" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="C53" s="12">
         <v>25.8</v>
@@ -36684,10 +38324,10 @@
     </row>
     <row r="56" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A56" s="9" t="s">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="C56" s="12">
         <v>19.3</v>
@@ -36793,10 +38433,10 @@
     </row>
     <row r="59" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A59" s="9" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="C59" s="12">
         <v>24.6</v>
@@ -36902,10 +38542,10 @@
     </row>
     <row r="62" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A62" s="9" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="C62" s="12">
         <v>25</v>
@@ -37014,7 +38654,7 @@
         <v>119</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="C65" s="12">
         <v>21.1</v>
@@ -37120,7 +38760,7 @@
     </row>
     <row r="68" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A68" s="24" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="12"/>
@@ -37201,7 +38841,7 @@
     </row>
     <row r="71" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A71" s="24" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="12"/>
@@ -37282,10 +38922,10 @@
     </row>
     <row r="74" ht="19.5" customHeight="1" spans="1:13">
       <c r="A74" s="9" t="s">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>379</v>
+        <v>411</v>
       </c>
       <c r="C74" s="12">
         <v>12.7</v>
@@ -37367,7 +39007,7 @@
     </row>
     <row r="77" ht="19.5" customHeight="1" spans="1:13">
       <c r="A77" s="24" t="s">
-        <v>380</v>
+        <v>412</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="12"/>
@@ -38853,7 +40493,7 @@
       <c r="M173" s="7"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:X73" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:X79" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="13">
       <filters>
         <filter val="850°"/>
@@ -38993,9 +40633,9 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62:B64"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -39012,7 +40652,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -39057,7 +40697,7 @@
     </row>
     <row r="2" ht="16.5" spans="1:17">
       <c r="A2" s="9" t="s">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="B2" s="10">
         <v>656250601</v>
@@ -39156,7 +40796,7 @@
     </row>
     <row r="5" ht="16.5" spans="1:17">
       <c r="A5" s="9" t="s">
-        <v>383</v>
+        <v>415</v>
       </c>
       <c r="B5" s="21">
         <v>45856</v>
@@ -39255,7 +40895,7 @@
     </row>
     <row r="8" ht="16.5" spans="1:17">
       <c r="A8" s="9" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
       <c r="B8" s="21">
         <v>45856</v>
@@ -39354,10 +40994,10 @@
     </row>
     <row r="11" ht="16.5" spans="1:17">
       <c r="A11" s="9" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="12">
@@ -39471,10 +41111,10 @@
     </row>
     <row r="14" ht="16.5" spans="1:17">
       <c r="A14" s="9" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="12">
@@ -39596,10 +41236,10 @@
     </row>
     <row r="17" ht="16.5" spans="1:17">
       <c r="A17" s="9" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="12">
@@ -39721,10 +41361,10 @@
     </row>
     <row r="20" ht="16.5" spans="1:17">
       <c r="A20" s="9" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="12">
@@ -39846,10 +41486,10 @@
     </row>
     <row r="23" ht="16.5" spans="1:17">
       <c r="A23" s="9" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
@@ -39953,10 +41593,10 @@
     </row>
     <row r="26" ht="16.5" spans="1:17">
       <c r="A26" s="9" t="s">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="C26" s="11">
         <v>0.3</v>
@@ -40092,7 +41732,7 @@
     </row>
     <row r="29" ht="16.5" spans="1:17">
       <c r="A29" s="9" t="s">
-        <v>396</v>
+        <v>428</v>
       </c>
       <c r="B29" s="21">
         <v>45905</v>
@@ -40227,7 +41867,7 @@
     </row>
     <row r="32" ht="16.5" spans="1:17">
       <c r="A32" s="9" t="s">
-        <v>397</v>
+        <v>429</v>
       </c>
       <c r="B32" s="10">
         <v>2252950706</v>
@@ -40312,10 +41952,10 @@
     </row>
     <row r="35" ht="16.5" spans="1:17">
       <c r="A35" s="9" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="12">
@@ -40395,7 +42035,7 @@
     </row>
     <row r="38" ht="16.5" spans="1:17">
       <c r="A38" s="9" t="s">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="B38" s="21">
         <v>45958</v>
@@ -40510,7 +42150,7 @@
     </row>
     <row r="41" ht="16.5" spans="1:17">
       <c r="A41" s="24" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="B41" s="21">
         <v>45958</v>
@@ -40625,7 +42265,7 @@
     </row>
     <row r="44" ht="16.5" spans="1:17">
       <c r="A44" s="24" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="B44" s="21">
         <v>45955</v>
@@ -40744,7 +42384,7 @@
     </row>
     <row r="47" customHeight="1" spans="1:17">
       <c r="A47" s="24" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="B47" s="21">
         <v>45969</v>
@@ -40850,7 +42490,7 @@
     </row>
     <row r="50" customHeight="1" spans="1:14">
       <c r="A50" s="24" t="s">
-        <v>404</v>
+        <v>436</v>
       </c>
       <c r="B50" s="21">
         <v>45969</v>
@@ -40956,13 +42596,13 @@
     </row>
     <row r="53" customHeight="1" spans="1:14">
       <c r="A53" s="24" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="B53" s="21">
         <v>45987</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>406</v>
+      <c r="C53" s="11">
+        <v>0.33</v>
       </c>
       <c r="D53" s="12">
         <v>25.7</v>
@@ -41050,14 +42690,14 @@
     </row>
     <row r="56" customHeight="1" spans="1:14">
       <c r="A56" s="24" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="B56" s="21">
         <v>45988</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="25" t="s">
-        <v>408</v>
+        <v>439</v>
       </c>
       <c r="E56" s="13">
         <v>125</v>
@@ -41150,7 +42790,7 @@
     </row>
     <row r="59" customHeight="1" spans="1:14">
       <c r="A59" s="24" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="B59" s="21">
         <v>45988</v>

--- a/测试数据.xlsx
+++ b/测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26410" windowHeight="13020"/>
+    <workbookView windowHeight="17800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="阻燃" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,11 @@
     <sheet name="外厂" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">阻燃!$A$1:$U$643</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">不阻燃!$A$1:$U$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">阻燃!$A$1:$U$658</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">不阻燃!$A$1:$U$142</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">无卤!$A$1:$U$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'实验-X'!$A$1:$X$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">外厂!$A$1:$Q$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">外厂!$A$1:$Q$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="459">
   <si>
     <t>型号</t>
   </si>
@@ -923,9 +923,18 @@
     <t>A512153</t>
   </si>
   <si>
+    <t>B512162</t>
+  </si>
+  <si>
     <t>B512163</t>
   </si>
   <si>
+    <t>B512181</t>
+  </si>
+  <si>
+    <t>B512182</t>
+  </si>
+  <si>
     <t>310G6-N6</t>
   </si>
   <si>
@@ -1128,6 +1137,9 @@
   </si>
   <si>
     <t>B512161</t>
+  </si>
+  <si>
+    <t>A512191</t>
   </si>
   <si>
     <t>灼热丝[1.6mm]</t>
@@ -3018,12 +3030,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="阻燃"/>
-  <dimension ref="A1:Q703"/>
+  <dimension ref="A1:Q706"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A603" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A635" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F617" sqref="F617"/>
+      <selection pane="bottomLeft" activeCell="K667" sqref="K667"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>
@@ -26509,29 +26521,29 @@
     </row>
     <row r="653" ht="19.5" customHeight="1" spans="1:13">
       <c r="A653" s="9" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B653" s="9" t="s">
         <v>294</v>
       </c>
       <c r="C653" s="44">
-        <v>27.8</v>
+        <v>3</v>
       </c>
       <c r="D653" s="14">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E653" s="14"/>
       <c r="F653" s="15">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="G653" s="15">
-        <v>10170</v>
+        <v>10354</v>
       </c>
       <c r="H653" s="16">
-        <v>6.6</v>
+        <v>8.7</v>
       </c>
       <c r="I653" s="16">
-        <v>6.1</v>
+        <v>8.6</v>
       </c>
       <c r="J653" s="45" t="s">
         <v>8</v>
@@ -26550,29 +26562,29 @@
       <c r="A654" s="17"/>
       <c r="B654" s="17"/>
       <c r="C654" s="44">
-        <v>27.9</v>
+        <v>2.9</v>
       </c>
       <c r="D654" s="14">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E654" s="14"/>
       <c r="F654" s="15">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="G654" s="15">
-        <v>10009</v>
+        <v>10383</v>
       </c>
       <c r="H654" s="16">
-        <v>6.5</v>
+        <v>8.6</v>
       </c>
       <c r="I654" s="16">
-        <v>5.9</v>
+        <v>8.8</v>
       </c>
       <c r="J654" s="46">
         <v>0</v>
       </c>
       <c r="K654" s="46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L654" s="46" t="s">
         <v>139</v>
@@ -26583,27 +26595,27 @@
       <c r="A655" s="17"/>
       <c r="B655" s="17"/>
       <c r="C655" s="44">
-        <v>28</v>
+        <v>2.8</v>
       </c>
       <c r="D655" s="14">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E655" s="14"/>
       <c r="F655" s="15">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="G655" s="15">
-        <v>10121</v>
+        <v>10395</v>
       </c>
       <c r="H655" s="16">
-        <v>6.2</v>
+        <v>8.8</v>
       </c>
       <c r="I655" s="16"/>
       <c r="J655" s="46">
         <v>0</v>
       </c>
       <c r="K655" s="46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L655" s="46" t="s">
         <v>139</v>
@@ -26611,105 +26623,315 @@
       <c r="M655" s="46"/>
     </row>
     <row r="656" ht="19.5" customHeight="1" spans="1:13">
-      <c r="A656" s="9"/>
-      <c r="B656" s="9"/>
-      <c r="C656" s="44"/>
-      <c r="D656" s="14"/>
+      <c r="A656" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B656" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C656" s="44">
+        <v>27.8</v>
+      </c>
+      <c r="D656" s="14">
+        <v>137</v>
+      </c>
       <c r="E656" s="14"/>
-      <c r="F656" s="15"/>
-      <c r="G656" s="15"/>
-      <c r="H656" s="16"/>
-      <c r="I656" s="16"/>
-    </row>
-    <row r="657" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F656" s="15">
+        <v>216</v>
+      </c>
+      <c r="G656" s="15">
+        <v>10170</v>
+      </c>
+      <c r="H656" s="16">
+        <v>6.6</v>
+      </c>
+      <c r="I656" s="16">
+        <v>6.1</v>
+      </c>
+      <c r="J656" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K656" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L656" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="M656" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="657" ht="19.5" customHeight="1" spans="1:13">
       <c r="A657" s="17"/>
       <c r="B657" s="17"/>
-      <c r="C657" s="44"/>
-      <c r="D657" s="14"/>
+      <c r="C657" s="44">
+        <v>27.9</v>
+      </c>
+      <c r="D657" s="14">
+        <v>139</v>
+      </c>
       <c r="E657" s="14"/>
-      <c r="F657" s="15"/>
-      <c r="G657" s="15"/>
-      <c r="H657" s="16"/>
-      <c r="I657" s="16"/>
-    </row>
-    <row r="658" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F657" s="15">
+        <v>215</v>
+      </c>
+      <c r="G657" s="15">
+        <v>10009</v>
+      </c>
+      <c r="H657" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="I657" s="16">
+        <v>5.9</v>
+      </c>
+      <c r="J657" s="46">
+        <v>0</v>
+      </c>
+      <c r="K657" s="46">
+        <v>0</v>
+      </c>
+      <c r="L657" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="M657" s="46"/>
+    </row>
+    <row r="658" ht="19.5" customHeight="1" spans="1:13">
       <c r="A658" s="17"/>
       <c r="B658" s="17"/>
-      <c r="C658" s="44"/>
-      <c r="D658" s="14"/>
+      <c r="C658" s="44">
+        <v>28</v>
+      </c>
+      <c r="D658" s="14">
+        <v>137</v>
+      </c>
       <c r="E658" s="14"/>
-      <c r="F658" s="15"/>
-      <c r="G658" s="15"/>
-      <c r="H658" s="16"/>
+      <c r="F658" s="15">
+        <v>219</v>
+      </c>
+      <c r="G658" s="15">
+        <v>10121</v>
+      </c>
+      <c r="H658" s="16">
+        <v>6.2</v>
+      </c>
       <c r="I658" s="16"/>
-    </row>
-    <row r="659" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A659" s="9"/>
-      <c r="B659" s="9"/>
-      <c r="C659" s="44"/>
-      <c r="D659" s="14"/>
+      <c r="J658" s="46">
+        <v>0</v>
+      </c>
+      <c r="K658" s="46">
+        <v>0</v>
+      </c>
+      <c r="L658" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="M658" s="46"/>
+    </row>
+    <row r="659" ht="19.5" customHeight="1" spans="1:13">
+      <c r="A659" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B659" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C659" s="44">
+        <v>14.2</v>
+      </c>
+      <c r="D659" s="14">
+        <v>146</v>
+      </c>
       <c r="E659" s="14"/>
-      <c r="F659" s="15"/>
-      <c r="G659" s="15"/>
-      <c r="H659" s="16"/>
-      <c r="I659" s="16"/>
-    </row>
-    <row r="660" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F659" s="15">
+        <v>251</v>
+      </c>
+      <c r="G659" s="15">
+        <v>9725</v>
+      </c>
+      <c r="H659" s="16">
+        <v>8.6</v>
+      </c>
+      <c r="I659" s="16">
+        <v>9.3</v>
+      </c>
+      <c r="J659" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K659" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L659" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="M659" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="660" ht="19.5" customHeight="1" spans="1:13">
       <c r="A660" s="17"/>
       <c r="B660" s="17"/>
-      <c r="C660" s="44"/>
-      <c r="D660" s="14"/>
+      <c r="C660" s="44">
+        <v>13.9</v>
+      </c>
+      <c r="D660" s="14">
+        <v>137</v>
+      </c>
       <c r="E660" s="14"/>
-      <c r="F660" s="15"/>
-      <c r="G660" s="15"/>
-      <c r="H660" s="16"/>
-      <c r="I660" s="16"/>
-    </row>
-    <row r="661" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F660" s="15">
+        <v>251</v>
+      </c>
+      <c r="G660" s="15">
+        <v>9681</v>
+      </c>
+      <c r="H660" s="16">
+        <v>9.5</v>
+      </c>
+      <c r="I660" s="16">
+        <v>9.3</v>
+      </c>
+      <c r="J660" s="46">
+        <v>0</v>
+      </c>
+      <c r="K660" s="46">
+        <v>0</v>
+      </c>
+      <c r="L660" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="M660" s="46"/>
+    </row>
+    <row r="661" ht="19.5" customHeight="1" spans="1:13">
       <c r="A661" s="17"/>
       <c r="B661" s="17"/>
-      <c r="C661" s="44"/>
-      <c r="D661" s="14"/>
+      <c r="C661" s="44">
+        <v>13.9</v>
+      </c>
+      <c r="D661" s="14">
+        <v>148</v>
+      </c>
       <c r="E661" s="14"/>
-      <c r="F661" s="15"/>
-      <c r="G661" s="15"/>
-      <c r="H661" s="16"/>
+      <c r="F661" s="15">
+        <v>252</v>
+      </c>
+      <c r="G661" s="15">
+        <v>9797</v>
+      </c>
+      <c r="H661" s="16">
+        <v>9</v>
+      </c>
       <c r="I661" s="16"/>
-    </row>
-    <row r="662" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A662" s="9"/>
-      <c r="B662" s="9"/>
-      <c r="C662" s="44"/>
-      <c r="D662" s="14"/>
+      <c r="J661" s="46">
+        <v>0</v>
+      </c>
+      <c r="K661" s="46">
+        <v>0</v>
+      </c>
+      <c r="L661" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="M661" s="46"/>
+    </row>
+    <row r="662" ht="19.5" customHeight="1" spans="1:13">
+      <c r="A662" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B662" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C662" s="44">
+        <v>27.2</v>
+      </c>
+      <c r="D662" s="14">
+        <v>140</v>
+      </c>
       <c r="E662" s="14"/>
-      <c r="F662" s="15"/>
-      <c r="G662" s="15"/>
-      <c r="H662" s="16"/>
-      <c r="I662" s="16"/>
-    </row>
-    <row r="663" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F662" s="15">
+        <v>240</v>
+      </c>
+      <c r="G662" s="15">
+        <v>10024</v>
+      </c>
+      <c r="H662" s="16">
+        <v>8.8</v>
+      </c>
+      <c r="I662" s="16">
+        <v>8.7</v>
+      </c>
+      <c r="J662" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K662" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L662" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="M662" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="663" ht="19.5" customHeight="1" spans="1:13">
       <c r="A663" s="17"/>
       <c r="B663" s="17"/>
-      <c r="C663" s="44"/>
-      <c r="D663" s="14"/>
+      <c r="C663" s="44">
+        <v>27.2</v>
+      </c>
+      <c r="D663" s="14">
+        <v>141</v>
+      </c>
       <c r="E663" s="14"/>
-      <c r="F663" s="15"/>
-      <c r="G663" s="15"/>
-      <c r="H663" s="16"/>
-      <c r="I663" s="16"/>
-    </row>
-    <row r="664" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F663" s="15">
+        <v>236</v>
+      </c>
+      <c r="G663" s="15">
+        <v>9891</v>
+      </c>
+      <c r="H663" s="16">
+        <v>8.8</v>
+      </c>
+      <c r="I663" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="J663" s="46">
+        <v>0</v>
+      </c>
+      <c r="K663" s="46">
+        <v>5</v>
+      </c>
+      <c r="L663" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="M663" s="46"/>
+    </row>
+    <row r="664" ht="19.5" customHeight="1" spans="1:13">
       <c r="A664" s="17"/>
       <c r="B664" s="17"/>
-      <c r="C664" s="44"/>
-      <c r="D664" s="14"/>
+      <c r="C664" s="44">
+        <v>26.4</v>
+      </c>
+      <c r="D664" s="14">
+        <v>139</v>
+      </c>
       <c r="E664" s="14"/>
-      <c r="F664" s="15"/>
-      <c r="G664" s="15"/>
-      <c r="H664" s="16"/>
+      <c r="F664" s="15">
+        <v>229</v>
+      </c>
+      <c r="G664" s="15">
+        <v>9828</v>
+      </c>
+      <c r="H664" s="16">
+        <v>8.4</v>
+      </c>
       <c r="I664" s="16"/>
-    </row>
-    <row r="665" ht="19.5" customHeight="1" spans="1:9">
+      <c r="J664" s="46">
+        <v>0</v>
+      </c>
+      <c r="K664" s="46">
+        <v>5</v>
+      </c>
+      <c r="L664" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="M664" s="46"/>
+    </row>
+    <row r="665" ht="19.5" customHeight="1" spans="1:13">
       <c r="A665" s="9"/>
       <c r="B665" s="9"/>
       <c r="C665" s="44"/>
@@ -26720,7 +26942,7 @@
       <c r="H665" s="16"/>
       <c r="I665" s="16"/>
     </row>
-    <row r="666" ht="19.5" customHeight="1" spans="1:9">
+    <row r="666" ht="19.5" customHeight="1" spans="1:13">
       <c r="A666" s="17"/>
       <c r="B666" s="17"/>
       <c r="C666" s="44"/>
@@ -26731,7 +26953,7 @@
       <c r="H666" s="16"/>
       <c r="I666" s="16"/>
     </row>
-    <row r="667" ht="19.5" customHeight="1" spans="1:9">
+    <row r="667" ht="19.5" customHeight="1" spans="1:13">
       <c r="A667" s="17"/>
       <c r="B667" s="17"/>
       <c r="C667" s="44"/>
@@ -26742,7 +26964,7 @@
       <c r="H667" s="16"/>
       <c r="I667" s="16"/>
     </row>
-    <row r="668" ht="19.5" customHeight="1" spans="1:9">
+    <row r="668" ht="19.5" customHeight="1" spans="1:13">
       <c r="A668" s="9"/>
       <c r="B668" s="9"/>
       <c r="C668" s="44"/>
@@ -26753,7 +26975,7 @@
       <c r="H668" s="16"/>
       <c r="I668" s="16"/>
     </row>
-    <row r="669" ht="19.5" customHeight="1" spans="1:9">
+    <row r="669" ht="19.5" customHeight="1" spans="1:13">
       <c r="A669" s="17"/>
       <c r="B669" s="17"/>
       <c r="C669" s="44"/>
@@ -26764,7 +26986,7 @@
       <c r="H669" s="16"/>
       <c r="I669" s="16"/>
     </row>
-    <row r="670" ht="19.5" customHeight="1" spans="1:9">
+    <row r="670" ht="19.5" customHeight="1" spans="1:13">
       <c r="A670" s="17"/>
       <c r="B670" s="17"/>
       <c r="C670" s="44"/>
@@ -26775,7 +26997,7 @@
       <c r="H670" s="16"/>
       <c r="I670" s="16"/>
     </row>
-    <row r="671" ht="19.5" customHeight="1" spans="1:9">
+    <row r="671" ht="19.5" customHeight="1" spans="1:13">
       <c r="A671" s="9"/>
       <c r="B671" s="9"/>
       <c r="C671" s="44"/>
@@ -26786,7 +27008,7 @@
       <c r="H671" s="16"/>
       <c r="I671" s="16"/>
     </row>
-    <row r="672" ht="19.5" customHeight="1" spans="1:9">
+    <row r="672" ht="19.5" customHeight="1" spans="1:13">
       <c r="A672" s="17"/>
       <c r="B672" s="17"/>
       <c r="C672" s="44"/>
@@ -27138,11 +27360,44 @@
       <c r="H703" s="16"/>
       <c r="I703" s="16"/>
     </row>
+    <row r="704" ht="19.5" customHeight="1" spans="1:9">
+      <c r="A704" s="9"/>
+      <c r="B704" s="9"/>
+      <c r="C704" s="44"/>
+      <c r="D704" s="14"/>
+      <c r="E704" s="14"/>
+      <c r="F704" s="15"/>
+      <c r="G704" s="15"/>
+      <c r="H704" s="16"/>
+      <c r="I704" s="16"/>
+    </row>
+    <row r="705" ht="19.5" customHeight="1" spans="1:9">
+      <c r="A705" s="17"/>
+      <c r="B705" s="17"/>
+      <c r="C705" s="44"/>
+      <c r="D705" s="14"/>
+      <c r="E705" s="14"/>
+      <c r="F705" s="15"/>
+      <c r="G705" s="15"/>
+      <c r="H705" s="16"/>
+      <c r="I705" s="16"/>
+    </row>
+    <row r="706" ht="19.5" customHeight="1" spans="1:9">
+      <c r="A706" s="17"/>
+      <c r="B706" s="17"/>
+      <c r="C706" s="44"/>
+      <c r="D706" s="14"/>
+      <c r="E706" s="14"/>
+      <c r="F706" s="15"/>
+      <c r="G706" s="15"/>
+      <c r="H706" s="16"/>
+      <c r="I706" s="16"/>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:U643" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:U658" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <mergeCells count="468">
+  <mergeCells count="470">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
@@ -27377,6 +27632,7 @@
     <mergeCell ref="A695:A697"/>
     <mergeCell ref="A698:A700"/>
     <mergeCell ref="A701:A703"/>
+    <mergeCell ref="A704:A706"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
@@ -27611,6 +27867,7 @@
     <mergeCell ref="B695:B697"/>
     <mergeCell ref="B698:B700"/>
     <mergeCell ref="B701:B703"/>
+    <mergeCell ref="B704:B706"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -27623,10 +27880,10 @@
   <sheetPr codeName="不阻燃"/>
   <dimension ref="A1:U294"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H142" sqref="H142"/>
+      <selection pane="bottomLeft" activeCell="G154" sqref="G154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -27678,10 +27935,10 @@
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:21">
       <c r="A2" s="67" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C2" s="68">
         <v>19.3</v>
@@ -27791,10 +28048,10 @@
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:21">
       <c r="A5" s="9" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C5" s="44">
         <v>2.4</v>
@@ -27898,10 +28155,10 @@
     </row>
     <row r="8" ht="19.5" customHeight="1" spans="1:21">
       <c r="A8" s="67" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C8" s="68">
         <v>18.1</v>
@@ -28011,10 +28268,10 @@
     </row>
     <row r="11" ht="19.5" customHeight="1" spans="1:21">
       <c r="A11" s="67" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C11" s="73"/>
       <c r="D11" s="69">
@@ -28120,10 +28377,10 @@
     </row>
     <row r="14" ht="19.5" customHeight="1" spans="1:21">
       <c r="A14" s="67" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C14" s="68">
         <v>18.7</v>
@@ -28233,10 +28490,10 @@
     </row>
     <row r="17" ht="19.5" customHeight="1" spans="1:21">
       <c r="A17" s="67" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C17" s="68">
         <v>27.5</v>
@@ -28346,10 +28603,10 @@
     </row>
     <row r="20" ht="19.5" customHeight="1" spans="1:21">
       <c r="A20" s="67" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C20" s="68">
         <v>18</v>
@@ -28459,10 +28716,10 @@
     </row>
     <row r="23" ht="19.5" customHeight="1" spans="1:21">
       <c r="A23" s="67" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C23" s="68">
         <v>27.4</v>
@@ -28572,10 +28829,10 @@
     </row>
     <row r="26" ht="19.5" customHeight="1" spans="1:21">
       <c r="A26" s="67" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C26" s="68">
         <v>24.3</v>
@@ -28685,10 +28942,10 @@
     </row>
     <row r="29" ht="19.5" customHeight="1" spans="1:21">
       <c r="A29" s="67" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B29" s="67" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C29" s="68">
         <v>23.8</v>
@@ -28798,10 +29055,10 @@
     </row>
     <row r="32" ht="19.5" customHeight="1" spans="1:21">
       <c r="A32" s="67" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B32" s="67" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C32" s="68"/>
       <c r="D32" s="69">
@@ -28901,10 +29158,10 @@
     </row>
     <row r="35" ht="19.5" customHeight="1" spans="1:21">
       <c r="A35" s="67" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B35" s="67" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C35" s="68"/>
       <c r="D35" s="69">
@@ -29002,10 +29259,10 @@
     </row>
     <row r="38" ht="19.5" customHeight="1" spans="1:21">
       <c r="A38" s="67" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B38" s="67" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C38" s="74">
         <v>24.5</v>
@@ -29117,10 +29374,10 @@
     </row>
     <row r="41" ht="19.5" customHeight="1" spans="1:21">
       <c r="A41" s="67" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B41" s="67" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C41" s="68">
         <v>23.9</v>
@@ -29232,10 +29489,10 @@
     </row>
     <row r="44" ht="19.5" customHeight="1" spans="1:21">
       <c r="A44" s="67" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B44" s="67" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C44" s="74">
         <v>16.3</v>
@@ -29347,10 +29604,10 @@
     </row>
     <row r="47" ht="19.5" customHeight="1" spans="1:21">
       <c r="A47" s="67" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B47" s="67" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C47" s="74">
         <v>27.4</v>
@@ -29460,10 +29717,10 @@
     </row>
     <row r="50" ht="19.5" customHeight="1" spans="1:21">
       <c r="A50" s="67" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B50" s="67" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C50" s="74">
         <v>21.2</v>
@@ -29573,10 +29830,10 @@
     </row>
     <row r="53" ht="19.5" customHeight="1" spans="1:21">
       <c r="A53" s="67" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B53" s="67" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C53" s="74">
         <v>21.1</v>
@@ -29686,10 +29943,10 @@
     </row>
     <row r="56" ht="19.5" customHeight="1" spans="1:21">
       <c r="A56" s="67" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B56" s="67" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C56" s="74">
         <v>18.1</v>
@@ -29799,10 +30056,10 @@
     </row>
     <row r="59" ht="19.5" customHeight="1" spans="1:21">
       <c r="A59" s="67" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B59" s="67" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C59" s="74">
         <v>20.9</v>
@@ -29912,10 +30169,10 @@
     </row>
     <row r="62" ht="19.5" customHeight="1" spans="1:21">
       <c r="A62" s="67" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B62" s="67" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C62" s="74">
         <v>23.1</v>
@@ -30025,10 +30282,10 @@
     </row>
     <row r="65" ht="19.5" customHeight="1" spans="1:21">
       <c r="A65" s="67" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B65" s="67" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C65" s="74">
         <v>23.6</v>
@@ -30140,10 +30397,10 @@
     </row>
     <row r="68" ht="19.5" customHeight="1" spans="1:21">
       <c r="A68" s="67" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B68" s="67" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C68" s="74">
         <v>20.9</v>
@@ -30253,10 +30510,10 @@
     </row>
     <row r="71" ht="19.5" customHeight="1" spans="1:21">
       <c r="A71" s="67" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B71" s="67" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C71" s="74">
         <v>20.1</v>
@@ -30366,10 +30623,10 @@
     </row>
     <row r="74" ht="19.5" customHeight="1" spans="1:21">
       <c r="A74" s="67" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B74" s="67" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C74" s="74">
         <v>16.4</v>
@@ -30479,10 +30736,10 @@
     </row>
     <row r="77" ht="19.5" customHeight="1" spans="1:21">
       <c r="A77" s="9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C77" s="44">
         <v>19.6</v>
@@ -30592,10 +30849,10 @@
     </row>
     <row r="80" ht="19.5" customHeight="1" spans="1:21">
       <c r="A80" s="67" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B80" s="67" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C80" s="74">
         <v>18.3</v>
@@ -30705,10 +30962,10 @@
     </row>
     <row r="83" ht="19.5" customHeight="1" spans="1:21">
       <c r="A83" s="9" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C83" s="44">
         <v>18.2</v>
@@ -30818,10 +31075,10 @@
     </row>
     <row r="86" ht="19.5" customHeight="1" spans="1:21">
       <c r="A86" s="67" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B86" s="67" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C86" s="74">
         <v>18.1</v>
@@ -30931,10 +31188,10 @@
     </row>
     <row r="89" ht="19.5" customHeight="1" spans="1:21">
       <c r="A89" s="9" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C89" s="44">
         <v>21.3</v>
@@ -31044,10 +31301,10 @@
     </row>
     <row r="92" ht="19.5" customHeight="1" spans="1:21">
       <c r="A92" s="9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C92" s="44">
         <v>30.2</v>
@@ -31157,10 +31414,10 @@
     </row>
     <row r="95" ht="19.5" customHeight="1" spans="1:21">
       <c r="A95" s="9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C95" s="44">
         <v>12.9</v>
@@ -31272,10 +31529,10 @@
     </row>
     <row r="98" customHeight="1" spans="1:21">
       <c r="A98" s="9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C98" s="44">
         <v>19.6</v>
@@ -31349,10 +31606,10 @@
     </row>
     <row r="101" customHeight="1" spans="1:21">
       <c r="A101" s="9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C101" s="44">
         <v>29.4</v>
@@ -31418,10 +31675,10 @@
     </row>
     <row r="104" customHeight="1" spans="1:21">
       <c r="A104" s="9" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C104" s="44">
         <v>21.6</v>
@@ -31495,10 +31752,10 @@
     </row>
     <row r="107" customHeight="1" spans="1:21">
       <c r="A107" s="9" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C107" s="44">
         <v>14.9</v>
@@ -31572,10 +31829,10 @@
     </row>
     <row r="110" customHeight="1" spans="1:21">
       <c r="A110" s="9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C110" s="44">
         <v>16.9</v>
@@ -31649,10 +31906,10 @@
     </row>
     <row r="113" customHeight="1" spans="1:9">
       <c r="A113" s="9" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C113" s="44">
         <v>19.7</v>
@@ -31726,10 +31983,10 @@
     </row>
     <row r="116" customHeight="1" spans="1:9">
       <c r="A116" s="9" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C116" s="44">
         <v>23.4</v>
@@ -31803,10 +32060,10 @@
     </row>
     <row r="119" customHeight="1" spans="1:9">
       <c r="A119" s="9" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C119" s="44">
         <v>23.9</v>
@@ -31880,10 +32137,10 @@
     </row>
     <row r="122" customHeight="1" spans="1:9">
       <c r="A122" s="9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C122" s="44">
         <v>22.7</v>
@@ -31957,10 +32214,10 @@
     </row>
     <row r="125" customHeight="1" spans="1:9">
       <c r="A125" s="9" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C125" s="44">
         <v>21.6</v>
@@ -32034,10 +32291,10 @@
     </row>
     <row r="128" customHeight="1" spans="1:9">
       <c r="A128" s="9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C128" s="44">
         <v>20.4</v>
@@ -32105,10 +32362,10 @@
     </row>
     <row r="131" customHeight="1" spans="1:9">
       <c r="A131" s="9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C131" s="44">
         <v>15.1</v>
@@ -32176,10 +32433,10 @@
     </row>
     <row r="134" customHeight="1" spans="1:9">
       <c r="A134" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C134" s="44">
         <v>21.2</v>
@@ -32247,10 +32504,10 @@
     </row>
     <row r="137" customHeight="1" spans="1:9">
       <c r="A137" s="9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C137" s="44">
         <v>16.2</v>
@@ -32318,10 +32575,10 @@
     </row>
     <row r="140" customHeight="1" spans="1:9">
       <c r="A140" s="9" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C140" s="44">
         <v>22.6</v>
@@ -32388,36 +32645,74 @@
       <c r="I142" s="16"/>
     </row>
     <row r="143" customHeight="1" spans="1:9">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
-      <c r="C143" s="44"/>
-      <c r="D143" s="14"/>
+      <c r="A143" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C143" s="44">
+        <v>17.6</v>
+      </c>
+      <c r="D143" s="14">
+        <v>131</v>
+      </c>
       <c r="E143" s="14"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="16"/>
-      <c r="I143" s="16"/>
+      <c r="F143" s="15">
+        <v>225</v>
+      </c>
+      <c r="G143" s="15">
+        <v>8816</v>
+      </c>
+      <c r="H143" s="16">
+        <v>9.1</v>
+      </c>
+      <c r="I143" s="16">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="144" customHeight="1" spans="1:9">
       <c r="A144" s="17"/>
       <c r="B144" s="17"/>
-      <c r="C144" s="44"/>
-      <c r="D144" s="14"/>
+      <c r="C144" s="44">
+        <v>18.1</v>
+      </c>
+      <c r="D144" s="14">
+        <v>130</v>
+      </c>
       <c r="E144" s="14"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="16"/>
-      <c r="I144" s="16"/>
+      <c r="F144" s="15">
+        <v>226</v>
+      </c>
+      <c r="G144" s="15">
+        <v>8948</v>
+      </c>
+      <c r="H144" s="16">
+        <v>9.4</v>
+      </c>
+      <c r="I144" s="16">
+        <v>9.3</v>
+      </c>
     </row>
     <row r="145" customHeight="1" spans="1:9">
       <c r="A145" s="17"/>
       <c r="B145" s="17"/>
-      <c r="C145" s="44"/>
-      <c r="D145" s="14"/>
+      <c r="C145" s="44">
+        <v>17.8</v>
+      </c>
+      <c r="D145" s="14">
+        <v>131</v>
+      </c>
       <c r="E145" s="14"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="15"/>
-      <c r="H145" s="16"/>
+      <c r="F145" s="15">
+        <v>227</v>
+      </c>
+      <c r="G145" s="15">
+        <v>9003</v>
+      </c>
+      <c r="H145" s="16">
+        <v>9.2</v>
+      </c>
       <c r="I145" s="16"/>
     </row>
     <row r="146" customHeight="1" spans="1:9">
@@ -34058,7 +34353,7 @@
       <c r="I294" s="16"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:U139" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:U142" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="196">
@@ -34312,21 +34607,21 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:21">
       <c r="A2" s="9" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C2" s="14">
         <v>89</v>
@@ -34347,13 +34642,13 @@
         <v>5.5</v>
       </c>
       <c r="I2" s="50" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="J2" s="50" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K2" s="51" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="U2" s="8"/>
     </row>
@@ -36885,10 +37180,10 @@
         <v>11</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="P1" s="35" t="s">
         <v>269</v>
@@ -36896,10 +37191,10 @@
     </row>
     <row r="2" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A2" s="9" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C2" s="12">
         <v>20.5</v>
@@ -36977,7 +37272,7 @@
     </row>
     <row r="5" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A5" s="9" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>36</v>
@@ -37054,7 +37349,7 @@
     </row>
     <row r="8" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A8" s="9" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="12">
@@ -37165,7 +37460,7 @@
     </row>
     <row r="11" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A11" s="9" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="12">
@@ -37276,10 +37571,10 @@
     </row>
     <row r="14" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A14" s="9" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C14" s="12">
         <v>12</v>
@@ -37345,10 +37640,10 @@
     </row>
     <row r="17" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A17" s="9" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C17" s="12">
         <v>24</v>
@@ -37414,10 +37709,10 @@
     </row>
     <row r="20" ht="19.5" customHeight="1" spans="1:16">
       <c r="A20" s="9" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C20" s="12">
         <v>14.9</v>
@@ -37505,7 +37800,7 @@
         <v>272</v>
       </c>
       <c r="P21" s="35" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" ht="19.5" customHeight="1" spans="1:16">
@@ -37546,16 +37841,16 @@
         <v>274</v>
       </c>
       <c r="O22" s="42" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="P22" s="43"/>
     </row>
     <row r="23" ht="19.5" customHeight="1" spans="1:16">
       <c r="A23" s="9" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C23" s="12">
         <v>11.7</v>
@@ -37643,7 +37938,7 @@
         <v>272</v>
       </c>
       <c r="P24" s="35" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" ht="19.5" customHeight="1" spans="1:16">
@@ -37681,19 +37976,19 @@
         <v>3</v>
       </c>
       <c r="N25" s="41" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="O25" s="42" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="P25" s="43"/>
     </row>
     <row r="26" ht="19.5" customHeight="1" spans="1:16">
       <c r="A26" s="9" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C26" s="12">
         <v>18.7</v>
@@ -37781,7 +38076,7 @@
         <v>272</v>
       </c>
       <c r="P27" s="35" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28" ht="19.5" customHeight="1" spans="1:16">
@@ -37819,19 +38114,19 @@
         <v>2</v>
       </c>
       <c r="N28" s="41" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="O28" s="42" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="P28" s="43"/>
     </row>
     <row r="29" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A29" s="9" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C29" s="12">
         <v>4.3</v>
@@ -37905,10 +38200,10 @@
     </row>
     <row r="32" ht="19.5" customHeight="1" spans="1:16">
       <c r="A32" s="9" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C32" s="12">
         <v>5.5</v>
@@ -37996,7 +38291,7 @@
         <v>272</v>
       </c>
       <c r="P33" s="35" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" ht="19.5" customHeight="1" spans="1:16">
@@ -38034,21 +38329,21 @@
         <v>3</v>
       </c>
       <c r="N34" s="41" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="O34" s="42" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="P34" s="43" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A35" s="9" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C35" s="12">
         <v>26.9</v>
@@ -38154,10 +38449,10 @@
     </row>
     <row r="38" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A38" s="9" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C38" s="12">
         <v>27.5</v>
@@ -38267,10 +38562,10 @@
     </row>
     <row r="41" ht="19.5" customHeight="1" spans="1:16">
       <c r="A41" s="9" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C41" s="12">
         <v>2.6</v>
@@ -38353,10 +38648,10 @@
         <v>270</v>
       </c>
       <c r="O42" s="42" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P42" s="35" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" ht="19.5" customHeight="1" spans="1:16">
@@ -38393,10 +38688,10 @@
         <v>274</v>
       </c>
       <c r="O43" s="42" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="P43" s="35" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" ht="19.5" hidden="1" customHeight="1" spans="1:16">
@@ -38404,7 +38699,7 @@
         <v>62</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C44" s="12">
         <v>0.32</v>
@@ -38514,7 +38809,7 @@
     </row>
     <row r="47" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A47" s="22" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="12"/>
@@ -38583,10 +38878,10 @@
     </row>
     <row r="50" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A50" s="9" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C50" s="12">
         <v>18.3</v>
@@ -38696,10 +38991,10 @@
     </row>
     <row r="53" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A53" s="9" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C53" s="12">
         <v>25.8</v>
@@ -38809,10 +39104,10 @@
     </row>
     <row r="56" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A56" s="9" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C56" s="12">
         <v>19.3</v>
@@ -38918,10 +39213,10 @@
     </row>
     <row r="59" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A59" s="9" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C59" s="12">
         <v>24.6</v>
@@ -39027,10 +39322,10 @@
     </row>
     <row r="62" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A62" s="9" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C62" s="12">
         <v>25</v>
@@ -39139,7 +39434,7 @@
         <v>119</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C65" s="12">
         <v>21.1</v>
@@ -39245,7 +39540,7 @@
     </row>
     <row r="68" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A68" s="22" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="12"/>
@@ -39326,7 +39621,7 @@
     </row>
     <row r="71" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A71" s="22" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="12"/>
@@ -39407,10 +39702,10 @@
     </row>
     <row r="74" ht="19.5" customHeight="1" spans="1:13">
       <c r="A74" s="9" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C74" s="12">
         <v>12.7</v>
@@ -39492,7 +39787,7 @@
     </row>
     <row r="77" ht="19.5" customHeight="1" spans="1:13">
       <c r="A77" s="22" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="12"/>
@@ -39569,10 +39864,10 @@
     </row>
     <row r="80" ht="19.5" customHeight="1" spans="1:13">
       <c r="A80" s="9" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C80" s="44">
         <v>14.8</v>
@@ -41195,7 +41490,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -41240,7 +41535,7 @@
     </row>
     <row r="2" ht="16.5" spans="1:17">
       <c r="A2" s="9" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B2" s="10">
         <v>656250601</v>
@@ -41339,7 +41634,7 @@
     </row>
     <row r="5" ht="16.5" spans="1:17">
       <c r="A5" s="9" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B5" s="21">
         <v>45856</v>
@@ -41438,7 +41733,7 @@
     </row>
     <row r="8" ht="16.5" spans="1:17">
       <c r="A8" s="9" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B8" s="21">
         <v>45856</v>
@@ -41537,10 +41832,10 @@
     </row>
     <row r="11" ht="16.5" spans="1:17">
       <c r="A11" s="22" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
@@ -41616,10 +41911,10 @@
     </row>
     <row r="14" ht="16.5" spans="1:17">
       <c r="A14" s="22" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="12">
@@ -41733,10 +42028,10 @@
     </row>
     <row r="17" ht="16.5" spans="1:17">
       <c r="A17" s="22" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
@@ -41756,10 +42051,6 @@
       <c r="J17" s="16">
         <v>9.7</v>
       </c>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
@@ -41785,10 +42076,6 @@
       <c r="J18" s="16">
         <v>9.7</v>
       </c>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
@@ -41812,20 +42099,16 @@
         <v>9.8</v>
       </c>
       <c r="J19" s="16"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
     </row>
     <row r="20" ht="16.5" spans="1:17">
       <c r="A20" s="22" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="12">
@@ -41947,10 +42230,10 @@
     </row>
     <row r="23" ht="16.5" spans="1:17">
       <c r="A23" s="22" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
@@ -41964,10 +42247,6 @@
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
@@ -41987,10 +42266,6 @@
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
@@ -42006,20 +42281,16 @@
       <c r="H25" s="15"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
     </row>
     <row r="26" ht="16.5" spans="1:17">
       <c r="A26" s="22" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="12">
@@ -42141,10 +42412,10 @@
     </row>
     <row r="29" ht="16.5" spans="1:17">
       <c r="A29" s="22" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
@@ -42158,10 +42429,6 @@
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
@@ -42181,10 +42448,6 @@
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
@@ -42200,20 +42463,16 @@
       <c r="H31" s="15"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
     </row>
     <row r="32" ht="16.5" spans="1:17">
       <c r="A32" s="22" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="12">
@@ -42335,10 +42594,10 @@
     </row>
     <row r="35" ht="16.5" spans="1:17">
       <c r="A35" s="22" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="12"/>
@@ -42442,10 +42701,10 @@
     </row>
     <row r="38" ht="16.5" spans="1:17">
       <c r="A38" s="9" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C38" s="11">
         <v>0.3</v>
@@ -42581,7 +42840,7 @@
     </row>
     <row r="41" ht="16.5" spans="1:17">
       <c r="A41" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B41" s="21">
         <v>45905</v>
@@ -42716,7 +42975,7 @@
     </row>
     <row r="44" ht="16.5" spans="1:17">
       <c r="A44" s="9" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B44" s="10">
         <v>2252950706</v>
@@ -42801,10 +43060,10 @@
     </row>
     <row r="47" ht="16.5" spans="1:17">
       <c r="A47" s="9" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="12">
@@ -42884,7 +43143,7 @@
     </row>
     <row r="50" ht="16.5" spans="1:17">
       <c r="A50" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B50" s="21">
         <v>45958</v>
@@ -42999,7 +43258,7 @@
     </row>
     <row r="53" ht="16.5" spans="1:17">
       <c r="A53" s="22" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B53" s="21">
         <v>45958</v>
@@ -43114,7 +43373,7 @@
     </row>
     <row r="56" ht="16.5" spans="1:17">
       <c r="A56" s="22" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B56" s="21">
         <v>45955</v>
@@ -43233,7 +43492,7 @@
     </row>
     <row r="59" customHeight="1" spans="1:17">
       <c r="A59" s="22" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B59" s="21">
         <v>45969</v>
@@ -43335,7 +43594,7 @@
     </row>
     <row r="62" customHeight="1" spans="1:17">
       <c r="A62" s="22" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B62" s="21">
         <v>45969</v>
@@ -43435,7 +43694,7 @@
     </row>
     <row r="65" customHeight="1" spans="1:12">
       <c r="A65" s="22" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B65" s="21">
         <v>45987</v>
@@ -43517,14 +43776,14 @@
     </row>
     <row r="68" customHeight="1" spans="1:12">
       <c r="A68" s="22" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B68" s="21">
         <v>45988</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="25" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="E68" s="13">
         <v>125</v>
@@ -43611,7 +43870,7 @@
     </row>
     <row r="71" customHeight="1" spans="1:12">
       <c r="A71" s="22" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B71" s="21">
         <v>45988</v>
@@ -43691,7 +43950,7 @@
     </row>
     <row r="74" customHeight="1" spans="1:12">
       <c r="A74" s="22" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B74" s="21">
         <v>46007</v>
@@ -43784,7 +44043,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:Q73" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:Q76" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="76">

--- a/测试数据.xlsx
+++ b/测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800" activeTab="1"/>
+    <workbookView windowWidth="28820" windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="阻燃" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,8 @@
     <sheet name="外厂" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">阻燃!$A$1:$U$658</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">不阻燃!$A$1:$U$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">阻燃!$A$1:$U$685</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">不阻燃!$A$1:$U$145</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">无卤!$A$1:$U$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'实验-X'!$A$1:$X$82</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">外厂!$A$1:$Q$76</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="469">
   <si>
     <t>型号</t>
   </si>
@@ -935,6 +935,27 @@
     <t>B512182</t>
   </si>
   <si>
+    <t>A512192</t>
+  </si>
+  <si>
+    <t>A512193</t>
+  </si>
+  <si>
+    <t>B512201</t>
+  </si>
+  <si>
+    <t>B512202</t>
+  </si>
+  <si>
+    <t>A512221</t>
+  </si>
+  <si>
+    <t>A512222</t>
+  </si>
+  <si>
+    <t>A512223</t>
+  </si>
+  <si>
     <t>310G6-N6</t>
   </si>
   <si>
@@ -1140,6 +1161,9 @@
   </si>
   <si>
     <t>A512191</t>
+  </si>
+  <si>
+    <t>A512225</t>
   </si>
   <si>
     <t>灼热丝[1.6mm]</t>
@@ -1433,6 +1457,13 @@
   <si>
     <t>德邦 B1N20白
 自力（欧辰）</t>
+  </si>
+  <si>
+    <t>PBT 4308G 
+色号：0320-1L</t>
+  </si>
+  <si>
+    <t>C026</t>
   </si>
 </sst>
 </file>
@@ -3032,10 +3063,10 @@
   <sheetPr codeName="阻燃"/>
   <dimension ref="A1:Q706"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A635" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A650" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K667" sqref="K667"/>
+      <selection pane="bottomLeft" activeCell="I663" sqref="I663"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>
@@ -26932,237 +26963,755 @@
       <c r="M664" s="46"/>
     </row>
     <row r="665" ht="19.5" customHeight="1" spans="1:13">
-      <c r="A665" s="9"/>
-      <c r="B665" s="9"/>
-      <c r="C665" s="44"/>
-      <c r="D665" s="14"/>
+      <c r="A665" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B665" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C665" s="44">
+        <v>21.5</v>
+      </c>
+      <c r="D665" s="14">
+        <v>118</v>
+      </c>
       <c r="E665" s="14"/>
-      <c r="F665" s="15"/>
-      <c r="G665" s="15"/>
-      <c r="H665" s="16"/>
-      <c r="I665" s="16"/>
+      <c r="F665" s="15">
+        <v>196</v>
+      </c>
+      <c r="G665" s="15">
+        <v>6978</v>
+      </c>
+      <c r="H665" s="16">
+        <v>6.8</v>
+      </c>
+      <c r="I665" s="16">
+        <v>6.8</v>
+      </c>
+      <c r="J665" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K665" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L665" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="M665" s="45" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="666" ht="19.5" customHeight="1" spans="1:13">
       <c r="A666" s="17"/>
       <c r="B666" s="17"/>
-      <c r="C666" s="44"/>
-      <c r="D666" s="14"/>
+      <c r="C666" s="44">
+        <v>21.9</v>
+      </c>
+      <c r="D666" s="14">
+        <v>119</v>
+      </c>
       <c r="E666" s="14"/>
-      <c r="F666" s="15"/>
-      <c r="G666" s="15"/>
-      <c r="H666" s="16"/>
-      <c r="I666" s="16"/>
+      <c r="F666" s="15">
+        <v>197</v>
+      </c>
+      <c r="G666" s="15">
+        <v>7041</v>
+      </c>
+      <c r="H666" s="16">
+        <v>6.9</v>
+      </c>
+      <c r="I666" s="16">
+        <v>7.1</v>
+      </c>
+      <c r="J666" s="46">
+        <v>0</v>
+      </c>
+      <c r="K666" s="46">
+        <v>0</v>
+      </c>
+      <c r="L666" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="M666" s="46"/>
     </row>
     <row r="667" ht="19.5" customHeight="1" spans="1:13">
       <c r="A667" s="17"/>
       <c r="B667" s="17"/>
-      <c r="C667" s="44"/>
-      <c r="D667" s="14"/>
+      <c r="C667" s="44">
+        <v>21.6</v>
+      </c>
+      <c r="D667" s="14">
+        <v>119</v>
+      </c>
       <c r="E667" s="14"/>
-      <c r="F667" s="15"/>
-      <c r="G667" s="15"/>
-      <c r="H667" s="16"/>
+      <c r="F667" s="15">
+        <v>190</v>
+      </c>
+      <c r="G667" s="15">
+        <v>7018</v>
+      </c>
+      <c r="H667" s="16">
+        <v>6.8</v>
+      </c>
       <c r="I667" s="16"/>
+      <c r="J667" s="46">
+        <v>0</v>
+      </c>
+      <c r="K667" s="46">
+        <v>0</v>
+      </c>
+      <c r="L667" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="M667" s="46"/>
     </row>
     <row r="668" ht="19.5" customHeight="1" spans="1:13">
-      <c r="A668" s="9"/>
-      <c r="B668" s="9"/>
-      <c r="C668" s="44"/>
-      <c r="D668" s="14"/>
+      <c r="A668" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B668" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C668" s="44">
+        <v>27.8</v>
+      </c>
+      <c r="D668" s="14">
+        <v>131</v>
+      </c>
       <c r="E668" s="14"/>
-      <c r="F668" s="15"/>
-      <c r="G668" s="15"/>
-      <c r="H668" s="16"/>
-      <c r="I668" s="16"/>
+      <c r="F668" s="15">
+        <v>229</v>
+      </c>
+      <c r="G668" s="15">
+        <v>10064</v>
+      </c>
+      <c r="H668" s="16">
+        <v>8.4</v>
+      </c>
+      <c r="I668" s="16">
+        <v>8.7</v>
+      </c>
+      <c r="J668" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K668" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L668" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="M668" s="45" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="669" ht="19.5" customHeight="1" spans="1:13">
       <c r="A669" s="17"/>
       <c r="B669" s="17"/>
-      <c r="C669" s="44"/>
-      <c r="D669" s="14"/>
+      <c r="C669" s="44">
+        <v>27.9</v>
+      </c>
+      <c r="D669" s="14">
+        <v>131</v>
+      </c>
       <c r="E669" s="14"/>
-      <c r="F669" s="15"/>
-      <c r="G669" s="15"/>
-      <c r="H669" s="16"/>
-      <c r="I669" s="16"/>
+      <c r="F669" s="15">
+        <v>211</v>
+      </c>
+      <c r="G669" s="15">
+        <v>10143</v>
+      </c>
+      <c r="H669" s="16">
+        <v>8.1</v>
+      </c>
+      <c r="I669" s="16">
+        <v>8.6</v>
+      </c>
+      <c r="J669" s="46">
+        <v>0</v>
+      </c>
+      <c r="K669" s="46">
+        <v>0</v>
+      </c>
+      <c r="L669" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="M669" s="46"/>
     </row>
     <row r="670" ht="19.5" customHeight="1" spans="1:13">
       <c r="A670" s="17"/>
       <c r="B670" s="17"/>
-      <c r="C670" s="44"/>
-      <c r="D670" s="14"/>
+      <c r="C670" s="44">
+        <v>27.6</v>
+      </c>
+      <c r="D670" s="14">
+        <v>136</v>
+      </c>
       <c r="E670" s="14"/>
-      <c r="F670" s="15"/>
-      <c r="G670" s="15"/>
-      <c r="H670" s="16"/>
+      <c r="F670" s="15">
+        <v>232</v>
+      </c>
+      <c r="G670" s="15">
+        <v>10304</v>
+      </c>
+      <c r="H670" s="16">
+        <v>8.3</v>
+      </c>
       <c r="I670" s="16"/>
+      <c r="J670" s="46">
+        <v>0</v>
+      </c>
+      <c r="K670" s="46">
+        <v>0</v>
+      </c>
+      <c r="L670" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="M670" s="46"/>
     </row>
     <row r="671" ht="19.5" customHeight="1" spans="1:13">
-      <c r="A671" s="9"/>
-      <c r="B671" s="9"/>
-      <c r="C671" s="44"/>
-      <c r="D671" s="14"/>
+      <c r="A671" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B671" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C671" s="44">
+        <v>22</v>
+      </c>
+      <c r="D671" s="14">
+        <v>148</v>
+      </c>
       <c r="E671" s="14"/>
-      <c r="F671" s="15"/>
-      <c r="G671" s="15"/>
-      <c r="H671" s="16"/>
-      <c r="I671" s="16"/>
+      <c r="F671" s="15">
+        <v>250</v>
+      </c>
+      <c r="G671" s="15">
+        <v>9494</v>
+      </c>
+      <c r="H671" s="16">
+        <v>8.9</v>
+      </c>
+      <c r="I671" s="16">
+        <v>9.5</v>
+      </c>
+      <c r="J671" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K671" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L671" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="M671" s="45" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="672" ht="19.5" customHeight="1" spans="1:13">
       <c r="A672" s="17"/>
       <c r="B672" s="17"/>
-      <c r="C672" s="44"/>
-      <c r="D672" s="14"/>
+      <c r="C672" s="44">
+        <v>22.4</v>
+      </c>
+      <c r="D672" s="14">
+        <v>147</v>
+      </c>
       <c r="E672" s="14"/>
-      <c r="F672" s="15"/>
-      <c r="G672" s="15"/>
-      <c r="H672" s="16"/>
-      <c r="I672" s="16"/>
-    </row>
-    <row r="673" ht="19.5" customHeight="1" spans="1:9">
+      <c r="F672" s="15">
+        <v>256</v>
+      </c>
+      <c r="G672" s="15">
+        <v>9824</v>
+      </c>
+      <c r="H672" s="16">
+        <v>9.3</v>
+      </c>
+      <c r="I672" s="16">
+        <v>8.9</v>
+      </c>
+      <c r="J672" s="46">
+        <v>0</v>
+      </c>
+      <c r="K672" s="46">
+        <v>0</v>
+      </c>
+      <c r="L672" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="M672" s="46"/>
+    </row>
+    <row r="673" ht="19.5" customHeight="1" spans="1:13">
       <c r="A673" s="17"/>
       <c r="B673" s="17"/>
-      <c r="C673" s="44"/>
-      <c r="D673" s="14"/>
+      <c r="C673" s="44">
+        <v>22.8</v>
+      </c>
+      <c r="D673" s="14">
+        <v>148</v>
+      </c>
       <c r="E673" s="14"/>
-      <c r="F673" s="15"/>
-      <c r="G673" s="15"/>
-      <c r="H673" s="16"/>
+      <c r="F673" s="15">
+        <v>254</v>
+      </c>
+      <c r="G673" s="15">
+        <v>9735</v>
+      </c>
+      <c r="H673" s="16">
+        <v>9.2</v>
+      </c>
       <c r="I673" s="16"/>
-    </row>
-    <row r="674" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A674" s="9"/>
-      <c r="B674" s="9"/>
-      <c r="C674" s="44"/>
-      <c r="D674" s="14"/>
-      <c r="E674" s="14"/>
-      <c r="F674" s="15"/>
-      <c r="G674" s="15"/>
-      <c r="H674" s="16"/>
-      <c r="I674" s="16"/>
-    </row>
-    <row r="675" ht="19.5" customHeight="1" spans="1:9">
+      <c r="J673" s="46">
+        <v>0</v>
+      </c>
+      <c r="K673" s="46">
+        <v>0</v>
+      </c>
+      <c r="L673" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="M673" s="46"/>
+    </row>
+    <row r="674" ht="19.5" customHeight="1" spans="1:13">
+      <c r="A674" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B674" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C674" s="44">
+        <v>24.5</v>
+      </c>
+      <c r="D674" s="14">
+        <v>145</v>
+      </c>
+      <c r="E674" s="14">
+        <v>1.81</v>
+      </c>
+      <c r="F674" s="15">
+        <v>237</v>
+      </c>
+      <c r="G674" s="15">
+        <v>9617</v>
+      </c>
+      <c r="H674" s="16">
+        <v>9.2</v>
+      </c>
+      <c r="I674" s="16">
+        <v>8.6</v>
+      </c>
+      <c r="J674" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K674" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L674" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="M674" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="675" ht="19.5" customHeight="1" spans="1:13">
       <c r="A675" s="17"/>
       <c r="B675" s="17"/>
-      <c r="C675" s="44"/>
-      <c r="D675" s="14"/>
-      <c r="E675" s="14"/>
-      <c r="F675" s="15"/>
-      <c r="G675" s="15"/>
-      <c r="H675" s="16"/>
-      <c r="I675" s="16"/>
-    </row>
-    <row r="676" ht="19.5" customHeight="1" spans="1:9">
+      <c r="C675" s="44">
+        <v>25.1</v>
+      </c>
+      <c r="D675" s="14">
+        <v>147</v>
+      </c>
+      <c r="E675" s="14">
+        <v>2.05</v>
+      </c>
+      <c r="F675" s="15">
+        <v>244</v>
+      </c>
+      <c r="G675" s="15">
+        <v>9931</v>
+      </c>
+      <c r="H675" s="16">
+        <v>8.6</v>
+      </c>
+      <c r="I675" s="16">
+        <v>8.7</v>
+      </c>
+      <c r="J675" s="46">
+        <v>0</v>
+      </c>
+      <c r="K675" s="46">
+        <v>0</v>
+      </c>
+      <c r="L675" s="46">
+        <v>2</v>
+      </c>
+      <c r="M675" s="46" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="676" ht="19.5" customHeight="1" spans="1:13">
       <c r="A676" s="17"/>
       <c r="B676" s="17"/>
-      <c r="C676" s="44"/>
-      <c r="D676" s="14"/>
-      <c r="E676" s="14"/>
-      <c r="F676" s="15"/>
-      <c r="G676" s="15"/>
-      <c r="H676" s="16"/>
+      <c r="C676" s="44">
+        <v>25.4</v>
+      </c>
+      <c r="D676" s="14">
+        <v>147</v>
+      </c>
+      <c r="E676" s="14">
+        <v>2.08</v>
+      </c>
+      <c r="F676" s="15">
+        <v>238</v>
+      </c>
+      <c r="G676" s="15">
+        <v>9711</v>
+      </c>
+      <c r="H676" s="16">
+        <v>8.2</v>
+      </c>
       <c r="I676" s="16"/>
-    </row>
-    <row r="677" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A677" s="9"/>
-      <c r="B677" s="9"/>
-      <c r="C677" s="44"/>
-      <c r="D677" s="14"/>
-      <c r="E677" s="14"/>
-      <c r="F677" s="15"/>
-      <c r="G677" s="15"/>
-      <c r="H677" s="16"/>
-      <c r="I677" s="16"/>
-    </row>
-    <row r="678" ht="19.5" customHeight="1" spans="1:9">
+      <c r="J676" s="46">
+        <v>0</v>
+      </c>
+      <c r="K676" s="46">
+        <v>0</v>
+      </c>
+      <c r="L676" s="46">
+        <v>4</v>
+      </c>
+      <c r="M676" s="46" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="677" ht="19.5" customHeight="1" spans="1:13">
+      <c r="A677" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B677" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C677" s="44">
+        <v>25.6</v>
+      </c>
+      <c r="D677" s="14">
+        <v>139</v>
+      </c>
+      <c r="E677" s="14">
+        <v>1.99</v>
+      </c>
+      <c r="F677" s="15">
+        <v>225</v>
+      </c>
+      <c r="G677" s="15">
+        <v>10110</v>
+      </c>
+      <c r="H677" s="16">
+        <v>8.6</v>
+      </c>
+      <c r="I677" s="16">
+        <v>8.7</v>
+      </c>
+      <c r="J677" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K677" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L677" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="M677" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="678" ht="19.5" customHeight="1" spans="1:13">
       <c r="A678" s="17"/>
       <c r="B678" s="17"/>
-      <c r="C678" s="44"/>
-      <c r="D678" s="14"/>
-      <c r="E678" s="14"/>
-      <c r="F678" s="15"/>
-      <c r="G678" s="15"/>
-      <c r="H678" s="16"/>
-      <c r="I678" s="16"/>
-    </row>
-    <row r="679" ht="19.5" customHeight="1" spans="1:9">
+      <c r="C678" s="44">
+        <v>26.1</v>
+      </c>
+      <c r="D678" s="14">
+        <v>140</v>
+      </c>
+      <c r="E678" s="14">
+        <v>2.03</v>
+      </c>
+      <c r="F678" s="15">
+        <v>224</v>
+      </c>
+      <c r="G678" s="15">
+        <v>9970</v>
+      </c>
+      <c r="H678" s="16">
+        <v>8.8</v>
+      </c>
+      <c r="I678" s="16">
+        <v>8.7</v>
+      </c>
+      <c r="J678" s="46">
+        <v>0</v>
+      </c>
+      <c r="K678" s="46">
+        <v>0</v>
+      </c>
+      <c r="L678" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="M678" s="46"/>
+    </row>
+    <row r="679" ht="19.5" customHeight="1" spans="1:13">
       <c r="A679" s="17"/>
       <c r="B679" s="17"/>
-      <c r="C679" s="44"/>
-      <c r="D679" s="14"/>
-      <c r="E679" s="14"/>
-      <c r="F679" s="15"/>
-      <c r="G679" s="15"/>
-      <c r="H679" s="16"/>
+      <c r="C679" s="44">
+        <v>25.3</v>
+      </c>
+      <c r="D679" s="14">
+        <v>139</v>
+      </c>
+      <c r="E679" s="14">
+        <v>1.97</v>
+      </c>
+      <c r="F679" s="15">
+        <v>230</v>
+      </c>
+      <c r="G679" s="15">
+        <v>10219</v>
+      </c>
+      <c r="H679" s="16">
+        <v>8.6</v>
+      </c>
       <c r="I679" s="16"/>
-    </row>
-    <row r="680" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A680" s="9"/>
-      <c r="B680" s="9"/>
-      <c r="C680" s="44"/>
-      <c r="D680" s="14"/>
-      <c r="E680" s="14"/>
-      <c r="F680" s="15"/>
-      <c r="G680" s="15"/>
-      <c r="H680" s="16"/>
-      <c r="I680" s="16"/>
-    </row>
-    <row r="681" ht="19.5" customHeight="1" spans="1:9">
+      <c r="J679" s="46">
+        <v>0</v>
+      </c>
+      <c r="K679" s="46">
+        <v>0</v>
+      </c>
+      <c r="L679" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="M679" s="46"/>
+    </row>
+    <row r="680" ht="19.5" customHeight="1" spans="1:13">
+      <c r="A680" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B680" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C680" s="44">
+        <v>30.9</v>
+      </c>
+      <c r="D680" s="14">
+        <v>126</v>
+      </c>
+      <c r="E680" s="14">
+        <v>2.05</v>
+      </c>
+      <c r="F680" s="15">
+        <v>212</v>
+      </c>
+      <c r="G680" s="15">
+        <v>8735</v>
+      </c>
+      <c r="H680" s="16">
+        <v>7.9</v>
+      </c>
+      <c r="I680" s="16">
+        <v>7.8</v>
+      </c>
+      <c r="J680" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K680" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L680" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="M680" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="681" ht="19.5" customHeight="1" spans="1:13">
       <c r="A681" s="17"/>
       <c r="B681" s="17"/>
-      <c r="C681" s="44"/>
-      <c r="D681" s="14"/>
-      <c r="E681" s="14"/>
-      <c r="F681" s="15"/>
-      <c r="G681" s="15"/>
-      <c r="H681" s="16"/>
-      <c r="I681" s="16"/>
-    </row>
-    <row r="682" ht="19.5" customHeight="1" spans="1:9">
+      <c r="C681" s="44">
+        <v>29.3</v>
+      </c>
+      <c r="D681" s="14">
+        <v>127</v>
+      </c>
+      <c r="E681" s="14">
+        <v>1.99</v>
+      </c>
+      <c r="F681" s="15">
+        <v>209</v>
+      </c>
+      <c r="G681" s="15">
+        <v>8725</v>
+      </c>
+      <c r="H681" s="16">
+        <v>8</v>
+      </c>
+      <c r="I681" s="16">
+        <v>8</v>
+      </c>
+      <c r="J681" s="46">
+        <v>0</v>
+      </c>
+      <c r="K681" s="46">
+        <v>3</v>
+      </c>
+      <c r="L681" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="M681" s="46"/>
+    </row>
+    <row r="682" ht="19.5" customHeight="1" spans="1:13">
       <c r="A682" s="17"/>
       <c r="B682" s="17"/>
-      <c r="C682" s="44"/>
-      <c r="D682" s="14"/>
-      <c r="E682" s="14"/>
-      <c r="F682" s="15"/>
-      <c r="G682" s="15"/>
-      <c r="H682" s="16"/>
+      <c r="C682" s="44">
+        <v>29.6</v>
+      </c>
+      <c r="D682" s="14">
+        <v>125</v>
+      </c>
+      <c r="E682" s="14">
+        <v>1.98</v>
+      </c>
+      <c r="F682" s="15">
+        <v>201</v>
+      </c>
+      <c r="G682" s="15">
+        <v>8807</v>
+      </c>
+      <c r="H682" s="16">
+        <v>8.1</v>
+      </c>
       <c r="I682" s="16"/>
-    </row>
-    <row r="683" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A683" s="9"/>
-      <c r="B683" s="9"/>
-      <c r="C683" s="44"/>
-      <c r="D683" s="14"/>
-      <c r="E683" s="14"/>
-      <c r="F683" s="15"/>
-      <c r="G683" s="15"/>
-      <c r="H683" s="16"/>
-      <c r="I683" s="16"/>
-    </row>
-    <row r="684" ht="19.5" customHeight="1" spans="1:9">
+      <c r="J682" s="46">
+        <v>0</v>
+      </c>
+      <c r="K682" s="46">
+        <v>4</v>
+      </c>
+      <c r="L682" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="M682" s="46"/>
+    </row>
+    <row r="683" ht="19.5" customHeight="1" spans="1:13">
+      <c r="A683" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B683" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C683" s="44">
+        <v>30</v>
+      </c>
+      <c r="D683" s="14">
+        <v>118</v>
+      </c>
+      <c r="E683" s="14">
+        <v>2.02</v>
+      </c>
+      <c r="F683" s="15">
+        <v>193</v>
+      </c>
+      <c r="G683" s="15">
+        <v>7304</v>
+      </c>
+      <c r="H683" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="I683" s="16">
+        <v>6.2</v>
+      </c>
+      <c r="J683" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K683" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L683" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="M683" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="684" ht="19.5" customHeight="1" spans="1:13">
       <c r="A684" s="17"/>
       <c r="B684" s="17"/>
-      <c r="C684" s="44"/>
-      <c r="D684" s="14"/>
-      <c r="E684" s="14"/>
-      <c r="F684" s="15"/>
-      <c r="G684" s="15"/>
-      <c r="H684" s="16"/>
-      <c r="I684" s="16"/>
-    </row>
-    <row r="685" ht="19.5" customHeight="1" spans="1:9">
+      <c r="C684" s="44">
+        <v>29.7</v>
+      </c>
+      <c r="D684" s="14">
+        <v>117</v>
+      </c>
+      <c r="E684" s="14">
+        <v>2.01</v>
+      </c>
+      <c r="F684" s="15">
+        <v>193</v>
+      </c>
+      <c r="G684" s="15">
+        <v>7358</v>
+      </c>
+      <c r="H684" s="16">
+        <v>6.3</v>
+      </c>
+      <c r="I684" s="16">
+        <v>6.4</v>
+      </c>
+      <c r="J684" s="46">
+        <v>0</v>
+      </c>
+      <c r="K684" s="46">
+        <v>1</v>
+      </c>
+      <c r="L684" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="M684" s="46"/>
+    </row>
+    <row r="685" ht="19.5" customHeight="1" spans="1:13">
       <c r="A685" s="17"/>
       <c r="B685" s="17"/>
-      <c r="C685" s="44"/>
-      <c r="D685" s="14"/>
-      <c r="E685" s="14"/>
-      <c r="F685" s="15"/>
-      <c r="G685" s="15"/>
-      <c r="H685" s="16"/>
+      <c r="C685" s="44">
+        <v>29.8</v>
+      </c>
+      <c r="D685" s="14">
+        <v>118</v>
+      </c>
+      <c r="E685" s="14">
+        <v>2.03</v>
+      </c>
+      <c r="F685" s="15">
+        <v>189</v>
+      </c>
+      <c r="G685" s="15">
+        <v>7305</v>
+      </c>
+      <c r="H685" s="16">
+        <v>6.3</v>
+      </c>
       <c r="I685" s="16"/>
-    </row>
-    <row r="686" ht="19.5" customHeight="1" spans="1:9">
+      <c r="J685" s="46">
+        <v>0</v>
+      </c>
+      <c r="K685" s="46">
+        <v>1</v>
+      </c>
+      <c r="L685" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="M685" s="46"/>
+    </row>
+    <row r="686" ht="19.5" customHeight="1" spans="1:13">
       <c r="A686" s="9"/>
       <c r="B686" s="9"/>
       <c r="C686" s="44"/>
@@ -27173,7 +27722,7 @@
       <c r="H686" s="16"/>
       <c r="I686" s="16"/>
     </row>
-    <row r="687" ht="19.5" customHeight="1" spans="1:9">
+    <row r="687" ht="19.5" customHeight="1" spans="1:13">
       <c r="A687" s="17"/>
       <c r="B687" s="17"/>
       <c r="C687" s="44"/>
@@ -27184,7 +27733,7 @@
       <c r="H687" s="16"/>
       <c r="I687" s="16"/>
     </row>
-    <row r="688" ht="19.5" customHeight="1" spans="1:9">
+    <row r="688" ht="19.5" customHeight="1" spans="1:13">
       <c r="A688" s="17"/>
       <c r="B688" s="17"/>
       <c r="C688" s="44"/>
@@ -27394,7 +27943,7 @@
       <c r="I706" s="16"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:U658" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:U685" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="470">
@@ -27880,10 +28429,10 @@
   <sheetPr codeName="不阻燃"/>
   <dimension ref="A1:U294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G154" sqref="G154"/>
+      <selection pane="bottomLeft" activeCell="B158" sqref="B158:B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -27935,10 +28484,10 @@
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:21">
       <c r="A2" s="67" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C2" s="68">
         <v>19.3</v>
@@ -28048,10 +28597,10 @@
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:21">
       <c r="A5" s="9" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C5" s="44">
         <v>2.4</v>
@@ -28155,10 +28704,10 @@
     </row>
     <row r="8" ht="19.5" customHeight="1" spans="1:21">
       <c r="A8" s="67" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C8" s="68">
         <v>18.1</v>
@@ -28268,10 +28817,10 @@
     </row>
     <row r="11" ht="19.5" customHeight="1" spans="1:21">
       <c r="A11" s="67" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C11" s="73"/>
       <c r="D11" s="69">
@@ -28377,10 +28926,10 @@
     </row>
     <row r="14" ht="19.5" customHeight="1" spans="1:21">
       <c r="A14" s="67" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C14" s="68">
         <v>18.7</v>
@@ -28490,10 +29039,10 @@
     </row>
     <row r="17" ht="19.5" customHeight="1" spans="1:21">
       <c r="A17" s="67" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C17" s="68">
         <v>27.5</v>
@@ -28603,10 +29152,10 @@
     </row>
     <row r="20" ht="19.5" customHeight="1" spans="1:21">
       <c r="A20" s="67" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C20" s="68">
         <v>18</v>
@@ -28716,10 +29265,10 @@
     </row>
     <row r="23" ht="19.5" customHeight="1" spans="1:21">
       <c r="A23" s="67" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C23" s="68">
         <v>27.4</v>
@@ -28829,10 +29378,10 @@
     </row>
     <row r="26" ht="19.5" customHeight="1" spans="1:21">
       <c r="A26" s="67" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C26" s="68">
         <v>24.3</v>
@@ -28942,10 +29491,10 @@
     </row>
     <row r="29" ht="19.5" customHeight="1" spans="1:21">
       <c r="A29" s="67" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B29" s="67" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C29" s="68">
         <v>23.8</v>
@@ -29055,10 +29604,10 @@
     </row>
     <row r="32" ht="19.5" customHeight="1" spans="1:21">
       <c r="A32" s="67" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B32" s="67" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C32" s="68"/>
       <c r="D32" s="69">
@@ -29158,10 +29707,10 @@
     </row>
     <row r="35" ht="19.5" customHeight="1" spans="1:21">
       <c r="A35" s="67" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B35" s="67" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C35" s="68"/>
       <c r="D35" s="69">
@@ -29259,10 +29808,10 @@
     </row>
     <row r="38" ht="19.5" customHeight="1" spans="1:21">
       <c r="A38" s="67" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B38" s="67" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C38" s="74">
         <v>24.5</v>
@@ -29374,10 +29923,10 @@
     </row>
     <row r="41" ht="19.5" customHeight="1" spans="1:21">
       <c r="A41" s="67" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B41" s="67" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C41" s="68">
         <v>23.9</v>
@@ -29489,10 +30038,10 @@
     </row>
     <row r="44" ht="19.5" customHeight="1" spans="1:21">
       <c r="A44" s="67" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B44" s="67" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C44" s="74">
         <v>16.3</v>
@@ -29604,10 +30153,10 @@
     </row>
     <row r="47" ht="19.5" customHeight="1" spans="1:21">
       <c r="A47" s="67" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="B47" s="67" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C47" s="74">
         <v>27.4</v>
@@ -29717,10 +30266,10 @@
     </row>
     <row r="50" ht="19.5" customHeight="1" spans="1:21">
       <c r="A50" s="67" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B50" s="67" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C50" s="74">
         <v>21.2</v>
@@ -29830,10 +30379,10 @@
     </row>
     <row r="53" ht="19.5" customHeight="1" spans="1:21">
       <c r="A53" s="67" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B53" s="67" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C53" s="74">
         <v>21.1</v>
@@ -29943,10 +30492,10 @@
     </row>
     <row r="56" ht="19.5" customHeight="1" spans="1:21">
       <c r="A56" s="67" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B56" s="67" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C56" s="74">
         <v>18.1</v>
@@ -30056,10 +30605,10 @@
     </row>
     <row r="59" ht="19.5" customHeight="1" spans="1:21">
       <c r="A59" s="67" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B59" s="67" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C59" s="74">
         <v>20.9</v>
@@ -30169,10 +30718,10 @@
     </row>
     <row r="62" ht="19.5" customHeight="1" spans="1:21">
       <c r="A62" s="67" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B62" s="67" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C62" s="74">
         <v>23.1</v>
@@ -30282,10 +30831,10 @@
     </row>
     <row r="65" ht="19.5" customHeight="1" spans="1:21">
       <c r="A65" s="67" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B65" s="67" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C65" s="74">
         <v>23.6</v>
@@ -30397,10 +30946,10 @@
     </row>
     <row r="68" ht="19.5" customHeight="1" spans="1:21">
       <c r="A68" s="67" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B68" s="67" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C68" s="74">
         <v>20.9</v>
@@ -30510,10 +31059,10 @@
     </row>
     <row r="71" ht="19.5" customHeight="1" spans="1:21">
       <c r="A71" s="67" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B71" s="67" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C71" s="74">
         <v>20.1</v>
@@ -30623,10 +31172,10 @@
     </row>
     <row r="74" ht="19.5" customHeight="1" spans="1:21">
       <c r="A74" s="67" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B74" s="67" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C74" s="74">
         <v>16.4</v>
@@ -30736,10 +31285,10 @@
     </row>
     <row r="77" ht="19.5" customHeight="1" spans="1:21">
       <c r="A77" s="9" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C77" s="44">
         <v>19.6</v>
@@ -30849,10 +31398,10 @@
     </row>
     <row r="80" ht="19.5" customHeight="1" spans="1:21">
       <c r="A80" s="67" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B80" s="67" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C80" s="74">
         <v>18.3</v>
@@ -30962,10 +31511,10 @@
     </row>
     <row r="83" ht="19.5" customHeight="1" spans="1:21">
       <c r="A83" s="9" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C83" s="44">
         <v>18.2</v>
@@ -31075,10 +31624,10 @@
     </row>
     <row r="86" ht="19.5" customHeight="1" spans="1:21">
       <c r="A86" s="67" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B86" s="67" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C86" s="74">
         <v>18.1</v>
@@ -31188,10 +31737,10 @@
     </row>
     <row r="89" ht="19.5" customHeight="1" spans="1:21">
       <c r="A89" s="9" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C89" s="44">
         <v>21.3</v>
@@ -31301,10 +31850,10 @@
     </row>
     <row r="92" ht="19.5" customHeight="1" spans="1:21">
       <c r="A92" s="9" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C92" s="44">
         <v>30.2</v>
@@ -31414,10 +31963,10 @@
     </row>
     <row r="95" ht="19.5" customHeight="1" spans="1:21">
       <c r="A95" s="9" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C95" s="44">
         <v>12.9</v>
@@ -31529,10 +32078,10 @@
     </row>
     <row r="98" customHeight="1" spans="1:21">
       <c r="A98" s="9" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C98" s="44">
         <v>19.6</v>
@@ -31606,10 +32155,10 @@
     </row>
     <row r="101" customHeight="1" spans="1:21">
       <c r="A101" s="9" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C101" s="44">
         <v>29.4</v>
@@ -31675,10 +32224,10 @@
     </row>
     <row r="104" customHeight="1" spans="1:21">
       <c r="A104" s="9" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C104" s="44">
         <v>21.6</v>
@@ -31752,10 +32301,10 @@
     </row>
     <row r="107" customHeight="1" spans="1:21">
       <c r="A107" s="9" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C107" s="44">
         <v>14.9</v>
@@ -31829,10 +32378,10 @@
     </row>
     <row r="110" customHeight="1" spans="1:21">
       <c r="A110" s="9" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C110" s="44">
         <v>16.9</v>
@@ -31906,10 +32455,10 @@
     </row>
     <row r="113" customHeight="1" spans="1:9">
       <c r="A113" s="9" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C113" s="44">
         <v>19.7</v>
@@ -31983,10 +32532,10 @@
     </row>
     <row r="116" customHeight="1" spans="1:9">
       <c r="A116" s="9" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C116" s="44">
         <v>23.4</v>
@@ -32060,10 +32609,10 @@
     </row>
     <row r="119" customHeight="1" spans="1:9">
       <c r="A119" s="9" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C119" s="44">
         <v>23.9</v>
@@ -32137,10 +32686,10 @@
     </row>
     <row r="122" customHeight="1" spans="1:9">
       <c r="A122" s="9" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C122" s="44">
         <v>22.7</v>
@@ -32214,10 +32763,10 @@
     </row>
     <row r="125" customHeight="1" spans="1:9">
       <c r="A125" s="9" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C125" s="44">
         <v>21.6</v>
@@ -32291,10 +32840,10 @@
     </row>
     <row r="128" customHeight="1" spans="1:9">
       <c r="A128" s="9" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C128" s="44">
         <v>20.4</v>
@@ -32362,10 +32911,10 @@
     </row>
     <row r="131" customHeight="1" spans="1:9">
       <c r="A131" s="9" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C131" s="44">
         <v>15.1</v>
@@ -32433,10 +32982,10 @@
     </row>
     <row r="134" customHeight="1" spans="1:9">
       <c r="A134" s="9" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C134" s="44">
         <v>21.2</v>
@@ -32504,10 +33053,10 @@
     </row>
     <row r="137" customHeight="1" spans="1:9">
       <c r="A137" s="9" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C137" s="44">
         <v>16.2</v>
@@ -32575,10 +33124,10 @@
     </row>
     <row r="140" customHeight="1" spans="1:9">
       <c r="A140" s="9" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C140" s="44">
         <v>22.6</v>
@@ -32646,10 +33195,10 @@
     </row>
     <row r="143" customHeight="1" spans="1:9">
       <c r="A143" s="9" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C143" s="44">
         <v>17.6</v>
@@ -32716,36 +33265,80 @@
       <c r="I145" s="16"/>
     </row>
     <row r="146" customHeight="1" spans="1:9">
-      <c r="A146" s="9"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="44"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="16"/>
-      <c r="I146" s="16"/>
+      <c r="A146" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C146" s="44">
+        <v>21.2</v>
+      </c>
+      <c r="D146" s="14">
+        <v>138</v>
+      </c>
+      <c r="E146" s="14">
+        <v>2.55</v>
+      </c>
+      <c r="F146" s="15">
+        <v>229</v>
+      </c>
+      <c r="G146" s="15">
+        <v>9086</v>
+      </c>
+      <c r="H146" s="16">
+        <v>9</v>
+      </c>
+      <c r="I146" s="16">
+        <v>8.8</v>
+      </c>
     </row>
     <row r="147" customHeight="1" spans="1:9">
       <c r="A147" s="17"/>
       <c r="B147" s="17"/>
-      <c r="C147" s="44"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="16"/>
-      <c r="I147" s="16"/>
+      <c r="C147" s="44">
+        <v>21.4</v>
+      </c>
+      <c r="D147" s="14">
+        <v>136</v>
+      </c>
+      <c r="E147" s="14">
+        <v>2.45</v>
+      </c>
+      <c r="F147" s="15">
+        <v>231</v>
+      </c>
+      <c r="G147" s="15">
+        <v>9183</v>
+      </c>
+      <c r="H147" s="16">
+        <v>8.8</v>
+      </c>
+      <c r="I147" s="16">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="148" customHeight="1" spans="1:9">
       <c r="A148" s="17"/>
       <c r="B148" s="17"/>
-      <c r="C148" s="44"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="16"/>
+      <c r="C148" s="44">
+        <v>21.1</v>
+      </c>
+      <c r="D148" s="14">
+        <v>134</v>
+      </c>
+      <c r="E148" s="14">
+        <v>2.33</v>
+      </c>
+      <c r="F148" s="15">
+        <v>231</v>
+      </c>
+      <c r="G148" s="15">
+        <v>9117</v>
+      </c>
+      <c r="H148" s="16">
+        <v>9.4</v>
+      </c>
       <c r="I148" s="16"/>
     </row>
     <row r="149" customHeight="1" spans="1:9">
@@ -34353,7 +34946,7 @@
       <c r="I294" s="16"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:U142" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:U145" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="196">
@@ -34607,21 +35200,21 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:21">
       <c r="A2" s="9" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C2" s="14">
         <v>89</v>
@@ -34642,13 +35235,13 @@
         <v>5.5</v>
       </c>
       <c r="I2" s="50" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="J2" s="50" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="K2" s="51" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="U2" s="8"/>
     </row>
@@ -37120,7 +37713,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
+      <selection pane="bottomLeft" activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -37180,10 +37773,10 @@
         <v>11</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="P1" s="35" t="s">
         <v>269</v>
@@ -37191,10 +37784,10 @@
     </row>
     <row r="2" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A2" s="9" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C2" s="12">
         <v>20.5</v>
@@ -37272,7 +37865,7 @@
     </row>
     <row r="5" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A5" s="9" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>36</v>
@@ -37349,7 +37942,7 @@
     </row>
     <row r="8" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A8" s="9" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="12">
@@ -37460,7 +38053,7 @@
     </row>
     <row r="11" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A11" s="9" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="12">
@@ -37571,10 +38164,10 @@
     </row>
     <row r="14" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A14" s="9" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C14" s="12">
         <v>12</v>
@@ -37640,10 +38233,10 @@
     </row>
     <row r="17" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A17" s="9" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C17" s="12">
         <v>24</v>
@@ -37709,10 +38302,10 @@
     </row>
     <row r="20" ht="19.5" customHeight="1" spans="1:16">
       <c r="A20" s="9" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C20" s="12">
         <v>14.9</v>
@@ -37800,7 +38393,7 @@
         <v>272</v>
       </c>
       <c r="P21" s="35" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" ht="19.5" customHeight="1" spans="1:16">
@@ -37841,16 +38434,16 @@
         <v>274</v>
       </c>
       <c r="O22" s="42" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="P22" s="43"/>
     </row>
     <row r="23" ht="19.5" customHeight="1" spans="1:16">
       <c r="A23" s="9" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C23" s="12">
         <v>11.7</v>
@@ -37938,7 +38531,7 @@
         <v>272</v>
       </c>
       <c r="P24" s="35" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" ht="19.5" customHeight="1" spans="1:16">
@@ -37976,19 +38569,19 @@
         <v>3</v>
       </c>
       <c r="N25" s="41" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="O25" s="42" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="P25" s="43"/>
     </row>
     <row r="26" ht="19.5" customHeight="1" spans="1:16">
       <c r="A26" s="9" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C26" s="12">
         <v>18.7</v>
@@ -38076,7 +38669,7 @@
         <v>272</v>
       </c>
       <c r="P27" s="35" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" ht="19.5" customHeight="1" spans="1:16">
@@ -38114,19 +38707,19 @@
         <v>2</v>
       </c>
       <c r="N28" s="41" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="O28" s="42" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="P28" s="43"/>
     </row>
     <row r="29" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A29" s="9" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C29" s="12">
         <v>4.3</v>
@@ -38200,10 +38793,10 @@
     </row>
     <row r="32" ht="19.5" customHeight="1" spans="1:16">
       <c r="A32" s="9" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C32" s="12">
         <v>5.5</v>
@@ -38291,7 +38884,7 @@
         <v>272</v>
       </c>
       <c r="P33" s="35" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" ht="19.5" customHeight="1" spans="1:16">
@@ -38329,21 +38922,21 @@
         <v>3</v>
       </c>
       <c r="N34" s="41" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="O34" s="42" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="P34" s="43" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A35" s="9" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C35" s="12">
         <v>26.9</v>
@@ -38449,10 +39042,10 @@
     </row>
     <row r="38" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A38" s="9" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C38" s="12">
         <v>27.5</v>
@@ -38562,10 +39155,10 @@
     </row>
     <row r="41" ht="19.5" customHeight="1" spans="1:16">
       <c r="A41" s="9" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C41" s="12">
         <v>2.6</v>
@@ -38648,10 +39241,10 @@
         <v>270</v>
       </c>
       <c r="O42" s="42" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="P42" s="35" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43" ht="19.5" customHeight="1" spans="1:16">
@@ -38688,10 +39281,10 @@
         <v>274</v>
       </c>
       <c r="O43" s="42" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="P43" s="35" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44" ht="19.5" hidden="1" customHeight="1" spans="1:16">
@@ -38699,7 +39292,7 @@
         <v>62</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C44" s="12">
         <v>0.32</v>
@@ -38809,7 +39402,7 @@
     </row>
     <row r="47" ht="19.5" hidden="1" customHeight="1" spans="1:16">
       <c r="A47" s="22" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="12"/>
@@ -38878,10 +39471,10 @@
     </row>
     <row r="50" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A50" s="9" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C50" s="12">
         <v>18.3</v>
@@ -38991,10 +39584,10 @@
     </row>
     <row r="53" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A53" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C53" s="12">
         <v>25.8</v>
@@ -39104,10 +39697,10 @@
     </row>
     <row r="56" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A56" s="9" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C56" s="12">
         <v>19.3</v>
@@ -39213,10 +39806,10 @@
     </row>
     <row r="59" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A59" s="9" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C59" s="12">
         <v>24.6</v>
@@ -39322,10 +39915,10 @@
     </row>
     <row r="62" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A62" s="9" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C62" s="12">
         <v>25</v>
@@ -39434,7 +40027,7 @@
         <v>119</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C65" s="12">
         <v>21.1</v>
@@ -39540,7 +40133,7 @@
     </row>
     <row r="68" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A68" s="22" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="12"/>
@@ -39621,7 +40214,7 @@
     </row>
     <row r="71" ht="19.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A71" s="22" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="12"/>
@@ -39702,10 +40295,10 @@
     </row>
     <row r="74" ht="19.5" customHeight="1" spans="1:13">
       <c r="A74" s="9" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C74" s="12">
         <v>12.7</v>
@@ -39787,7 +40380,7 @@
     </row>
     <row r="77" ht="19.5" customHeight="1" spans="1:13">
       <c r="A77" s="22" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="12"/>
@@ -39864,10 +40457,10 @@
     </row>
     <row r="80" ht="19.5" customHeight="1" spans="1:13">
       <c r="A80" s="9" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C80" s="44">
         <v>14.8</v>
@@ -39966,7 +40559,7 @@
       <c r="M82" s="46"/>
     </row>
     <row r="83" ht="19.5" customHeight="1" spans="1:13">
-      <c r="A83" s="9"/>
+      <c r="A83" s="22"/>
       <c r="B83" s="10"/>
       <c r="C83" s="12"/>
       <c r="D83" s="13"/>
@@ -41468,12 +42061,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="外厂"/>
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:X79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J78" sqref="J78"/>
+      <selection pane="bottomLeft" activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -41490,7 +42083,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -41535,7 +42128,7 @@
     </row>
     <row r="2" ht="16.5" spans="1:17">
       <c r="A2" s="9" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B2" s="10">
         <v>656250601</v>
@@ -41634,7 +42227,7 @@
     </row>
     <row r="5" ht="16.5" spans="1:17">
       <c r="A5" s="9" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B5" s="21">
         <v>45856</v>
@@ -41733,7 +42326,7 @@
     </row>
     <row r="8" ht="16.5" spans="1:17">
       <c r="A8" s="9" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B8" s="21">
         <v>45856</v>
@@ -41832,10 +42425,10 @@
     </row>
     <row r="11" ht="16.5" spans="1:17">
       <c r="A11" s="22" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
@@ -41911,10 +42504,10 @@
     </row>
     <row r="14" ht="16.5" spans="1:17">
       <c r="A14" s="22" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="12">
@@ -42028,10 +42621,10 @@
     </row>
     <row r="17" ht="16.5" spans="1:17">
       <c r="A17" s="22" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
@@ -42105,10 +42698,10 @@
     </row>
     <row r="20" ht="16.5" spans="1:17">
       <c r="A20" s="22" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="12">
@@ -42230,10 +42823,10 @@
     </row>
     <row r="23" ht="16.5" spans="1:17">
       <c r="A23" s="22" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
@@ -42287,10 +42880,10 @@
     </row>
     <row r="26" ht="16.5" spans="1:17">
       <c r="A26" s="22" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="12">
@@ -42412,10 +43005,10 @@
     </row>
     <row r="29" ht="16.5" spans="1:17">
       <c r="A29" s="22" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
@@ -42469,10 +43062,10 @@
     </row>
     <row r="32" ht="16.5" spans="1:17">
       <c r="A32" s="22" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="12">
@@ -42594,10 +43187,10 @@
     </row>
     <row r="35" ht="16.5" spans="1:17">
       <c r="A35" s="22" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="12"/>
@@ -42701,10 +43294,10 @@
     </row>
     <row r="38" ht="16.5" spans="1:17">
       <c r="A38" s="9" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C38" s="11">
         <v>0.3</v>
@@ -42840,7 +43433,7 @@
     </row>
     <row r="41" ht="16.5" spans="1:17">
       <c r="A41" s="9" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B41" s="21">
         <v>45905</v>
@@ -42975,7 +43568,7 @@
     </row>
     <row r="44" ht="16.5" spans="1:17">
       <c r="A44" s="9" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B44" s="10">
         <v>2252950706</v>
@@ -43060,10 +43653,10 @@
     </row>
     <row r="47" ht="16.5" spans="1:17">
       <c r="A47" s="9" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="12">
@@ -43143,7 +43736,7 @@
     </row>
     <row r="50" ht="16.5" spans="1:17">
       <c r="A50" s="9" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B50" s="21">
         <v>45958</v>
@@ -43258,7 +43851,7 @@
     </row>
     <row r="53" ht="16.5" spans="1:17">
       <c r="A53" s="22" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B53" s="21">
         <v>45958</v>
@@ -43373,7 +43966,7 @@
     </row>
     <row r="56" ht="16.5" spans="1:17">
       <c r="A56" s="22" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B56" s="21">
         <v>45955</v>
@@ -43492,7 +44085,7 @@
     </row>
     <row r="59" customHeight="1" spans="1:17">
       <c r="A59" s="22" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B59" s="21">
         <v>45969</v>
@@ -43527,8 +44120,6 @@
       <c r="L59" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
     </row>
     <row r="60" customHeight="1" spans="1:17">
       <c r="A60" s="17"/>
@@ -43594,7 +44185,7 @@
     </row>
     <row r="62" customHeight="1" spans="1:17">
       <c r="A62" s="22" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="B62" s="21">
         <v>45969</v>
@@ -43692,9 +44283,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:12">
+    <row r="65" customHeight="1" spans="1:24">
       <c r="A65" s="22" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B65" s="21">
         <v>45987</v>
@@ -43724,7 +44315,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:12">
+    <row r="66" customHeight="1" spans="1:24">
       <c r="A66" s="17"/>
       <c r="B66" s="18"/>
       <c r="C66" s="23"/>
@@ -43750,7 +44341,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:12">
+    <row r="67" customHeight="1" spans="1:24">
       <c r="A67" s="17"/>
       <c r="B67" s="18"/>
       <c r="C67" s="23"/>
@@ -43774,16 +44365,16 @@
       </c>
       <c r="J67" s="16"/>
     </row>
-    <row r="68" customHeight="1" spans="1:12">
+    <row r="68" customHeight="1" spans="1:24">
       <c r="A68" s="22" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="B68" s="21">
         <v>45988</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="25" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="E68" s="13">
         <v>125</v>
@@ -43810,7 +44401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:12">
+    <row r="69" customHeight="1" spans="1:24">
       <c r="A69" s="17"/>
       <c r="B69" s="18"/>
       <c r="C69" s="23"/>
@@ -43840,7 +44431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:12">
+    <row r="70" customHeight="1" spans="1:24">
       <c r="A70" s="17"/>
       <c r="B70" s="18"/>
       <c r="C70" s="23"/>
@@ -43868,9 +44459,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:12">
+    <row r="71" customHeight="1" spans="1:24">
       <c r="A71" s="22" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="B71" s="21">
         <v>45988</v>
@@ -43898,7 +44489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:12">
+    <row r="72" customHeight="1" spans="1:24">
       <c r="A72" s="17"/>
       <c r="B72" s="18"/>
       <c r="C72" s="23"/>
@@ -43924,7 +44515,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:12">
+    <row r="73" customHeight="1" spans="1:24">
       <c r="A73" s="17"/>
       <c r="B73" s="18"/>
       <c r="C73" s="23"/>
@@ -43948,9 +44539,9 @@
       </c>
       <c r="J73" s="16"/>
     </row>
-    <row r="74" customHeight="1" spans="1:12">
+    <row r="74" customHeight="1" spans="1:24">
       <c r="A74" s="22" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="B74" s="21">
         <v>46007</v>
@@ -43984,7 +44575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:12">
+    <row r="75" customHeight="1" spans="1:24">
       <c r="A75" s="17"/>
       <c r="B75" s="18"/>
       <c r="C75" s="23"/>
@@ -44014,7 +44605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:12">
+    <row r="76" customHeight="1" spans="1:24">
       <c r="A76" s="17"/>
       <c r="B76" s="18"/>
       <c r="C76" s="23"/>
@@ -44042,11 +44633,159 @@
         <v>0</v>
       </c>
     </row>
+    <row r="77" ht="19.5" customHeight="1" spans="1:24">
+      <c r="A77" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="C77" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="D77" s="12">
+        <v>3.2</v>
+      </c>
+      <c r="E77" s="13">
+        <v>118</v>
+      </c>
+      <c r="F77" s="14">
+        <v>1.77</v>
+      </c>
+      <c r="G77" s="15">
+        <v>192</v>
+      </c>
+      <c r="H77" s="15">
+        <v>10602</v>
+      </c>
+      <c r="I77" s="16">
+        <v>8.2</v>
+      </c>
+      <c r="J77" s="16">
+        <v>7.9</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="8"/>
+      <c r="X77" s="8"/>
+    </row>
+    <row r="78" ht="19.5" customHeight="1" spans="1:24">
+      <c r="A78" s="17"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="E78" s="13">
+        <v>117</v>
+      </c>
+      <c r="F78" s="14">
+        <v>1.58</v>
+      </c>
+      <c r="G78" s="15">
+        <v>192</v>
+      </c>
+      <c r="H78" s="15">
+        <v>10502</v>
+      </c>
+      <c r="I78" s="16">
+        <v>7.8</v>
+      </c>
+      <c r="J78" s="16">
+        <v>8.1</v>
+      </c>
+      <c r="K78" s="24">
+        <v>0</v>
+      </c>
+      <c r="L78" s="24">
+        <v>0</v>
+      </c>
+      <c r="M78" s="24">
+        <v>6</v>
+      </c>
+      <c r="N78" s="24">
+        <v>0</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8"/>
+    </row>
+    <row r="79" ht="19.5" customHeight="1" spans="1:24">
+      <c r="A79" s="17"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="12">
+        <v>3</v>
+      </c>
+      <c r="E79" s="13">
+        <v>117</v>
+      </c>
+      <c r="F79" s="14">
+        <v>1.64</v>
+      </c>
+      <c r="G79" s="15">
+        <v>196</v>
+      </c>
+      <c r="H79" s="15">
+        <v>10563</v>
+      </c>
+      <c r="I79" s="16">
+        <v>8</v>
+      </c>
+      <c r="J79" s="16"/>
+      <c r="K79" s="24">
+        <v>0</v>
+      </c>
+      <c r="L79" s="24">
+        <v>0</v>
+      </c>
+      <c r="M79" s="24">
+        <v>0</v>
+      </c>
+      <c r="N79" s="24">
+        <v>4</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="8"/>
+      <c r="V79" s="8"/>
+      <c r="W79" s="8"/>
+      <c r="X79" s="8"/>
+    </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:Q76" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <mergeCells count="76">
+  <mergeCells count="79">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
@@ -44072,6 +44811,7 @@
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A77:A79"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
@@ -44097,6 +44837,7 @@
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B71:B73"/>
     <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
@@ -44122,6 +44863,7 @@
     <mergeCell ref="C68:C70"/>
     <mergeCell ref="C71:C73"/>
     <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C77:C79"/>
     <mergeCell ref="D68:D70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
